--- a/public/report/pds_generated.xlsx
+++ b/public/report/pds_generated.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -103,24 +103,18 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>Hubbard</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Doe</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>Kaitlin</t>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                           </t>
   </si>
   <si>
-    <t>Roanna Robles</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
@@ -130,7 +124,7 @@
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t>Shana Carson</t>
+    <t>A.</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -146,7 +140,7 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>2023-05-22</t>
+    <t>0199-05-21</t>
   </si>
   <si>
     <t>16. CITIZENSHIP</t>
@@ -164,7 +158,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>Omnis est voluptatem</t>
+    <t>Manila</t>
   </si>
   <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
@@ -185,6 +179,9 @@
     <t>SEX</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>please indicate the details.</t>
   </si>
   <si>
@@ -197,13 +194,16 @@
     <t>CIVIL STATUS</t>
   </si>
   <si>
+    <t>married</t>
+  </si>
+  <si>
     <t>17. RESIDENTIAL ADDRESS</t>
   </si>
   <si>
-    <t>123 Enim enim recusandae</t>
-  </si>
-  <si>
-    <t>Accusamus qui ut hic</t>
+    <t>Aliqua Quibusdam si</t>
+  </si>
+  <si>
+    <t>Non quia amet ut nu</t>
   </si>
   <si>
     <t>Angola</t>
@@ -218,10 +218,10 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>Quaerat excepteur id</t>
-  </si>
-  <si>
-    <t>Qui veniam placeat</t>
+    <t>Quo inventore dolore</t>
+  </si>
+  <si>
+    <t>Eius at perspiciatis</t>
   </si>
   <si>
     <t>Argentina</t>
@@ -245,10 +245,10 @@
     <t>HEIGHT (m)</t>
   </si>
   <si>
-    <t>Voluptates ea nemo a</t>
-  </si>
-  <si>
-    <t>Omnis ab est simili</t>
+    <t>Voluptatem optio fu</t>
+  </si>
+  <si>
+    <t>Alias adipisci tempo</t>
   </si>
   <si>
     <t>Australia</t>
@@ -281,16 +281,16 @@
     <t>BLOOD TYPE</t>
   </si>
   <si>
-    <t>AB-</t>
+    <t>O</t>
   </si>
   <si>
     <t>18. PERMANENT ADDRESS</t>
   </si>
   <si>
-    <t>123 Maiores aut ipsum q</t>
-  </si>
-  <si>
-    <t>Molestias maiores op</t>
+    <t>Minim quia excepturi</t>
+  </si>
+  <si>
+    <t>Iste sit consectetu</t>
   </si>
   <si>
     <t>Bahamas, The</t>
@@ -305,10 +305,10 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
-    <t>Sapiente eum id ut a</t>
-  </si>
-  <si>
-    <t>Deserunt id ipsum es</t>
+    <t>Proident dicta quis</t>
+  </si>
+  <si>
+    <t>Est nemo non enim s</t>
   </si>
   <si>
     <t>Bangladesh</t>
@@ -323,10 +323,10 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
-    <t>Irure iste culpa vel</t>
-  </si>
-  <si>
-    <t>Dolor officia id dol</t>
+    <t>Reprehenderit provi</t>
+  </si>
+  <si>
+    <t>Pariatur Sunt eveni</t>
   </si>
   <si>
     <t>Belarus</t>
@@ -362,6 +362,9 @@
     <t>20. MOBILE NO.</t>
   </si>
   <si>
+    <t>09123456789</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -371,7 +374,7 @@
     <t>21. E-MAIL ADDRESS (if any)</t>
   </si>
   <si>
-    <t>soda@mailinator.com</t>
+    <t>johndoe@example.com</t>
   </si>
   <si>
     <t>Bolivia</t>
@@ -389,7 +392,7 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t>Reese</t>
+    <t>Knapp</t>
   </si>
   <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
@@ -404,16 +407,16 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
-    <t>Rahim</t>
+    <t>Otto</t>
   </si>
   <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Tarik O. Holcomb </t>
-  </si>
-  <si>
-    <t>2012-06-30</t>
+    <t xml:space="preserve">Abbot O. Henson </t>
+  </si>
+  <si>
+    <t>1991-10-18</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -422,13 +425,13 @@
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
-    <t>Iona Reynolds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aphrodite C. Wilkinson </t>
-  </si>
-  <si>
-    <t>2003-05-29</t>
+    <t>Bevis Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciara J. Boone </t>
+  </si>
+  <si>
+    <t>1997-06-06</t>
   </si>
   <si>
     <t>Brunei </t>
@@ -437,13 +440,7 @@
     <t>OCCUPATION</t>
   </si>
   <si>
-    <t xml:space="preserve">Earum vel proident </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginger A. Cleveland </t>
-  </si>
-  <si>
-    <t>1973-02-02</t>
+    <t>Ea impedit quia omn</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -452,13 +449,7 @@
     <t>EMPLOYER/BUSINESS NAME</t>
   </si>
   <si>
-    <t>Stacey Galloway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lionel T. Fischer </t>
-  </si>
-  <si>
-    <t>1978-04-18</t>
+    <t>Cheryl Finch</t>
   </si>
   <si>
     <t>Burkina Faso</t>
@@ -467,7 +458,7 @@
     <t>BUSINESS ADDRESS</t>
   </si>
   <si>
-    <t>+1 (982) 137-2444</t>
+    <t>+1 (439) 369-8319</t>
   </si>
   <si>
     <t>Burma</t>
@@ -476,7 +467,7 @@
     <t>TELEPHONE NO.</t>
   </si>
   <si>
-    <t>Perspiciatis invent</t>
+    <t>Reiciendis dicta sit</t>
   </si>
   <si>
     <t>Burundi</t>
@@ -488,13 +479,13 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
-    <t>William</t>
+    <t>Valencia</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Celeste</t>
+    <t>Odette</t>
   </si>
   <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
@@ -503,7 +494,7 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Faith Nolan</t>
+    <t>Athena Berger</t>
   </si>
   <si>
     <t>Canada</t>
@@ -518,19 +509,19 @@
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Morgan</t>
+    <t>Howe</t>
   </si>
   <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Kermit</t>
+    <t>Minerva</t>
   </si>
   <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Brady Savage</t>
+    <t>Christen Benton</t>
   </si>
   <si>
     <t>(Continue on separate sheet if necessary)</t>
@@ -591,16 +582,16 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
-    <t>Octavius Duke</t>
-  </si>
-  <si>
-    <t>Reprehenderit optio</t>
-  </si>
-  <si>
-    <t>Quam omnis illo face</t>
-  </si>
-  <si>
-    <t>Aute maxime sed odit</t>
+    <t>Aurelia Hutchinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxime alias fugiat </t>
+  </si>
+  <si>
+    <t>Ad nulla enim culpa</t>
+  </si>
+  <si>
+    <t>Qui quasi ea dolor o</t>
   </si>
   <si>
     <t>Congo, Republic of the</t>
@@ -615,16 +606,16 @@
     <t>VOCATIONAL /                                                                                                                                                                                                        TRADE COURSE</t>
   </si>
   <si>
-    <t>Lynn Cervantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magni aut nesciunt </t>
-  </si>
-  <si>
-    <t>Commodi et totam omn</t>
-  </si>
-  <si>
-    <t>Vel laudantium et d</t>
+    <t>Jack Joyce</t>
+  </si>
+  <si>
+    <t>Quia officia non vol</t>
+  </si>
+  <si>
+    <t>Consequuntur do dolo</t>
+  </si>
+  <si>
+    <t>Exercitation sit ob</t>
   </si>
   <si>
     <t>Cote d'Ivoire</t>
@@ -633,22 +624,34 @@
     <t>COLLEGE</t>
   </si>
   <si>
+    <t>Colton Fuentes</t>
+  </si>
+  <si>
+    <t>Consequuntur officia</t>
+  </si>
+  <si>
+    <t>Culpa et cum id quis</t>
+  </si>
+  <si>
+    <t>Provident commodo n</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
     <t xml:space="preserve">GRADUATE STUDIES </t>
   </si>
   <si>
-    <t>Slade Bates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doloremque mollitia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veritatis similique </t>
-  </si>
-  <si>
-    <t>Ad doloremque enim f</t>
+    <t>Orli Garza</t>
+  </si>
+  <si>
+    <t>Nam harum dolores el</t>
+  </si>
+  <si>
+    <t>Libero nemo enim lab</t>
+  </si>
+  <si>
+    <t>Ut in ea culpa earu</t>
   </si>
   <si>
     <t>Cuba</t>
@@ -661,9 +664,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>[{"id":2,"personnel_id":1,"organization":"Red Cross","position":"volunteer","inclusive_from":"2020-05-01","inclusive_to":"2024-05-01","hours":10000,"created_at":null,"updated_at":null}]</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -1169,127 +1169,52 @@
 Validity</t>
   </si>
   <si>
-    <t>Labore qui in ex neq</t>
-  </si>
-  <si>
-    <t>In magna sunt offici</t>
-  </si>
-  <si>
-    <t>10/11/2006</t>
-  </si>
-  <si>
-    <t>Cillum ipsum proide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enim quae assumenda </t>
-  </si>
-  <si>
-    <t>05/28/2024</t>
-  </si>
-  <si>
-    <t>Delectus id distinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quis aut aspernatur </t>
-  </si>
-  <si>
-    <t>05/24/2004</t>
-  </si>
-  <si>
-    <t>Non eligendi quo ill</t>
-  </si>
-  <si>
-    <t>Laboris ex quo minim</t>
-  </si>
-  <si>
-    <t>Cillum do aspernatur</t>
-  </si>
-  <si>
-    <t>Inventore esse beata</t>
-  </si>
-  <si>
-    <t>11/15/1989</t>
-  </si>
-  <si>
-    <t>Nostrud fugiat culpa</t>
-  </si>
-  <si>
-    <t>Est animi qui nobi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Et nisi dolore vero </t>
-  </si>
-  <si>
-    <t>Ut sed ullam aut ips</t>
-  </si>
-  <si>
-    <t>02/05/1988</t>
-  </si>
-  <si>
-    <t>Et est temporibus at</t>
-  </si>
-  <si>
-    <t>Quasi amet accusamu</t>
-  </si>
-  <si>
-    <t>Amet aut impedit v</t>
-  </si>
-  <si>
-    <t>Fugiat tempora volup</t>
-  </si>
-  <si>
-    <t>11/23/1986</t>
-  </si>
-  <si>
-    <t>Molestias quia hic s</t>
-  </si>
-  <si>
-    <t>Mollit molestias aut</t>
-  </si>
-  <si>
-    <t>A et est est qui opt</t>
-  </si>
-  <si>
-    <t>Aut omnis illo exerc</t>
-  </si>
-  <si>
-    <t>05/04/2014</t>
-  </si>
-  <si>
-    <t>Ex officiis sit eni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporibus tempore </t>
-  </si>
-  <si>
-    <t>Voluptate consequatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doloremque est vero </t>
-  </si>
-  <si>
-    <t>05/10/2014</t>
-  </si>
-  <si>
-    <t>Optio iste modi arc</t>
-  </si>
-  <si>
-    <t>Incidunt at totam i</t>
-  </si>
-  <si>
-    <t>Labore eaque perfere</t>
-  </si>
-  <si>
-    <t>Ipsam veniam ea dol</t>
-  </si>
-  <si>
-    <t>01/02/1990</t>
-  </si>
-  <si>
-    <t>Quas ut et omnis ill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expedita aute esse </t>
+    <t>Adipisci et qui aute</t>
+  </si>
+  <si>
+    <t>Et lorem neque corpo</t>
+  </si>
+  <si>
+    <t>07/24/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut minus quasi quis </t>
+  </si>
+  <si>
+    <t>Amet repudiandae do</t>
+  </si>
+  <si>
+    <t>05/29/2024</t>
+  </si>
+  <si>
+    <t>Voluptatem Nulla co</t>
+  </si>
+  <si>
+    <t>Vero repudiandae sol</t>
+  </si>
+  <si>
+    <t>10/23/2002</t>
+  </si>
+  <si>
+    <t>Beatae doloremque pl</t>
+  </si>
+  <si>
+    <t>Earum odit praesenti</t>
+  </si>
+  <si>
+    <t>Veniam architecto e</t>
+  </si>
+  <si>
+    <t>Lorem est temporibu</t>
+  </si>
+  <si>
+    <t>12/17/1979</t>
+  </si>
+  <si>
+    <t>Nulla in occaecat re</t>
+  </si>
+  <si>
+    <t>Do do sunt molestia</t>
   </si>
   <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
@@ -1322,82 +1247,34 @@
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
-    <t>09/20/1996</t>
-  </si>
-  <si>
-    <t>11/02/2019</t>
-  </si>
-  <si>
-    <t>Ab et aliquid molest</t>
-  </si>
-  <si>
-    <t>Campos and Stone Inc</t>
-  </si>
-  <si>
-    <t>Quibusdam consequunt</t>
-  </si>
-  <si>
-    <t>09/21/2011</t>
-  </si>
-  <si>
-    <t>09/10/2016</t>
-  </si>
-  <si>
-    <t>Tenetur est voluptat</t>
-  </si>
-  <si>
-    <t>Sweet Hutchinson Plc</t>
-  </si>
-  <si>
-    <t>Fugiat modi vel quia</t>
-  </si>
-  <si>
-    <t>02/01/1994</t>
-  </si>
-  <si>
-    <t>05/25/2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolor ullamco eaque </t>
-  </si>
-  <si>
-    <t>Macias Barrera Co</t>
-  </si>
-  <si>
-    <t>Quis minim quia dolo</t>
-  </si>
-  <si>
-    <t>05/21/1989</t>
-  </si>
-  <si>
-    <t>10/22/2003</t>
-  </si>
-  <si>
-    <t>Est voluptatem quia</t>
-  </si>
-  <si>
-    <t>Ratliff Cherry Associates</t>
-  </si>
-  <si>
-    <t>Inventore cillum pro</t>
-  </si>
-  <si>
-    <t>04/27/1979</t>
-  </si>
-  <si>
-    <t>08/24/1989</t>
-  </si>
-  <si>
-    <t>Nam id odio invento</t>
-  </si>
-  <si>
-    <t>Witt Woodward Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est nulla vero quis </t>
-  </si>
-  <si>
-    <t>Libero a consectetur</t>
+    <t>10/05/1998</t>
+  </si>
+  <si>
+    <t>02/15/1975</t>
+  </si>
+  <si>
+    <t>Eius sequi reprehend</t>
+  </si>
+  <si>
+    <t>Espinoza and Chandler Associates</t>
+  </si>
+  <si>
+    <t>Ea omnis duis eos of</t>
+  </si>
+  <si>
+    <t>01/27/1976</t>
+  </si>
+  <si>
+    <t>11/06/2006</t>
+  </si>
+  <si>
+    <t>Deleniti sequi et ni</t>
+  </si>
+  <si>
+    <t>Moss and Parrish LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolor eos excepteur </t>
   </si>
   <si>
     <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
@@ -1421,16 +1298,16 @@
     <t>POSITION / NATURE OF WORK</t>
   </si>
   <si>
-    <t>Red Cross</t>
-  </si>
-  <si>
-    <t>05/01/2020</t>
-  </si>
-  <si>
-    <t>05/01/2024</t>
-  </si>
-  <si>
-    <t>volunteer</t>
+    <t>Gilmore and Flowers Associates</t>
+  </si>
+  <si>
+    <t>07/17/1998</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>Illum vitae eu eius</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -1571,34 +1448,13 @@
     </r>
   </si>
   <si>
-    <t>Alyssa Fuentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecto impedit </t>
-  </si>
-  <si>
-    <t>Et est aliqua Fugi</t>
-  </si>
-  <si>
-    <t>Todd Ruiz</t>
+    <t xml:space="preserve">a. </t>
   </si>
   <si>
     <t>Are you a member of any indigenous group?</t>
   </si>
   <si>
-    <t>231 South New Road</t>
-  </si>
-  <si>
-    <t>Aliquid commodo labo</t>
-  </si>
-  <si>
-    <t>Venus Patterson</t>
-  </si>
-  <si>
-    <t>Minus ipsa aut mini</t>
-  </si>
-  <si>
-    <t>Ipsam occaecat dolor</t>
+    <t>If YES, please specify:</t>
   </si>
   <si>
     <t xml:space="preserve">b. </t>
@@ -1781,7 +1637,7 @@
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="168" formatCode="00000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1907,15 +1763,6 @@
       <sz val="10"/>
       <color rgb="00000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="00000000"/>
-      <name val="Arial Narrow"/>
     </font>
     <font>
       <b val="0"/>
@@ -2053,6 +1900,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FFEAEAEA"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="1"/>
       <strike val="0"/>
@@ -2085,6 +1941,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="7"/>
+      <color rgb="00000000"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
       <color rgb="00000000"/>
       <name val="Arial Narrow"/>
     </font>
@@ -2141,6 +2006,24 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3075,7 +2958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="783">
+  <cellXfs count="784">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
@@ -3534,14 +3417,6 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="24" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -3552,7 +3427,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -3585,7 +3460,7 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3610,10 +3485,6 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -3624,16 +3495,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3676,7 +3547,7 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="20" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3744,16 +3615,16 @@
       <protection locked="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="49" fillId="0" borderId="45" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3806,7 +3677,7 @@
     <xf xfId="0" fontId="12" numFmtId="49" fillId="3" borderId="23" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="22" numFmtId="49" fillId="3" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="21" numFmtId="49" fillId="3" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -3815,7 +3686,7 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3851,7 +3722,7 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -3899,7 +3770,7 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="47" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="23" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -3912,20 +3783,11 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="14" fillId="4" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="23" numFmtId="14" fillId="4" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="24" numFmtId="14" fillId="4" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="23" numFmtId="14" fillId="4" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -3938,35 +3800,35 @@
     <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="2" borderId="52" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="2" borderId="52" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="49" fillId="0" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="49" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="167" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="49" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="27" numFmtId="49" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="49" fillId="0" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -4011,16 +3873,19 @@
     <xf xfId="0" fontId="9" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="49" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="27" numFmtId="49" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="2" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="2" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="30" numFmtId="49" fillId="2" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4052,6 +3917,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
@@ -4073,10 +3946,10 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="32" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4085,15 +3958,15 @@
     <xf xfId="0" fontId="32" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="49" fillId="0" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="16" numFmtId="49" fillId="0" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="16" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="49" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="16" numFmtId="49" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -4136,36 +4009,36 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="46" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="46" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="47" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="47" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="50" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="50" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -4187,25 +4060,25 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="36" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="46" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="46" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="47" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="47" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="49" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="49" fillId="0" borderId="49" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="5" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="5" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
@@ -4219,31 +4092,31 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="0" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="5" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="5" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="56" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="56" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4258,25 +4131,25 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="0" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="55" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="55" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="3" borderId="24" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="3" borderId="24" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="3" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="3" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="3" borderId="16" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="3" borderId="16" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4332,14 +4205,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="45" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="3" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -4350,14 +4215,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -4385,7 +4242,7 @@
     <xf xfId="0" fontId="11" quotePrefix="1" numFmtId="49" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="23" numFmtId="49" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -4424,6 +4281,15 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="0" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="33" numFmtId="49" fillId="6" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
@@ -4436,11 +4302,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="14" fillId="4" borderId="66" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="23" numFmtId="14" fillId="4" borderId="66" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="14" fillId="4" borderId="67" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="23" numFmtId="14" fillId="4" borderId="67" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -4457,15 +4323,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="54" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="49" fillId="0" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -4484,28 +4341,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="5" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="5" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="5" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="5" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="5" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="5" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="68" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="68" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="5" borderId="69" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="5" borderId="69" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="24" numFmtId="49" fillId="4" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="23" numFmtId="49" fillId="4" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="24" numFmtId="49" fillId="4" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="23" numFmtId="49" fillId="4" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -4518,13 +4375,13 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="0" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="49" fillId="0" borderId="45" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -4538,10 +4395,10 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="73" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="36" numFmtId="49" fillId="0" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="49" fillId="0" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="6" numFmtId="49" fillId="0" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
@@ -4569,10 +4426,6 @@
     <xf xfId="0" fontId="11" numFmtId="49" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -4610,25 +4463,25 @@
     <xf xfId="0" fontId="33" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="49" fillId="5" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="27" numFmtId="49" fillId="5" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="0" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="0" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="0" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="3" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="3" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="3" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="3" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="49" fillId="3" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="49" fillId="3" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4670,10 +4523,10 @@
     <xf xfId="0" fontId="12" numFmtId="49" fillId="3" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="14" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -4725,10 +4578,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="49" fillId="2" borderId="61" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="49" fillId="2" borderId="61" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="49" fillId="2" borderId="62" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="49" fillId="2" borderId="62" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="14" fillId="0" borderId="40" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -4777,10 +4630,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="30" numFmtId="49" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4795,10 +4648,10 @@
     <xf xfId="0" fontId="30" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="6" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="6" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="49" fillId="6" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="24" numFmtId="49" fillId="6" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="49" fillId="0" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -4841,12 +4694,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="36" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -4977,6 +4824,12 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="33" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="36" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="49" fillId="0" borderId="46" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
@@ -5056,13 +4909,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="49" fillId="2" borderId="24" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="49" fillId="2" borderId="24" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="49" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="49" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="49" fillId="2" borderId="16" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="39" numFmtId="49" fillId="2" borderId="16" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="49" fillId="0" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -5143,7 +4996,7 @@
     <xf xfId="0" fontId="9" numFmtId="49" fillId="2" borderId="36" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="27" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="49" fillId="2" borderId="51" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5164,13 +5017,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5261,7 +5114,7 @@
     <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -5390,7 +5243,7 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="20" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="25" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5431,22 +5284,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="45" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="4" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="4" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="0" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="4" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="4" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="49" fillId="4" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5458,7 +5344,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="50" dropStyle="combo" dx="16" fmlaRange="Q11:Q216" noThreeD="1" sel="4" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="50" dropStyle="combo" dx="16" fmlaRange="Q11:Q216" noThreeD="1" sel="30" val="29"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5474,7 +5360,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Label"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5546,7 +5432,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5562,7 +5448,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Label"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6445,7 +6331,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Drop Down 31" hidden="1">
+            <xdr:cNvPr id="1055" name="citizenship_country_dropdown" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
@@ -6503,7 +6389,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="1045" name="filipino_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1045"/>
@@ -6590,7 +6476,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="1046" name="dual_citizenship_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1046"/>
@@ -6677,7 +6563,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+            <xdr:cNvPr id="1049" name="male_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1049"/>
@@ -6764,7 +6650,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+            <xdr:cNvPr id="1050" name="female_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1050"/>
@@ -6851,7 +6737,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+            <xdr:cNvPr id="1058" name="single_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
@@ -6938,7 +6824,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+            <xdr:cNvPr id="1059" name="married_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
@@ -7025,7 +6911,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="1060" name="widow_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
@@ -7112,7 +6998,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="1061" name="other_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
@@ -7199,7 +7085,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="1062" name="seperated_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
@@ -8028,7 +7914,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Check Box 1" hidden="1">
+            <xdr:cNvPr id="4097" name="34_a_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
@@ -8115,7 +8001,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4098" name="Check Box 2" hidden="1">
+            <xdr:cNvPr id="4098" name="34_a_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
@@ -8202,7 +8088,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4099" name="Check Box 3" hidden="1">
+            <xdr:cNvPr id="4099" name="34_b_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4099"/>
@@ -8289,7 +8175,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4100" name="Check Box 4" hidden="1">
+            <xdr:cNvPr id="4100" name="34_b_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4100"/>
@@ -8376,7 +8262,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4101" name="Check Box 5" hidden="1">
+            <xdr:cNvPr id="4101" name="35_a_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4101"/>
@@ -8463,7 +8349,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4102" name="Check Box 6" hidden="1">
+            <xdr:cNvPr id="4102" name="35_a_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4102"/>
@@ -8550,7 +8436,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4103" name="Check Box 7" hidden="1">
+            <xdr:cNvPr id="4103" name="35_b_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4103"/>
@@ -8637,7 +8523,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4104" name="Check Box 8" hidden="1">
+            <xdr:cNvPr id="4104" name="35_b_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4104"/>
@@ -8724,7 +8610,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4105" name="Check Box 9" hidden="1">
+            <xdr:cNvPr id="4105" name="36_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4105"/>
@@ -8811,7 +8697,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4106" name="Check Box 10" hidden="1">
+            <xdr:cNvPr id="4106" name="36_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4106"/>
@@ -8898,7 +8784,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4107" name="Check Box 11" hidden="1">
+            <xdr:cNvPr id="4107" name="37_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4107"/>
@@ -8985,7 +8871,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4108" name="Check Box 12" hidden="1">
+            <xdr:cNvPr id="4108" name="37_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4108"/>
@@ -9072,7 +8958,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4109" name="Check Box 13" hidden="1">
+            <xdr:cNvPr id="4109" name="39_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4109"/>
@@ -9159,7 +9045,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4110" name="Check Box 14" hidden="1">
+            <xdr:cNvPr id="4110" name="39_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4110"/>
@@ -9246,7 +9132,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4111" name="Check Box 15" hidden="1">
+            <xdr:cNvPr id="4111" name="40_a_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4111"/>
@@ -9333,7 +9219,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4112" name="Check Box 16" hidden="1">
+            <xdr:cNvPr id="4112" name="40_b_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4112"/>
@@ -9420,7 +9306,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4113" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="4113" name="40_c_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4113"/>
@@ -9507,7 +9393,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4114" name="Check Box 18" hidden="1">
+            <xdr:cNvPr id="4114" name="40_a_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4114"/>
@@ -9594,7 +9480,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4115" name="Check Box 19" hidden="1">
+            <xdr:cNvPr id="4115" name="40_b_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4115"/>
@@ -9681,7 +9567,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4116" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="4116" name="40_c_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4116"/>
@@ -9831,7 +9717,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4122" name="Check Box 26" hidden="1">
+            <xdr:cNvPr id="4122" name="38_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4122"/>
@@ -9918,7 +9804,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4123" name="Check Box 27" hidden="1">
+            <xdr:cNvPr id="4123" name="38_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4123"/>
@@ -10005,7 +9891,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4124" name="Check Box 28" hidden="1">
+            <xdr:cNvPr id="4124" name="38_b_yes_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4124"/>
@@ -10092,7 +9978,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4125" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="4125" name="38_b_no_checkbox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4125"/>
@@ -10450,14 +10336,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1" topLeftCell="A20">
-      <selection activeCell="L27" sqref="L27:N27"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1" topLeftCell="A7">
+      <selection activeCell="D10" sqref="D10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10484,38 +10370,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" customHeight="1" ht="2.25">
-      <c r="A1" s="394"/>
-      <c r="B1" s="395"/>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
-      <c r="G1" s="395"/>
-      <c r="H1" s="395"/>
-      <c r="I1" s="395"/>
-      <c r="J1" s="395"/>
-      <c r="K1" s="395"/>
-      <c r="L1" s="395"/>
-      <c r="M1" s="395"/>
-      <c r="N1" s="396"/>
+      <c r="A1" s="391"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
+      <c r="N1" s="393"/>
     </row>
     <row r="2" spans="1:19" customHeight="1" ht="11.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185" t="s">
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="102" t="s">
         <v>1</v>
       </c>
@@ -10527,80 +10413,80 @@
       </c>
     </row>
     <row r="3" spans="1:19" customHeight="1" ht="41.25">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="399"/>
+      <c r="B3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="396"/>
     </row>
     <row r="4" spans="1:19" customHeight="1" ht="21.75">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357"/>
-      <c r="M4" s="357"/>
-      <c r="N4" s="358"/>
+      <c r="B4" s="354"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="355"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="11.25">
-      <c r="A5" s="473" t="s">
+      <c r="A5" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="474"/>
-      <c r="C5" s="474"/>
-      <c r="D5" s="474"/>
-      <c r="E5" s="474"/>
-      <c r="F5" s="474"/>
-      <c r="G5" s="474"/>
-      <c r="H5" s="474"/>
-      <c r="I5" s="474"/>
-      <c r="J5" s="474"/>
-      <c r="K5" s="474"/>
-      <c r="L5" s="474"/>
-      <c r="M5" s="474"/>
-      <c r="N5" s="475"/>
+      <c r="B5" s="467"/>
+      <c r="C5" s="467"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="467"/>
+      <c r="F5" s="467"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
+      <c r="I5" s="467"/>
+      <c r="J5" s="467"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="467"/>
+      <c r="M5" s="467"/>
+      <c r="N5" s="468"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="3" hidden="true">
-      <c r="A6" s="229"/>
-      <c r="B6" s="251"/>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="230"/>
-      <c r="L6" s="230"/>
-      <c r="M6" s="230"/>
-      <c r="N6" s="231"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="228"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="12.75" s="105" customFormat="1">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="263"/>
+      <c r="B7" s="260"/>
       <c r="C7" s="103"/>
       <c r="D7" s="103"/>
       <c r="E7" s="103"/>
@@ -10612,1409 +10498,1413 @@
       <c r="K7" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="403" t="s">
+      <c r="L7" s="400" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="404"/>
-      <c r="N7" s="405"/>
+      <c r="M7" s="401"/>
+      <c r="N7" s="402"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="2.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="178"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="176"/>
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="16.5">
-      <c r="A9" s="400" t="s">
+      <c r="A9" s="397" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="401"/>
-      <c r="C9" s="401"/>
-      <c r="D9" s="401"/>
-      <c r="E9" s="401"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="401"/>
-      <c r="H9" s="401"/>
-      <c r="I9" s="401"/>
-      <c r="J9" s="401"/>
-      <c r="K9" s="401"/>
-      <c r="L9" s="401"/>
-      <c r="M9" s="401"/>
-      <c r="N9" s="402"/>
+      <c r="B9" s="398"/>
+      <c r="C9" s="398"/>
+      <c r="D9" s="398"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="398"/>
+      <c r="H9" s="398"/>
+      <c r="I9" s="398"/>
+      <c r="J9" s="398"/>
+      <c r="K9" s="398"/>
+      <c r="L9" s="398"/>
+      <c r="M9" s="398"/>
+      <c r="N9" s="399"/>
     </row>
     <row r="10" spans="1:19" customHeight="1" ht="22.5">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="423" t="s">
+      <c r="B10" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="424"/>
-      <c r="D10" s="414" t="s">
+      <c r="C10" s="417"/>
+      <c r="D10" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="414" t="s">
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="411"/>
+      <c r="K10" s="411"/>
+      <c r="L10" s="411"/>
+      <c r="M10" s="411"/>
+      <c r="N10" s="412"/>
+      <c r="P10" s="106"/>
+    </row>
+    <row r="11" spans="1:19" customHeight="1" ht="22.5">
+      <c r="A11" s="186"/>
+      <c r="B11" s="418" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="414"/>
-      <c r="N10" s="415"/>
-      <c r="P10" s="106"/>
-    </row>
-    <row r="11" spans="1:19" customHeight="1" ht="22.5">
-      <c r="A11" s="189"/>
-      <c r="B11" s="425" t="s">
+      <c r="C11" s="419"/>
+      <c r="D11" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="426"/>
-      <c r="D11" s="243" t="s">
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="440" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="444" t="s">
+      <c r="M11" s="441"/>
+      <c r="N11" s="442"/>
+      <c r="P11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="445"/>
-      <c r="N11" s="446" t="s">
+      <c r="Q11" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="107" t="s">
+    </row>
+    <row r="12" spans="1:19" customHeight="1" ht="21.75">
+      <c r="A12" s="187"/>
+      <c r="B12" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="159" t="s">
+      <c r="C12" s="421"/>
+      <c r="D12" s="231" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" customHeight="1" ht="21.75">
-      <c r="A12" s="190"/>
-      <c r="B12" s="427" t="s">
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="232"/>
+      <c r="H12" s="232"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="242"/>
+      <c r="N12" s="243"/>
+      <c r="P12" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="428"/>
-      <c r="D12" s="234" t="s">
+      <c r="Q12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="246"/>
-      <c r="P12" s="107" t="s">
+    </row>
+    <row r="13" spans="1:19" customHeight="1" ht="24">
+      <c r="A13" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="B13" s="490" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" customHeight="1" ht="24">
-      <c r="A13" s="287" t="s">
+      <c r="C13" s="417"/>
+      <c r="D13" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="498" t="s">
+      <c r="E13" s="443"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="424"/>
-      <c r="D13" s="447" t="s">
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="772"/>
+      <c r="K13" s="773"/>
+      <c r="L13" s="773"/>
+      <c r="M13" s="773"/>
+      <c r="N13" s="774"/>
+      <c r="P13" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="447"/>
-      <c r="F13" s="448"/>
-      <c r="G13" s="113" t="s">
+      <c r="Q13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="454"/>
-      <c r="K13" s="455"/>
-      <c r="L13" s="455"/>
-      <c r="M13" s="455"/>
-      <c r="N13" s="456"/>
-      <c r="P13" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="14" spans="1:19" customHeight="1" ht="12">
-      <c r="A14" s="281"/>
-      <c r="B14" s="279"/>
-      <c r="C14" s="279"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="286"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="280"/>
-      <c r="I14" s="280"/>
-      <c r="J14" s="283"/>
-      <c r="K14" s="284"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="284"/>
-      <c r="N14" s="285"/>
+      <c r="A14" s="278"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="775"/>
+      <c r="K14" s="776"/>
+      <c r="L14" s="776"/>
+      <c r="M14" s="776"/>
+      <c r="N14" s="777"/>
       <c r="P14" s="107"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:19" customHeight="1" ht="24.75">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="E15" s="461"/>
+      <c r="F15" s="462"/>
+      <c r="G15" s="448" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="468" t="s">
+      <c r="H15" s="449"/>
+      <c r="I15" s="449"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="451" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="468"/>
-      <c r="F15" s="469"/>
-      <c r="G15" s="452" t="s">
+      <c r="M15" s="451"/>
+      <c r="N15" s="452"/>
+      <c r="P15" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="453"/>
-      <c r="I15" s="453"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="458" t="s">
+      <c r="Q15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="458"/>
-      <c r="N15" s="459"/>
-      <c r="P15" s="107" t="s">
+    </row>
+    <row r="16" spans="1:19" customHeight="1" ht="24.75">
+      <c r="A16" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="B16" s="108" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" customHeight="1" ht="24.75">
-      <c r="A16" s="192" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="770" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="E16" s="770"/>
+      <c r="F16" s="771"/>
+      <c r="G16" s="445" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="416"/>
-      <c r="E16" s="416"/>
-      <c r="F16" s="417"/>
-      <c r="G16" s="449" t="s">
+      <c r="H16" s="446"/>
+      <c r="I16" s="447"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="176"/>
+      <c r="P16" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="450"/>
-      <c r="I16" s="451"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="178"/>
-      <c r="P16" s="107" t="s">
+      <c r="Q16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:19" customHeight="1" ht="15.75">
+      <c r="A17" s="479">
+        <v>6</v>
+      </c>
+      <c r="B17" s="486" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" customHeight="1" ht="15.75">
-      <c r="A17" s="486">
-        <v>6</v>
-      </c>
-      <c r="B17" s="494" t="s">
+      <c r="C17" s="487"/>
+      <c r="D17" s="778" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="495"/>
-      <c r="D17" s="493"/>
-      <c r="E17" s="493"/>
-      <c r="F17" s="493"/>
+      <c r="E17" s="778"/>
+      <c r="F17" s="778"/>
       <c r="G17" s="114" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="115"/>
-      <c r="I17" s="377" t="s">
+      <c r="I17" s="374" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="378"/>
-      <c r="K17" s="378"/>
-      <c r="L17" s="378" t="s">
+      <c r="J17" s="375"/>
+      <c r="K17" s="375"/>
+      <c r="L17" s="375" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="378"/>
-      <c r="N17" s="379"/>
+      <c r="M17" s="375"/>
+      <c r="N17" s="376"/>
       <c r="Q17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:19" customHeight="1" ht="9">
-      <c r="A18" s="487"/>
-      <c r="B18" s="496"/>
-      <c r="C18" s="497"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="421"/>
-      <c r="F18" s="421"/>
-      <c r="G18" s="173"/>
+      <c r="A18" s="480"/>
+      <c r="B18" s="488"/>
+      <c r="C18" s="489"/>
+      <c r="D18" s="779"/>
+      <c r="E18" s="779"/>
+      <c r="F18" s="779"/>
+      <c r="G18" s="171"/>
       <c r="H18" s="116"/>
-      <c r="I18" s="461" t="s">
+      <c r="I18" s="454" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="462"/>
-      <c r="K18" s="462"/>
-      <c r="L18" s="462" t="s">
+      <c r="J18" s="455"/>
+      <c r="K18" s="455"/>
+      <c r="L18" s="455" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="462"/>
-      <c r="N18" s="463"/>
+      <c r="M18" s="455"/>
+      <c r="N18" s="456"/>
       <c r="Q18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:19" customHeight="1" ht="5.25">
-      <c r="A19" s="193"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="173"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="780"/>
+      <c r="E19" s="780"/>
+      <c r="F19" s="780"/>
+      <c r="G19" s="171"/>
       <c r="H19" s="116"/>
-      <c r="I19" s="476" t="s">
+      <c r="I19" s="469" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="477"/>
-      <c r="K19" s="477"/>
-      <c r="L19" s="480" t="s">
+      <c r="J19" s="470"/>
+      <c r="K19" s="470"/>
+      <c r="L19" s="473" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="477"/>
-      <c r="N19" s="481"/>
+      <c r="M19" s="470"/>
+      <c r="N19" s="474"/>
       <c r="Q19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:19" customHeight="1" ht="9.75">
-      <c r="A20" s="487"/>
-      <c r="B20" s="264"/>
+      <c r="A20" s="480"/>
+      <c r="B20" s="261"/>
       <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="421"/>
-      <c r="F20" s="421"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="478"/>
-      <c r="J20" s="479"/>
-      <c r="K20" s="479"/>
-      <c r="L20" s="479"/>
-      <c r="M20" s="479"/>
-      <c r="N20" s="482"/>
+      <c r="D20" s="781"/>
+      <c r="E20" s="779"/>
+      <c r="F20" s="779"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="471"/>
+      <c r="J20" s="472"/>
+      <c r="K20" s="472"/>
+      <c r="L20" s="472"/>
+      <c r="M20" s="472"/>
+      <c r="N20" s="475"/>
       <c r="Q20" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:19" customHeight="1" ht="9">
-      <c r="A21" s="488"/>
-      <c r="B21" s="265"/>
+      <c r="A21" s="481"/>
+      <c r="B21" s="262"/>
       <c r="C21" s="150"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="422"/>
-      <c r="F21" s="422"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="483" t="s">
+      <c r="D21" s="782"/>
+      <c r="E21" s="783"/>
+      <c r="F21" s="783"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="476" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="484"/>
-      <c r="K21" s="484"/>
-      <c r="L21" s="374" t="s">
+      <c r="J21" s="477"/>
+      <c r="K21" s="477"/>
+      <c r="L21" s="371" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="375"/>
-      <c r="N21" s="376"/>
+      <c r="M21" s="372"/>
+      <c r="N21" s="373"/>
       <c r="Q21" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:19" customHeight="1" ht="15.75">
-      <c r="A22" s="491" t="s">
+      <c r="A22" s="484" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="439" t="s">
+      <c r="B22" s="432" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="440"/>
-      <c r="D22" s="435">
-        <v>92</v>
-      </c>
-      <c r="E22" s="435"/>
-      <c r="F22" s="435"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="377" t="s">
+      <c r="C22" s="433"/>
+      <c r="D22" s="428">
+        <v>170</v>
+      </c>
+      <c r="E22" s="428"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="374" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="378"/>
-      <c r="K22" s="378"/>
-      <c r="L22" s="378" t="s">
+      <c r="J22" s="375"/>
+      <c r="K22" s="375"/>
+      <c r="L22" s="375" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="378"/>
-      <c r="N22" s="379"/>
+      <c r="M22" s="375"/>
+      <c r="N22" s="376"/>
       <c r="Q22" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:19" customHeight="1" ht="8.25">
-      <c r="A23" s="492"/>
-      <c r="B23" s="441"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="436"/>
-      <c r="F23" s="436"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="382" t="s">
+      <c r="A23" s="485"/>
+      <c r="B23" s="434"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="429"/>
+      <c r="E23" s="429"/>
+      <c r="F23" s="429"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="379" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="383"/>
-      <c r="K23" s="383"/>
-      <c r="L23" s="380" t="s">
+      <c r="J23" s="380"/>
+      <c r="K23" s="380"/>
+      <c r="L23" s="377" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="380"/>
-      <c r="N23" s="381"/>
+      <c r="M23" s="377"/>
+      <c r="N23" s="378"/>
       <c r="Q23" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:19" customHeight="1" ht="22.5">
-      <c r="A24" s="189" t="s">
+      <c r="A24" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="443" t="s">
+      <c r="B24" s="436" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="430"/>
-      <c r="D24" s="460">
-        <v>67</v>
-      </c>
-      <c r="E24" s="460"/>
-      <c r="F24" s="460"/>
-      <c r="G24" s="389" t="s">
+      <c r="C24" s="423"/>
+      <c r="D24" s="453">
+        <v>70</v>
+      </c>
+      <c r="E24" s="453"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="386" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="367"/>
-      <c r="I24" s="390">
-        <v>54715</v>
-      </c>
-      <c r="J24" s="391"/>
-      <c r="K24" s="391"/>
-      <c r="L24" s="391"/>
-      <c r="M24" s="391"/>
-      <c r="N24" s="392"/>
+      <c r="H24" s="364"/>
+      <c r="I24" s="387">
+        <v>15132</v>
+      </c>
+      <c r="J24" s="388"/>
+      <c r="K24" s="388"/>
+      <c r="L24" s="388"/>
+      <c r="M24" s="388"/>
+      <c r="N24" s="389"/>
       <c r="Q24" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:19" customHeight="1" ht="15.75">
-      <c r="A25" s="437" t="s">
+      <c r="A25" s="430" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="439" t="s">
+      <c r="B25" s="432" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="440"/>
-      <c r="D25" s="485" t="s">
+      <c r="C25" s="433"/>
+      <c r="D25" s="478" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="485"/>
-      <c r="F25" s="485"/>
+      <c r="E25" s="478"/>
+      <c r="F25" s="478"/>
       <c r="G25" s="122" t="s">
         <v>73</v>
       </c>
       <c r="H25" s="110"/>
-      <c r="I25" s="393" t="s">
+      <c r="I25" s="390" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="387"/>
-      <c r="K25" s="387"/>
-      <c r="L25" s="387" t="s">
+      <c r="J25" s="384"/>
+      <c r="K25" s="384"/>
+      <c r="L25" s="384" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="387"/>
-      <c r="N25" s="388"/>
+      <c r="M25" s="384"/>
+      <c r="N25" s="385"/>
       <c r="Q25" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:19" customHeight="1" ht="9">
-      <c r="A26" s="438"/>
-      <c r="B26" s="441"/>
-      <c r="C26" s="442"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="461" t="s">
+      <c r="A26" s="431"/>
+      <c r="B26" s="434"/>
+      <c r="C26" s="435"/>
+      <c r="D26" s="429"/>
+      <c r="E26" s="429"/>
+      <c r="F26" s="429"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="454" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="462"/>
-      <c r="K26" s="462"/>
-      <c r="L26" s="462" t="s">
+      <c r="J26" s="455"/>
+      <c r="K26" s="455"/>
+      <c r="L26" s="455" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="462"/>
-      <c r="N26" s="463"/>
+      <c r="M26" s="455"/>
+      <c r="N26" s="456"/>
       <c r="Q26" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:19" customHeight="1" ht="15.75">
-      <c r="A27" s="437" t="s">
+      <c r="A27" s="430" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="439" t="s">
+      <c r="B27" s="432" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="440"/>
-      <c r="D27" s="485">
-        <v>96</v>
-      </c>
-      <c r="E27" s="485"/>
-      <c r="F27" s="485"/>
-      <c r="G27" s="173"/>
+      <c r="C27" s="433"/>
+      <c r="D27" s="478">
+        <v>456789123</v>
+      </c>
+      <c r="E27" s="478"/>
+      <c r="F27" s="478"/>
+      <c r="G27" s="171"/>
       <c r="H27" s="116"/>
-      <c r="I27" s="393" t="s">
+      <c r="I27" s="390" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="387"/>
-      <c r="K27" s="387"/>
-      <c r="L27" s="387" t="s">
+      <c r="J27" s="384"/>
+      <c r="K27" s="384"/>
+      <c r="L27" s="384" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="387"/>
-      <c r="N27" s="388"/>
+      <c r="M27" s="384"/>
+      <c r="N27" s="385"/>
       <c r="Q27" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:19" customHeight="1" ht="9">
-      <c r="A28" s="438"/>
-      <c r="B28" s="441"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="436"/>
-      <c r="F28" s="436"/>
-      <c r="G28" s="173"/>
+      <c r="A28" s="431"/>
+      <c r="B28" s="434"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="429"/>
+      <c r="E28" s="429"/>
+      <c r="F28" s="429"/>
+      <c r="G28" s="171"/>
       <c r="H28" s="116"/>
-      <c r="I28" s="464" t="s">
+      <c r="I28" s="457" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="465"/>
-      <c r="K28" s="465"/>
-      <c r="L28" s="466" t="s">
+      <c r="J28" s="458"/>
+      <c r="K28" s="458"/>
+      <c r="L28" s="459" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="465"/>
-      <c r="N28" s="467"/>
+      <c r="M28" s="458"/>
+      <c r="N28" s="460"/>
       <c r="Q28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:19" customHeight="1" ht="15.75">
-      <c r="A29" s="437" t="s">
+      <c r="A29" s="430" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="439" t="s">
+      <c r="B29" s="432" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="440"/>
-      <c r="D29" s="485">
-        <v>6</v>
-      </c>
-      <c r="E29" s="485"/>
-      <c r="F29" s="485"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="780" t="s">
+      <c r="C29" s="433"/>
+      <c r="D29" s="478">
+        <v>654987321</v>
+      </c>
+      <c r="E29" s="478"/>
+      <c r="F29" s="478"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="437" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="781"/>
-      <c r="K29" s="781"/>
-      <c r="L29" s="781" t="s">
+      <c r="J29" s="438"/>
+      <c r="K29" s="438"/>
+      <c r="L29" s="438" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="781"/>
-      <c r="N29" s="782"/>
+      <c r="M29" s="438"/>
+      <c r="N29" s="439"/>
       <c r="Q29" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:19" customHeight="1" ht="9.75">
-      <c r="A30" s="438"/>
-      <c r="B30" s="441"/>
-      <c r="C30" s="442"/>
-      <c r="D30" s="436"/>
-      <c r="E30" s="436"/>
-      <c r="F30" s="436"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="384" t="s">
+      <c r="A30" s="431"/>
+      <c r="B30" s="434"/>
+      <c r="C30" s="435"/>
+      <c r="D30" s="429"/>
+      <c r="E30" s="429"/>
+      <c r="F30" s="429"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="381" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="384"/>
-      <c r="K30" s="384"/>
-      <c r="L30" s="384" t="s">
+      <c r="J30" s="381"/>
+      <c r="K30" s="381"/>
+      <c r="L30" s="381" t="s">
         <v>64</v>
       </c>
-      <c r="M30" s="384"/>
-      <c r="N30" s="385"/>
+      <c r="M30" s="381"/>
+      <c r="N30" s="382"/>
       <c r="Q30" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:19" customHeight="1" ht="24.75">
-      <c r="A31" s="191" t="s">
+      <c r="A31" s="188" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="108" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="109"/>
-      <c r="D31" s="457">
-        <v>61</v>
-      </c>
-      <c r="E31" s="457"/>
-      <c r="F31" s="457"/>
-      <c r="G31" s="389" t="s">
+      <c r="D31" s="450">
+        <v>321654987</v>
+      </c>
+      <c r="E31" s="450"/>
+      <c r="F31" s="450"/>
+      <c r="G31" s="386" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="367"/>
-      <c r="I31" s="382">
-        <v>20782</v>
-      </c>
-      <c r="J31" s="383"/>
-      <c r="K31" s="383"/>
-      <c r="L31" s="374"/>
-      <c r="M31" s="374"/>
-      <c r="N31" s="386"/>
+      <c r="H31" s="364"/>
+      <c r="I31" s="379">
+        <v>41757</v>
+      </c>
+      <c r="J31" s="380"/>
+      <c r="K31" s="380"/>
+      <c r="L31" s="371"/>
+      <c r="M31" s="371"/>
+      <c r="N31" s="383"/>
       <c r="Q31" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:19" customHeight="1" ht="24.75">
-      <c r="A32" s="189" t="s">
+      <c r="A32" s="186" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="108" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="109"/>
-      <c r="D32" s="460">
-        <v>64</v>
-      </c>
-      <c r="E32" s="460"/>
-      <c r="F32" s="460"/>
-      <c r="G32" s="170" t="s">
+      <c r="D32" s="453">
+        <v>987654321</v>
+      </c>
+      <c r="E32" s="453"/>
+      <c r="F32" s="453"/>
+      <c r="G32" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="174"/>
-      <c r="I32" s="390">
-        <v>24</v>
-      </c>
-      <c r="J32" s="391"/>
-      <c r="K32" s="391"/>
-      <c r="L32" s="391"/>
-      <c r="M32" s="391"/>
-      <c r="N32" s="392"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="387">
+        <v>1234567</v>
+      </c>
+      <c r="J32" s="388"/>
+      <c r="K32" s="388"/>
+      <c r="L32" s="388"/>
+      <c r="M32" s="388"/>
+      <c r="N32" s="389"/>
       <c r="Q32" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:19" customHeight="1" ht="24.75">
-      <c r="A33" s="429" t="s">
+      <c r="A33" s="422" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="430"/>
-      <c r="C33" s="431"/>
-      <c r="D33" s="432">
-        <v>22</v>
-      </c>
-      <c r="E33" s="432"/>
-      <c r="F33" s="432"/>
-      <c r="G33" s="242" t="s">
+      <c r="B33" s="423"/>
+      <c r="C33" s="424"/>
+      <c r="D33" s="425">
+        <v>123456789</v>
+      </c>
+      <c r="E33" s="425"/>
+      <c r="F33" s="425"/>
+      <c r="G33" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="172"/>
-      <c r="I33" s="390">
-        <v>97</v>
-      </c>
-      <c r="J33" s="391"/>
-      <c r="K33" s="391"/>
-      <c r="L33" s="391"/>
-      <c r="M33" s="391"/>
-      <c r="N33" s="392"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="387" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="388"/>
+      <c r="K33" s="388"/>
+      <c r="L33" s="388"/>
+      <c r="M33" s="388"/>
+      <c r="N33" s="389"/>
       <c r="Q33" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:19" customHeight="1" ht="24.75">
-      <c r="A34" s="194" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="266"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="420">
+      <c r="A34" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="263"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="415">
         <v>4806550</v>
       </c>
-      <c r="E34" s="420"/>
-      <c r="F34" s="420"/>
+      <c r="E34" s="415"/>
+      <c r="F34" s="415"/>
       <c r="G34" s="122" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" s="110"/>
-      <c r="I34" s="470" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="471"/>
-      <c r="K34" s="471"/>
-      <c r="L34" s="471"/>
-      <c r="M34" s="471"/>
-      <c r="N34" s="472"/>
+      <c r="I34" s="463" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="464"/>
+      <c r="K34" s="464"/>
+      <c r="L34" s="464"/>
+      <c r="M34" s="464"/>
+      <c r="N34" s="465"/>
       <c r="Q34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:19" customHeight="1" ht="16.5">
-      <c r="A35" s="253" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="254"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="254"/>
-      <c r="E35" s="254"/>
-      <c r="F35" s="254"/>
-      <c r="G35" s="254"/>
-      <c r="H35" s="254"/>
-      <c r="I35" s="254"/>
-      <c r="J35" s="254"/>
-      <c r="K35" s="254"/>
-      <c r="L35" s="254"/>
-      <c r="M35" s="254"/>
-      <c r="N35" s="255"/>
+      <c r="A35" s="250" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="251"/>
+      <c r="C35" s="251"/>
+      <c r="D35" s="251"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="251"/>
+      <c r="H35" s="251"/>
+      <c r="I35" s="251"/>
+      <c r="J35" s="251"/>
+      <c r="K35" s="251"/>
+      <c r="L35" s="251"/>
+      <c r="M35" s="251"/>
+      <c r="N35" s="252"/>
       <c r="Q35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:19" customHeight="1" ht="21">
       <c r="A36" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="271"/>
-      <c r="D36" s="489" t="s">
+      <c r="B36" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="489"/>
-      <c r="F36" s="489"/>
-      <c r="G36" s="489"/>
-      <c r="H36" s="489"/>
-      <c r="I36" s="433" t="s">
+      <c r="C36" s="268"/>
+      <c r="D36" s="482" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="433"/>
-      <c r="K36" s="433"/>
-      <c r="L36" s="434"/>
-      <c r="M36" s="408" t="s">
+      <c r="E36" s="482"/>
+      <c r="F36" s="482"/>
+      <c r="G36" s="482"/>
+      <c r="H36" s="482"/>
+      <c r="I36" s="426" t="s">
         <v>110</v>
       </c>
-      <c r="N36" s="409"/>
+      <c r="J36" s="426"/>
+      <c r="K36" s="426"/>
+      <c r="L36" s="427"/>
+      <c r="M36" s="405" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="406"/>
       <c r="Q36" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:19" customHeight="1" ht="21">
-      <c r="A37" s="171"/>
+      <c r="A37" s="169"/>
       <c r="B37" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="257"/>
-      <c r="D37" s="328" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="329"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="343" t="s">
+      <c r="C37" s="254"/>
+      <c r="D37" s="325" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="343"/>
-      <c r="I37" s="778" t="s">
+      <c r="E37" s="326"/>
+      <c r="F37" s="327"/>
+      <c r="G37" s="340" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="778"/>
-      <c r="K37" s="778"/>
-      <c r="L37" s="779"/>
-      <c r="M37" s="326" t="s">
+      <c r="H37" s="340"/>
+      <c r="I37" s="323" t="s">
         <v>116</v>
       </c>
-      <c r="N37" s="327"/>
+      <c r="J37" s="323"/>
+      <c r="K37" s="323"/>
+      <c r="L37" s="324"/>
+      <c r="M37" s="321" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="322"/>
       <c r="Q37" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:19" customHeight="1" ht="21">
-      <c r="A38" s="195"/>
-      <c r="B38" s="262" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="258"/>
-      <c r="D38" s="328" t="s">
+      <c r="A38" s="192"/>
+      <c r="B38" s="259" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="329"/>
-      <c r="F38" s="329"/>
-      <c r="G38" s="329"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="778" t="s">
+      <c r="C38" s="255"/>
+      <c r="D38" s="325" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="778"/>
-      <c r="K38" s="778"/>
-      <c r="L38" s="779"/>
-      <c r="M38" s="326" t="s">
+      <c r="E38" s="326"/>
+      <c r="F38" s="326"/>
+      <c r="G38" s="326"/>
+      <c r="H38" s="327"/>
+      <c r="I38" s="323" t="s">
         <v>121</v>
       </c>
-      <c r="N38" s="327"/>
+      <c r="J38" s="323"/>
+      <c r="K38" s="323"/>
+      <c r="L38" s="324"/>
+      <c r="M38" s="321" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38" s="322"/>
       <c r="Q38" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:19" customHeight="1" ht="21">
-      <c r="A39" s="196"/>
+      <c r="A39" s="193"/>
       <c r="B39" s="108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="109"/>
-      <c r="D39" s="490" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="490"/>
-      <c r="F39" s="490"/>
-      <c r="G39" s="490"/>
-      <c r="H39" s="490"/>
-      <c r="I39" s="778" t="s">
+      <c r="D39" s="483" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="778"/>
-      <c r="K39" s="778"/>
-      <c r="L39" s="779"/>
-      <c r="M39" s="326" t="s">
+      <c r="E39" s="483"/>
+      <c r="F39" s="483"/>
+      <c r="G39" s="483"/>
+      <c r="H39" s="483"/>
+      <c r="I39" s="323"/>
+      <c r="J39" s="323"/>
+      <c r="K39" s="323"/>
+      <c r="L39" s="324"/>
+      <c r="M39" s="321"/>
+      <c r="N39" s="322"/>
+      <c r="Q39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N39" s="327"/>
-      <c r="Q39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:19" customHeight="1" ht="21">
+      <c r="A40" s="193"/>
+      <c r="B40" s="108" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" customHeight="1" ht="21">
-      <c r="A40" s="196"/>
-      <c r="B40" s="108" t="s">
+      <c r="C40" s="109"/>
+      <c r="D40" s="483" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="490" t="s">
+      <c r="E40" s="483"/>
+      <c r="F40" s="483"/>
+      <c r="G40" s="483"/>
+      <c r="H40" s="483"/>
+      <c r="I40" s="323"/>
+      <c r="J40" s="323"/>
+      <c r="K40" s="323"/>
+      <c r="L40" s="324"/>
+      <c r="M40" s="321"/>
+      <c r="N40" s="322"/>
+      <c r="Q40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="490"/>
-      <c r="F40" s="490"/>
-      <c r="G40" s="490"/>
-      <c r="H40" s="490"/>
-      <c r="I40" s="778" t="s">
+    </row>
+    <row r="41" spans="1:19" customHeight="1" ht="21">
+      <c r="A41" s="193"/>
+      <c r="B41" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="778"/>
-      <c r="K40" s="778"/>
-      <c r="L40" s="779"/>
-      <c r="M40" s="326" t="s">
+      <c r="C41" s="109"/>
+      <c r="D41" s="483" t="s">
         <v>131</v>
       </c>
-      <c r="N40" s="327"/>
-      <c r="Q40" s="3" t="s">
+      <c r="E41" s="483"/>
+      <c r="F41" s="483"/>
+      <c r="G41" s="483"/>
+      <c r="H41" s="483"/>
+      <c r="I41" s="323"/>
+      <c r="J41" s="323"/>
+      <c r="K41" s="323"/>
+      <c r="L41" s="324"/>
+      <c r="M41" s="321"/>
+      <c r="N41" s="322"/>
+      <c r="Q41" s="3" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" customHeight="1" ht="21">
-      <c r="A41" s="196"/>
-      <c r="B41" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="490" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="490"/>
-      <c r="F41" s="490"/>
-      <c r="G41" s="490"/>
-      <c r="H41" s="490"/>
-      <c r="I41" s="778"/>
-      <c r="J41" s="778"/>
-      <c r="K41" s="778"/>
-      <c r="L41" s="779"/>
-      <c r="M41" s="326"/>
-      <c r="N41" s="327"/>
-      <c r="Q41" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:19" customHeight="1" ht="21">
       <c r="A42" s="114"/>
       <c r="B42" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="151"/>
+      <c r="D42" s="483" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="483"/>
+      <c r="F42" s="483"/>
+      <c r="G42" s="483"/>
+      <c r="H42" s="483"/>
+      <c r="I42" s="323"/>
+      <c r="J42" s="323"/>
+      <c r="K42" s="323"/>
+      <c r="L42" s="324"/>
+      <c r="M42" s="321"/>
+      <c r="N42" s="322"/>
+      <c r="Q42" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" customHeight="1" ht="21">
+      <c r="A43" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="151"/>
-      <c r="D42" s="490" t="s">
+      <c r="B43" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="490"/>
-      <c r="F42" s="490"/>
-      <c r="G42" s="490"/>
-      <c r="H42" s="490"/>
-      <c r="I42" s="778"/>
-      <c r="J42" s="778"/>
-      <c r="K42" s="778"/>
-      <c r="L42" s="779"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="327"/>
-      <c r="Q42" s="3" t="s">
+      <c r="C43" s="115"/>
+      <c r="D43" s="338" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" customHeight="1" ht="21">
-      <c r="A43" s="256" t="s">
+      <c r="E43" s="338"/>
+      <c r="F43" s="338"/>
+      <c r="G43" s="338"/>
+      <c r="H43" s="338"/>
+      <c r="I43" s="323"/>
+      <c r="J43" s="323"/>
+      <c r="K43" s="323"/>
+      <c r="L43" s="324"/>
+      <c r="M43" s="321"/>
+      <c r="N43" s="322"/>
+      <c r="Q43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="267" t="s">
+    </row>
+    <row r="44" spans="1:19" customHeight="1" ht="21">
+      <c r="A44" s="169"/>
+      <c r="B44" s="246" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="256"/>
+      <c r="D44" s="325" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="341" t="s">
+      <c r="E44" s="326"/>
+      <c r="F44" s="327"/>
+      <c r="G44" s="340" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="341"/>
-      <c r="F43" s="341"/>
-      <c r="G43" s="341"/>
-      <c r="H43" s="341"/>
-      <c r="I43" s="778"/>
-      <c r="J43" s="778"/>
-      <c r="K43" s="778"/>
-      <c r="L43" s="779"/>
-      <c r="M43" s="326"/>
-      <c r="N43" s="327"/>
-      <c r="Q43" s="3" t="s">
+      <c r="H44" s="340"/>
+      <c r="I44" s="323"/>
+      <c r="J44" s="323"/>
+      <c r="K44" s="323"/>
+      <c r="L44" s="324"/>
+      <c r="M44" s="321"/>
+      <c r="N44" s="322"/>
+      <c r="Q44" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:19" customHeight="1" ht="21">
-      <c r="A44" s="171"/>
-      <c r="B44" s="249" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="259"/>
-      <c r="D44" s="328" t="s">
+    <row r="45" spans="1:19" customHeight="1" ht="21">
+      <c r="A45" s="192"/>
+      <c r="B45" s="247" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="258"/>
+      <c r="D45" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="329"/>
-      <c r="F44" s="330"/>
-      <c r="G44" s="343" t="s">
+      <c r="E45" s="326"/>
+      <c r="F45" s="326"/>
+      <c r="G45" s="326"/>
+      <c r="H45" s="327"/>
+      <c r="I45" s="323"/>
+      <c r="J45" s="323"/>
+      <c r="K45" s="323"/>
+      <c r="L45" s="324"/>
+      <c r="M45" s="321"/>
+      <c r="N45" s="322"/>
+      <c r="Q45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="343"/>
-      <c r="I44" s="778"/>
-      <c r="J44" s="778"/>
-      <c r="K44" s="778"/>
-      <c r="L44" s="779"/>
-      <c r="M44" s="326"/>
-      <c r="N44" s="327"/>
-      <c r="Q44" s="3" t="s">
+    </row>
+    <row r="46" spans="1:19" customHeight="1" ht="21">
+      <c r="A46" s="169" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" customHeight="1" ht="21">
-      <c r="A45" s="195"/>
-      <c r="B45" s="250" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="261"/>
-      <c r="D45" s="328" t="s">
+      <c r="B46" s="432" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="329"/>
-      <c r="F45" s="329"/>
-      <c r="G45" s="329"/>
-      <c r="H45" s="330"/>
-      <c r="I45" s="778"/>
-      <c r="J45" s="778"/>
-      <c r="K45" s="778"/>
-      <c r="L45" s="779"/>
-      <c r="M45" s="326"/>
-      <c r="N45" s="327"/>
-      <c r="Q45" s="3" t="s">
+      <c r="C46" s="432"/>
+      <c r="D46" s="432"/>
+      <c r="E46" s="432"/>
+      <c r="F46" s="432"/>
+      <c r="G46" s="432"/>
+      <c r="H46" s="433"/>
+      <c r="I46" s="323"/>
+      <c r="J46" s="323"/>
+      <c r="K46" s="323"/>
+      <c r="L46" s="324"/>
+      <c r="M46" s="321"/>
+      <c r="N46" s="322"/>
+      <c r="Q46" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:19" customHeight="1" ht="21">
-      <c r="A46" s="171" t="s">
+    <row r="47" spans="1:19" customHeight="1" ht="21">
+      <c r="A47" s="169"/>
+      <c r="B47" s="246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="256"/>
+      <c r="D47" s="339" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="439" t="s">
+      <c r="E47" s="339"/>
+      <c r="F47" s="339"/>
+      <c r="G47" s="339"/>
+      <c r="H47" s="339"/>
+      <c r="I47" s="323"/>
+      <c r="J47" s="323"/>
+      <c r="K47" s="323"/>
+      <c r="L47" s="324"/>
+      <c r="M47" s="321"/>
+      <c r="N47" s="322"/>
+      <c r="Q47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="439"/>
-      <c r="D46" s="439"/>
-      <c r="E46" s="439"/>
-      <c r="F46" s="439"/>
-      <c r="G46" s="439"/>
-      <c r="H46" s="440"/>
-      <c r="I46" s="778"/>
-      <c r="J46" s="778"/>
-      <c r="K46" s="778"/>
-      <c r="L46" s="779"/>
-      <c r="M46" s="326"/>
-      <c r="N46" s="327"/>
-      <c r="Q46" s="3" t="s">
+    </row>
+    <row r="48" spans="1:19" customHeight="1" ht="21">
+      <c r="A48" s="169"/>
+      <c r="B48" s="246" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="256"/>
+      <c r="D48" s="339" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" customHeight="1" ht="21">
-      <c r="A47" s="171"/>
-      <c r="B47" s="249" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="259"/>
-      <c r="D47" s="342" t="s">
+      <c r="E48" s="339"/>
+      <c r="F48" s="339"/>
+      <c r="G48" s="339"/>
+      <c r="H48" s="339"/>
+      <c r="I48" s="323"/>
+      <c r="J48" s="323"/>
+      <c r="K48" s="323"/>
+      <c r="L48" s="324"/>
+      <c r="M48" s="321"/>
+      <c r="N48" s="322"/>
+      <c r="Q48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="342"/>
-      <c r="F47" s="342"/>
-      <c r="G47" s="342"/>
-      <c r="H47" s="342"/>
-      <c r="I47" s="778"/>
-      <c r="J47" s="778"/>
-      <c r="K47" s="778"/>
-      <c r="L47" s="779"/>
-      <c r="M47" s="326"/>
-      <c r="N47" s="327"/>
-      <c r="Q47" s="3" t="s">
+    </row>
+    <row r="49" spans="1:19" customHeight="1" ht="21">
+      <c r="A49" s="194"/>
+      <c r="B49" s="249" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="257"/>
+      <c r="D49" s="493" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" customHeight="1" ht="21">
-      <c r="A48" s="171"/>
-      <c r="B48" s="249" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="259"/>
-      <c r="D48" s="342" t="s">
+      <c r="E49" s="493"/>
+      <c r="F49" s="493"/>
+      <c r="G49" s="493"/>
+      <c r="H49" s="493"/>
+      <c r="I49" s="491" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="342"/>
-      <c r="F48" s="342"/>
-      <c r="G48" s="342"/>
-      <c r="H48" s="342"/>
-      <c r="I48" s="778"/>
-      <c r="J48" s="778"/>
-      <c r="K48" s="778"/>
-      <c r="L48" s="779"/>
-      <c r="M48" s="326"/>
-      <c r="N48" s="327"/>
-      <c r="Q48" s="3" t="s">
+      <c r="J49" s="491"/>
+      <c r="K49" s="491"/>
+      <c r="L49" s="491"/>
+      <c r="M49" s="491"/>
+      <c r="N49" s="492"/>
+      <c r="Q49" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:19" customHeight="1" ht="21">
-      <c r="A49" s="197"/>
-      <c r="B49" s="252" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="260"/>
-      <c r="D49" s="501" t="s">
+    <row r="50" spans="1:19" customHeight="1" ht="15.75">
+      <c r="A50" s="195" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="501"/>
-      <c r="F49" s="501"/>
-      <c r="G49" s="501"/>
-      <c r="H49" s="501"/>
-      <c r="I49" s="499" t="s">
-        <v>156</v>
-      </c>
-      <c r="J49" s="499"/>
-      <c r="K49" s="499"/>
-      <c r="L49" s="499"/>
-      <c r="M49" s="499"/>
-      <c r="N49" s="500"/>
-      <c r="Q49" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" customHeight="1" ht="15.75">
-      <c r="A50" s="198" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="198"/>
+      <c r="B50" s="195"/>
       <c r="C50" s="111"/>
       <c r="D50" s="112"/>
       <c r="E50" s="112"/>
       <c r="F50" s="112"/>
       <c r="G50" s="112"/>
       <c r="H50" s="112"/>
-      <c r="I50" s="418" t="s">
+      <c r="I50" s="413" t="s">
+        <v>156</v>
+      </c>
+      <c r="J50" s="413"/>
+      <c r="K50" s="413"/>
+      <c r="L50" s="413"/>
+      <c r="M50" s="413"/>
+      <c r="N50" s="414"/>
+      <c r="Q50" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" customHeight="1" ht="14.25">
+      <c r="A51" s="407" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="359" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="418"/>
-      <c r="K50" s="418"/>
-      <c r="L50" s="418"/>
-      <c r="M50" s="418"/>
-      <c r="N50" s="419"/>
-      <c r="Q50" s="3" t="s">
+      <c r="C51" s="359"/>
+      <c r="D51" s="341" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" customHeight="1" ht="14.25">
-      <c r="A51" s="410" t="s">
+      <c r="E51" s="342"/>
+      <c r="F51" s="362"/>
+      <c r="G51" s="341" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="362" t="s">
+      <c r="H51" s="342"/>
+      <c r="I51" s="343"/>
+      <c r="J51" s="494" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="362"/>
-      <c r="D51" s="344" t="s">
+      <c r="K51" s="495"/>
+      <c r="L51" s="333" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="345"/>
-      <c r="F51" s="365"/>
-      <c r="G51" s="344" t="s">
+      <c r="M51" s="409" t="s">
         <v>164</v>
       </c>
-      <c r="H51" s="345"/>
-      <c r="I51" s="346"/>
-      <c r="J51" s="502" t="s">
+      <c r="N51" s="403" t="s">
         <v>165</v>
       </c>
-      <c r="K51" s="503"/>
-      <c r="L51" s="336" t="s">
+      <c r="Q51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M51" s="412" t="s">
+    </row>
+    <row r="52" spans="1:19" customHeight="1" ht="19.5">
+      <c r="A52" s="408"/>
+      <c r="B52" s="360"/>
+      <c r="C52" s="360"/>
+      <c r="D52" s="344"/>
+      <c r="E52" s="345"/>
+      <c r="F52" s="363"/>
+      <c r="G52" s="344"/>
+      <c r="H52" s="345"/>
+      <c r="I52" s="346"/>
+      <c r="J52" s="496"/>
+      <c r="K52" s="497"/>
+      <c r="L52" s="333"/>
+      <c r="M52" s="409"/>
+      <c r="N52" s="403"/>
+      <c r="Q52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N51" s="406" t="s">
+    </row>
+    <row r="53" spans="1:19" customHeight="1" ht="14.25">
+      <c r="A53" s="266"/>
+      <c r="B53" s="361"/>
+      <c r="C53" s="361"/>
+      <c r="D53" s="347"/>
+      <c r="E53" s="348"/>
+      <c r="F53" s="364"/>
+      <c r="G53" s="347"/>
+      <c r="H53" s="348"/>
+      <c r="I53" s="349"/>
+      <c r="J53" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="K53" s="118" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" customHeight="1" ht="19.5">
-      <c r="A52" s="411"/>
-      <c r="B52" s="363"/>
-      <c r="C52" s="363"/>
-      <c r="D52" s="347"/>
-      <c r="E52" s="348"/>
-      <c r="F52" s="366"/>
-      <c r="G52" s="347"/>
-      <c r="H52" s="348"/>
-      <c r="I52" s="349"/>
-      <c r="J52" s="504"/>
-      <c r="K52" s="505"/>
-      <c r="L52" s="336"/>
-      <c r="M52" s="412"/>
-      <c r="N52" s="406"/>
-      <c r="Q52" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" customHeight="1" ht="14.25">
-      <c r="A53" s="269"/>
-      <c r="B53" s="364"/>
-      <c r="C53" s="364"/>
-      <c r="D53" s="350"/>
-      <c r="E53" s="351"/>
-      <c r="F53" s="367"/>
-      <c r="G53" s="350"/>
-      <c r="H53" s="351"/>
-      <c r="I53" s="352"/>
-      <c r="J53" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="118" t="s">
-        <v>172</v>
-      </c>
-      <c r="L53" s="337"/>
-      <c r="M53" s="413"/>
-      <c r="N53" s="407"/>
+      <c r="L53" s="334"/>
+      <c r="M53" s="410"/>
+      <c r="N53" s="404"/>
       <c r="O53" s="119"/>
       <c r="P53" s="119"/>
       <c r="Q53" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" customHeight="1" ht="28.5">
+      <c r="A54" s="271"/>
+      <c r="B54" s="272" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="272"/>
+      <c r="D54" s="365" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="366"/>
+      <c r="F54" s="367"/>
+      <c r="G54" s="335" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" customHeight="1" ht="28.5">
-      <c r="A54" s="274"/>
-      <c r="B54" s="275" t="s">
+      <c r="H54" s="336"/>
+      <c r="I54" s="337"/>
+      <c r="J54" s="29">
+        <v>3</v>
+      </c>
+      <c r="K54" s="265">
+        <v>53</v>
+      </c>
+      <c r="L54" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="275"/>
-      <c r="D54" s="368" t="s">
+      <c r="M54" s="20">
+        <v>1988</v>
+      </c>
+      <c r="N54" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="E54" s="369"/>
-      <c r="F54" s="370"/>
-      <c r="G54" s="338" t="s">
+      <c r="Q54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="339"/>
-      <c r="I54" s="340"/>
-      <c r="J54" s="29">
-        <v>89</v>
-      </c>
-      <c r="K54" s="268">
-        <v>16</v>
-      </c>
-      <c r="L54" s="183" t="s">
+    </row>
+    <row r="55" spans="1:19" customHeight="1" ht="28.5">
+      <c r="A55" s="271"/>
+      <c r="B55" s="272" t="s">
         <v>177</v>
       </c>
-      <c r="M54" s="20">
+      <c r="C55" s="272"/>
+      <c r="D55" s="365" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="366"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="335" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="336"/>
+      <c r="I55" s="337"/>
+      <c r="J55" s="29">
+        <v>28</v>
+      </c>
+      <c r="K55" s="30">
+        <v>52</v>
+      </c>
+      <c r="L55" s="275" t="s">
+        <v>175</v>
+      </c>
+      <c r="M55" s="21">
         <v>1998</v>
       </c>
-      <c r="N54" s="176" t="s">
+      <c r="N55" s="174" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q54" s="3" t="s">
+    </row>
+    <row r="56" spans="1:19" customHeight="1" ht="28.5">
+      <c r="A56" s="271"/>
+      <c r="B56" s="272" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" customHeight="1" ht="28.5">
-      <c r="A55" s="274"/>
-      <c r="B55" s="275" t="s">
+      <c r="C56" s="272"/>
+      <c r="D56" s="365" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="275"/>
-      <c r="D55" s="368" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="369"/>
-      <c r="F55" s="370"/>
-      <c r="G55" s="338" t="s">
-        <v>178</v>
-      </c>
-      <c r="H55" s="339"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="29">
-        <v>30</v>
-      </c>
-      <c r="K55" s="30">
-        <v>3</v>
-      </c>
-      <c r="L55" s="278" t="s">
-        <v>178</v>
-      </c>
-      <c r="M55" s="21">
-        <v>2002</v>
-      </c>
-      <c r="N55" s="176" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q55" s="3" t="s">
+      <c r="E56" s="366"/>
+      <c r="F56" s="367"/>
+      <c r="G56" s="350" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" customHeight="1" ht="28.5">
-      <c r="A56" s="274"/>
-      <c r="B56" s="275" t="s">
+      <c r="H56" s="351"/>
+      <c r="I56" s="352"/>
+      <c r="J56" s="29">
+        <v>37</v>
+      </c>
+      <c r="K56" s="30">
+        <v>31</v>
+      </c>
+      <c r="L56" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="275"/>
-      <c r="D56" s="368" t="s">
+      <c r="M56" s="22">
+        <v>2016</v>
+      </c>
+      <c r="N56" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="E56" s="369"/>
-      <c r="F56" s="370"/>
-      <c r="G56" s="353" t="s">
+      <c r="Q56" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H56" s="354"/>
-      <c r="I56" s="355"/>
-      <c r="J56" s="29">
-        <v>35</v>
-      </c>
-      <c r="K56" s="30">
-        <v>32</v>
-      </c>
-      <c r="L56" s="183" t="s">
+    </row>
+    <row r="57" spans="1:19" customHeight="1" ht="28.5">
+      <c r="A57" s="271"/>
+      <c r="B57" s="272" t="s">
         <v>185</v>
       </c>
-      <c r="M56" s="22">
-        <v>1996</v>
-      </c>
-      <c r="N56" s="176" t="s">
+      <c r="C57" s="272"/>
+      <c r="D57" s="365" t="s">
         <v>186</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="E57" s="366"/>
+      <c r="F57" s="367"/>
+      <c r="G57" s="350" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" customHeight="1" ht="28.5">
-      <c r="A57" s="274"/>
-      <c r="B57" s="275" t="s">
+      <c r="H57" s="351"/>
+      <c r="I57" s="352"/>
+      <c r="J57" s="29">
+        <v>94</v>
+      </c>
+      <c r="K57" s="30">
+        <v>59</v>
+      </c>
+      <c r="L57" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="275"/>
-      <c r="D57" s="368"/>
-      <c r="E57" s="369"/>
-      <c r="F57" s="370"/>
-      <c r="G57" s="353"/>
-      <c r="H57" s="354"/>
-      <c r="I57" s="355"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="183"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="176"/>
+      <c r="M57" s="21">
+        <v>1982</v>
+      </c>
+      <c r="N57" s="174" t="s">
+        <v>189</v>
+      </c>
       <c r="Q57" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:19" customHeight="1" ht="28.5">
-      <c r="A58" s="276"/>
-      <c r="B58" s="277" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" s="277"/>
-      <c r="D58" s="371" t="s">
+      <c r="A58" s="273"/>
+      <c r="B58" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="372"/>
-      <c r="F58" s="373"/>
-      <c r="G58" s="359" t="s">
+      <c r="C58" s="274"/>
+      <c r="D58" s="368" t="s">
         <v>192</v>
       </c>
-      <c r="H58" s="360"/>
-      <c r="I58" s="361"/>
-      <c r="J58" s="272">
+      <c r="E58" s="369"/>
+      <c r="F58" s="370"/>
+      <c r="G58" s="356" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" s="357"/>
+      <c r="I58" s="358"/>
+      <c r="J58" s="269">
+        <v>53</v>
+      </c>
+      <c r="K58" s="270">
         <v>21</v>
       </c>
-      <c r="K58" s="273">
-        <v>82</v>
-      </c>
       <c r="L58" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M58" s="24">
-        <v>1988</v>
-      </c>
-      <c r="N58" s="176" t="s">
-        <v>194</v>
+        <v>2012</v>
+      </c>
+      <c r="N58" s="174" t="s">
+        <v>195</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:19" customHeight="1" ht="12">
-      <c r="A59" s="320" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="321"/>
-      <c r="C59" s="321"/>
-      <c r="D59" s="321"/>
-      <c r="E59" s="321"/>
-      <c r="F59" s="321"/>
-      <c r="G59" s="321"/>
-      <c r="H59" s="321"/>
-      <c r="I59" s="321"/>
-      <c r="J59" s="321"/>
-      <c r="K59" s="321"/>
-      <c r="L59" s="321"/>
-      <c r="M59" s="321"/>
-      <c r="N59" s="322"/>
+      <c r="A59" s="315" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="316"/>
+      <c r="C59" s="316"/>
+      <c r="D59" s="316"/>
+      <c r="E59" s="316"/>
+      <c r="F59" s="316"/>
+      <c r="G59" s="316"/>
+      <c r="H59" s="316"/>
+      <c r="I59" s="316"/>
+      <c r="J59" s="316"/>
+      <c r="K59" s="316"/>
+      <c r="L59" s="316"/>
+      <c r="M59" s="316"/>
+      <c r="N59" s="317"/>
       <c r="Q59" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:19" customHeight="1" ht="27.75">
-      <c r="A60" s="317" t="s">
-        <v>197</v>
-      </c>
-      <c r="B60" s="318"/>
-      <c r="C60" s="319"/>
-      <c r="D60" s="331"/>
-      <c r="E60" s="332"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="332"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="333"/>
-      <c r="J60" s="334" t="s">
+      <c r="A60" s="312" t="s">
         <v>198</v>
       </c>
-      <c r="K60" s="335"/>
-      <c r="L60" s="323" t="s">
+      <c r="B60" s="313"/>
+      <c r="C60" s="314"/>
+      <c r="D60" s="328"/>
+      <c r="E60" s="329"/>
+      <c r="F60" s="329"/>
+      <c r="G60" s="329"/>
+      <c r="H60" s="329"/>
+      <c r="I60" s="330"/>
+      <c r="J60" s="331" t="s">
         <v>199</v>
       </c>
-      <c r="M60" s="324"/>
-      <c r="N60" s="325"/>
+      <c r="K60" s="332"/>
+      <c r="L60" s="318"/>
+      <c r="M60" s="319"/>
+      <c r="N60" s="320"/>
       <c r="Q60" s="3" t="s">
         <v>200</v>
       </c>
       <c r="R60" s="120"/>
       <c r="S60" s="120"/>
     </row>
-    <row r="61" spans="1:19" customHeight="1" ht="12" s="297" customFormat="1">
-      <c r="A61" s="316" t="s">
+    <row r="61" spans="1:19" customHeight="1" ht="12" s="291" customFormat="1">
+      <c r="A61" s="311" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="316"/>
-      <c r="C61" s="316"/>
-      <c r="D61" s="316"/>
-      <c r="E61" s="316"/>
-      <c r="F61" s="316"/>
-      <c r="G61" s="316"/>
-      <c r="H61" s="316"/>
-      <c r="I61" s="316"/>
-      <c r="J61" s="316"/>
-      <c r="K61" s="316"/>
-      <c r="L61" s="316"/>
-      <c r="M61" s="316"/>
-      <c r="N61" s="316"/>
-      <c r="Q61" s="298" t="s">
+      <c r="B61" s="311"/>
+      <c r="C61" s="311"/>
+      <c r="D61" s="311"/>
+      <c r="E61" s="311"/>
+      <c r="F61" s="311"/>
+      <c r="G61" s="311"/>
+      <c r="H61" s="311"/>
+      <c r="I61" s="311"/>
+      <c r="J61" s="311"/>
+      <c r="K61" s="311"/>
+      <c r="L61" s="311"/>
+      <c r="M61" s="311"/>
+      <c r="N61" s="311"/>
+      <c r="Q61" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="R61" s="159"/>
-      <c r="S61" s="159"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="157"/>
     </row>
     <row r="62" spans="1:19" customHeight="1" ht="14.25">
       <c r="A62" s="121"/>
@@ -16097,7 +15987,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId209" name="Drop Down 31">
+            <control shapeId="1055" r:id="rId209" name="citizenship_country_dropdown">
               <controlPr locked="0" defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16119,7 +16009,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId210" name="Check Box 21">
+            <control shapeId="1045" r:id="rId210" name="filipino_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16141,7 +16031,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId211" name="Check Box 22">
+            <control shapeId="1046" r:id="rId211" name="dual_citizenship_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16163,8 +16053,8 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId212" name="Check Box 25">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+            <control shapeId="1049" r:id="rId212" name="male_checkbox">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!CheckBox25_Click">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
@@ -16185,7 +16075,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId213" name="Check Box 26">
+            <control shapeId="1050" r:id="rId213" name="female_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16207,7 +16097,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId214" name="Check Box 34">
+            <control shapeId="1058" r:id="rId214" name="single_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16229,7 +16119,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId215" name="Check Box 35">
+            <control shapeId="1059" r:id="rId215" name="married_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16251,7 +16141,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId216" name="Check Box 36">
+            <control shapeId="1060" r:id="rId216" name="widow_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16273,7 +16163,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId217" name="Check Box 37">
+            <control shapeId="1061" r:id="rId217" name="other_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16295,7 +16185,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId218" name="Check Box 38">
+            <control shapeId="1062" r:id="rId218" name="seperated_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -16368,7 +16258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16397,76 +16287,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="3">
-      <c r="A1" s="510"/>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="512"/>
+      <c r="A1" s="502"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
+      <c r="H1" s="503"/>
+      <c r="I1" s="503"/>
+      <c r="J1" s="503"/>
+      <c r="K1" s="503"/>
+      <c r="L1" s="503"/>
+      <c r="M1" s="504"/>
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="18">
-      <c r="A2" s="523" t="s">
+      <c r="A2" s="515" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="524"/>
-      <c r="C2" s="524"/>
-      <c r="D2" s="524"/>
-      <c r="E2" s="524"/>
-      <c r="F2" s="524"/>
-      <c r="G2" s="524"/>
-      <c r="H2" s="524"/>
-      <c r="I2" s="524"/>
-      <c r="J2" s="524"/>
-      <c r="K2" s="524"/>
-      <c r="L2" s="524"/>
-      <c r="M2" s="525"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="517"/>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="513" t="s">
+      <c r="B3" s="505" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="521" t="s">
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="513" t="s">
         <v>361</v>
       </c>
-      <c r="G3" s="517" t="s">
+      <c r="G3" s="509" t="s">
         <v>362</v>
       </c>
-      <c r="H3" s="514"/>
-      <c r="I3" s="517" t="s">
+      <c r="H3" s="506"/>
+      <c r="I3" s="509" t="s">
         <v>363</v>
       </c>
-      <c r="J3" s="513"/>
-      <c r="K3" s="514"/>
-      <c r="L3" s="519" t="s">
+      <c r="J3" s="505"/>
+      <c r="K3" s="506"/>
+      <c r="L3" s="511" t="s">
         <v>364</v>
       </c>
-      <c r="M3" s="520"/>
+      <c r="M3" s="512"/>
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="25.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="515"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="515"/>
-      <c r="E4" s="516"/>
-      <c r="F4" s="522"/>
-      <c r="G4" s="518"/>
-      <c r="H4" s="516"/>
-      <c r="I4" s="518"/>
-      <c r="J4" s="515"/>
-      <c r="K4" s="516"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="514"/>
+      <c r="G4" s="510"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="510"/>
+      <c r="J4" s="507"/>
+      <c r="K4" s="508"/>
       <c r="L4" s="6" t="s">
         <v>365</v>
       </c>
@@ -16475,25 +16365,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="27">
-      <c r="A5" s="530" t="s">
+      <c r="A5" s="522" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="531"/>
-      <c r="C5" s="531"/>
-      <c r="D5" s="531"/>
-      <c r="E5" s="531"/>
+      <c r="B5" s="523"/>
+      <c r="C5" s="523"/>
+      <c r="D5" s="523"/>
+      <c r="E5" s="523"/>
       <c r="F5" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="G5" s="528" t="s">
+      <c r="G5" s="520" t="s">
         <v>369</v>
       </c>
-      <c r="H5" s="528"/>
-      <c r="I5" s="529" t="s">
+      <c r="H5" s="520"/>
+      <c r="I5" s="521" t="s">
         <v>370</v>
       </c>
-      <c r="J5" s="529"/>
-      <c r="K5" s="529"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="521"/>
       <c r="L5" s="11" t="s">
         <v>371</v>
       </c>
@@ -16502,25 +16392,25 @@
       </c>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="27">
-      <c r="A6" s="530" t="s">
+      <c r="A6" s="522" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="531"/>
-      <c r="C6" s="531"/>
-      <c r="D6" s="531"/>
-      <c r="E6" s="531"/>
+      <c r="B6" s="523"/>
+      <c r="C6" s="523"/>
+      <c r="D6" s="523"/>
+      <c r="E6" s="523"/>
       <c r="F6" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="G6" s="539" t="s">
+      <c r="G6" s="531" t="s">
         <v>375</v>
       </c>
-      <c r="H6" s="540"/>
-      <c r="I6" s="529" t="s">
+      <c r="H6" s="532"/>
+      <c r="I6" s="521" t="s">
         <v>376</v>
       </c>
-      <c r="J6" s="529"/>
-      <c r="K6" s="529"/>
+      <c r="J6" s="521"/>
+      <c r="K6" s="521"/>
       <c r="L6" s="11" t="s">
         <v>377</v>
       </c>
@@ -16529,25 +16419,25 @@
       </c>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="27">
-      <c r="A7" s="530" t="s">
+      <c r="A7" s="522" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="531"/>
-      <c r="C7" s="531"/>
-      <c r="D7" s="531"/>
-      <c r="E7" s="531"/>
+      <c r="B7" s="523"/>
+      <c r="C7" s="523"/>
+      <c r="D7" s="523"/>
+      <c r="E7" s="523"/>
       <c r="F7" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="G7" s="528" t="s">
+      <c r="G7" s="520" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="528"/>
-      <c r="I7" s="529" t="s">
+      <c r="H7" s="520"/>
+      <c r="I7" s="521" t="s">
         <v>381</v>
       </c>
-      <c r="J7" s="529"/>
-      <c r="K7" s="529"/>
+      <c r="J7" s="521"/>
+      <c r="K7" s="521"/>
       <c r="L7" s="11" t="s">
         <v>382</v>
       </c>
@@ -16556,160 +16446,102 @@
       </c>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="27">
-      <c r="A8" s="530" t="s">
+      <c r="A8" s="522"/>
+      <c r="B8" s="523"/>
+      <c r="C8" s="523"/>
+      <c r="D8" s="523"/>
+      <c r="E8" s="523"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="520"/>
+      <c r="H8" s="520"/>
+      <c r="I8" s="521"/>
+      <c r="J8" s="521"/>
+      <c r="K8" s="521"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" customHeight="1" ht="27">
+      <c r="A9" s="522"/>
+      <c r="B9" s="523"/>
+      <c r="C9" s="523"/>
+      <c r="D9" s="523"/>
+      <c r="E9" s="523"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="520"/>
+      <c r="H9" s="520"/>
+      <c r="I9" s="521"/>
+      <c r="J9" s="521"/>
+      <c r="K9" s="521"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" customHeight="1" ht="27">
+      <c r="A10" s="522"/>
+      <c r="B10" s="523"/>
+      <c r="C10" s="523"/>
+      <c r="D10" s="523"/>
+      <c r="E10" s="523"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="520"/>
+      <c r="H10" s="520"/>
+      <c r="I10" s="521"/>
+      <c r="J10" s="521"/>
+      <c r="K10" s="521"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" customHeight="1" ht="27">
+      <c r="A11" s="538"/>
+      <c r="B11" s="539"/>
+      <c r="C11" s="539"/>
+      <c r="D11" s="539"/>
+      <c r="E11" s="539"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="546"/>
+      <c r="I11" s="533"/>
+      <c r="J11" s="533"/>
+      <c r="K11" s="533"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
+      <c r="A12" s="540" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="541"/>
+      <c r="C12" s="541"/>
+      <c r="D12" s="541"/>
+      <c r="E12" s="541"/>
+      <c r="F12" s="541"/>
+      <c r="G12" s="541"/>
+      <c r="H12" s="541"/>
+      <c r="I12" s="541"/>
+      <c r="J12" s="541"/>
+      <c r="K12" s="541"/>
+      <c r="L12" s="541"/>
+      <c r="M12" s="542"/>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="18">
+      <c r="A13" s="543" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="531"/>
-      <c r="C8" s="531"/>
-      <c r="D8" s="531"/>
-      <c r="E8" s="531"/>
-      <c r="F8" s="18" t="s">
+      <c r="B13" s="544"/>
+      <c r="C13" s="544"/>
+      <c r="D13" s="544"/>
+      <c r="E13" s="544"/>
+      <c r="F13" s="544"/>
+      <c r="G13" s="544"/>
+      <c r="H13" s="544"/>
+      <c r="I13" s="544"/>
+      <c r="J13" s="544"/>
+      <c r="K13" s="544"/>
+      <c r="L13" s="544"/>
+      <c r="M13" s="545"/>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="12" s="238" customFormat="1">
+      <c r="A14" s="245" t="s">
         <v>384</v>
-      </c>
-      <c r="G8" s="528" t="s">
-        <v>385</v>
-      </c>
-      <c r="H8" s="528"/>
-      <c r="I8" s="529" t="s">
-        <v>386</v>
-      </c>
-      <c r="J8" s="529"/>
-      <c r="K8" s="529"/>
-      <c r="L8" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" customHeight="1" ht="27">
-      <c r="A9" s="530" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="531"/>
-      <c r="C9" s="531"/>
-      <c r="D9" s="531"/>
-      <c r="E9" s="531"/>
-      <c r="F9" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="G9" s="528" t="s">
-        <v>390</v>
-      </c>
-      <c r="H9" s="528"/>
-      <c r="I9" s="529" t="s">
-        <v>391</v>
-      </c>
-      <c r="J9" s="529"/>
-      <c r="K9" s="529"/>
-      <c r="L9" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" customHeight="1" ht="27">
-      <c r="A10" s="530" t="s">
-        <v>393</v>
-      </c>
-      <c r="B10" s="531"/>
-      <c r="C10" s="531"/>
-      <c r="D10" s="531"/>
-      <c r="E10" s="531"/>
-      <c r="F10" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" s="528" t="s">
-        <v>395</v>
-      </c>
-      <c r="H10" s="528"/>
-      <c r="I10" s="529" t="s">
-        <v>396</v>
-      </c>
-      <c r="J10" s="529"/>
-      <c r="K10" s="529"/>
-      <c r="L10" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" customHeight="1" ht="27">
-      <c r="A11" s="546" t="s">
-        <v>398</v>
-      </c>
-      <c r="B11" s="547"/>
-      <c r="C11" s="547"/>
-      <c r="D11" s="547"/>
-      <c r="E11" s="547"/>
-      <c r="F11" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" s="554" t="s">
-        <v>400</v>
-      </c>
-      <c r="H11" s="554"/>
-      <c r="I11" s="541" t="s">
-        <v>401</v>
-      </c>
-      <c r="J11" s="541"/>
-      <c r="K11" s="541"/>
-      <c r="L11" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" customHeight="1" ht="12" s="8" customFormat="1">
-      <c r="A12" s="548" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="549"/>
-      <c r="C12" s="549"/>
-      <c r="D12" s="549"/>
-      <c r="E12" s="549"/>
-      <c r="F12" s="549" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12" s="549" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="549"/>
-      <c r="I12" s="549" t="s">
-        <v>406</v>
-      </c>
-      <c r="J12" s="549"/>
-      <c r="K12" s="549"/>
-      <c r="L12" s="549" t="s">
-        <v>407</v>
-      </c>
-      <c r="M12" s="550" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customHeight="1" ht="18">
-      <c r="A13" s="551" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13" s="552"/>
-      <c r="C13" s="552"/>
-      <c r="D13" s="552"/>
-      <c r="E13" s="552"/>
-      <c r="F13" s="552"/>
-      <c r="G13" s="552"/>
-      <c r="H13" s="552"/>
-      <c r="I13" s="552"/>
-      <c r="J13" s="552"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="552"/>
-      <c r="M13" s="553"/>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="12" s="241" customFormat="1">
-      <c r="A14" s="248" t="s">
-        <v>409</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
@@ -16722,691 +16554,579 @@
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
       <c r="L14" s="112"/>
-      <c r="M14" s="247"/>
+      <c r="M14" s="244"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="18">
       <c r="A15" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="537" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="538"/>
-      <c r="D15" s="536" t="s">
-        <v>412</v>
-      </c>
-      <c r="E15" s="537"/>
-      <c r="F15" s="538"/>
-      <c r="G15" s="536" t="s">
-        <v>413</v>
-      </c>
-      <c r="H15" s="537"/>
-      <c r="I15" s="538"/>
-      <c r="J15" s="542" t="s">
-        <v>414</v>
-      </c>
-      <c r="K15" s="532" t="s">
-        <v>415</v>
-      </c>
-      <c r="L15" s="557" t="s">
-        <v>416</v>
-      </c>
-      <c r="M15" s="526" t="s">
-        <v>417</v>
+        <v>385</v>
+      </c>
+      <c r="B15" s="529" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="530"/>
+      <c r="D15" s="528" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="529"/>
+      <c r="F15" s="530"/>
+      <c r="G15" s="528" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="529"/>
+      <c r="I15" s="530"/>
+      <c r="J15" s="534" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="524" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="549" t="s">
+        <v>391</v>
+      </c>
+      <c r="M15" s="518" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15">
       <c r="A16" s="9"/>
-      <c r="B16" s="515"/>
-      <c r="C16" s="516"/>
-      <c r="D16" s="536"/>
-      <c r="E16" s="537"/>
-      <c r="F16" s="538"/>
-      <c r="G16" s="536"/>
-      <c r="H16" s="537"/>
-      <c r="I16" s="538"/>
-      <c r="J16" s="542"/>
-      <c r="K16" s="532"/>
-      <c r="L16" s="557"/>
-      <c r="M16" s="526"/>
+      <c r="B16" s="507"/>
+      <c r="C16" s="508"/>
+      <c r="D16" s="528"/>
+      <c r="E16" s="529"/>
+      <c r="F16" s="530"/>
+      <c r="G16" s="528"/>
+      <c r="H16" s="529"/>
+      <c r="I16" s="530"/>
+      <c r="J16" s="534"/>
+      <c r="K16" s="524"/>
+      <c r="L16" s="549"/>
+      <c r="M16" s="518"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="18.75">
-      <c r="A17" s="534" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="535"/>
+      <c r="A17" s="526" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="527"/>
       <c r="C17" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="518"/>
-      <c r="E17" s="515"/>
-      <c r="F17" s="516"/>
-      <c r="G17" s="518"/>
-      <c r="H17" s="515"/>
-      <c r="I17" s="516"/>
-      <c r="J17" s="543"/>
-      <c r="K17" s="533"/>
-      <c r="L17" s="558"/>
-      <c r="M17" s="527"/>
+        <v>169</v>
+      </c>
+      <c r="D17" s="510"/>
+      <c r="E17" s="507"/>
+      <c r="F17" s="508"/>
+      <c r="G17" s="510"/>
+      <c r="H17" s="507"/>
+      <c r="I17" s="508"/>
+      <c r="J17" s="535"/>
+      <c r="K17" s="525"/>
+      <c r="L17" s="550"/>
+      <c r="M17" s="519"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A18" s="544" t="s">
-        <v>418</v>
-      </c>
-      <c r="B18" s="545"/>
+      <c r="A18" s="536" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="537"/>
       <c r="C18" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="D18" s="531" t="s">
-        <v>420</v>
-      </c>
-      <c r="E18" s="531"/>
-      <c r="F18" s="531"/>
-      <c r="G18" s="531" t="s">
-        <v>421</v>
-      </c>
-      <c r="H18" s="531"/>
-      <c r="I18" s="531"/>
+        <v>394</v>
+      </c>
+      <c r="D18" s="523" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" s="523"/>
+      <c r="F18" s="523"/>
+      <c r="G18" s="523" t="s">
+        <v>396</v>
+      </c>
+      <c r="H18" s="523"/>
+      <c r="I18" s="523"/>
       <c r="J18" s="16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K18" s="11">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="M18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A19" s="544" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="545"/>
+      <c r="A19" s="536" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="537"/>
       <c r="C19" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="D19" s="531" t="s">
-        <v>425</v>
-      </c>
-      <c r="E19" s="531"/>
-      <c r="F19" s="531"/>
-      <c r="G19" s="531" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" s="531"/>
-      <c r="I19" s="531"/>
+        <v>399</v>
+      </c>
+      <c r="D19" s="523" t="s">
+        <v>400</v>
+      </c>
+      <c r="E19" s="523"/>
+      <c r="F19" s="523"/>
+      <c r="G19" s="523" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="523"/>
+      <c r="I19" s="523"/>
       <c r="J19" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K19" s="11">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="M19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A20" s="544" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="545"/>
-      <c r="C20" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D20" s="531" t="s">
-        <v>430</v>
-      </c>
-      <c r="E20" s="531"/>
-      <c r="F20" s="531"/>
-      <c r="G20" s="531" t="s">
-        <v>431</v>
-      </c>
-      <c r="H20" s="531"/>
-      <c r="I20" s="531"/>
-      <c r="J20" s="16">
-        <v>9</v>
-      </c>
-      <c r="K20" s="11">
-        <v>1</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
+      <c r="A20" s="536"/>
+      <c r="B20" s="537"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="523"/>
+      <c r="F20" s="523"/>
+      <c r="G20" s="523"/>
+      <c r="H20" s="523"/>
+      <c r="I20" s="523"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A21" s="544" t="s">
-        <v>433</v>
-      </c>
-      <c r="B21" s="545"/>
-      <c r="C21" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" s="531" t="s">
-        <v>435</v>
-      </c>
-      <c r="E21" s="531"/>
-      <c r="F21" s="531"/>
-      <c r="G21" s="531" t="s">
-        <v>436</v>
-      </c>
-      <c r="H21" s="531"/>
-      <c r="I21" s="531"/>
-      <c r="J21" s="16">
-        <v>9</v>
-      </c>
-      <c r="K21" s="11">
-        <v>3</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
+      <c r="A21" s="536"/>
+      <c r="B21" s="537"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="523"/>
+      <c r="E21" s="523"/>
+      <c r="F21" s="523"/>
+      <c r="G21" s="523"/>
+      <c r="H21" s="523"/>
+      <c r="I21" s="523"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A22" s="544" t="s">
-        <v>418</v>
-      </c>
-      <c r="B22" s="545"/>
-      <c r="C22" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="531" t="s">
-        <v>420</v>
-      </c>
-      <c r="E22" s="531"/>
-      <c r="F22" s="531"/>
-      <c r="G22" s="531" t="s">
-        <v>421</v>
-      </c>
-      <c r="H22" s="531"/>
-      <c r="I22" s="531"/>
-      <c r="J22" s="16">
-        <v>7</v>
-      </c>
-      <c r="K22" s="11">
-        <v>1</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="M22" s="12">
-        <v>1</v>
-      </c>
+      <c r="A22" s="536"/>
+      <c r="B22" s="537"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="523"/>
+      <c r="E22" s="523"/>
+      <c r="F22" s="523"/>
+      <c r="G22" s="523"/>
+      <c r="H22" s="523"/>
+      <c r="I22" s="523"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A23" s="544" t="s">
-        <v>423</v>
-      </c>
-      <c r="B23" s="545"/>
-      <c r="C23" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="D23" s="531" t="s">
-        <v>425</v>
-      </c>
-      <c r="E23" s="531"/>
-      <c r="F23" s="531"/>
-      <c r="G23" s="531" t="s">
-        <v>426</v>
-      </c>
-      <c r="H23" s="531"/>
-      <c r="I23" s="531"/>
-      <c r="J23" s="16">
-        <v>9</v>
-      </c>
-      <c r="K23" s="11">
-        <v>2</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="M23" s="12">
-        <v>1</v>
-      </c>
+      <c r="A23" s="536"/>
+      <c r="B23" s="537"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="523"/>
+      <c r="E23" s="523"/>
+      <c r="F23" s="523"/>
+      <c r="G23" s="523"/>
+      <c r="H23" s="523"/>
+      <c r="I23" s="523"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A24" s="544" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="545"/>
-      <c r="C24" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D24" s="531" t="s">
-        <v>430</v>
-      </c>
-      <c r="E24" s="531"/>
-      <c r="F24" s="531"/>
-      <c r="G24" s="531" t="s">
-        <v>431</v>
-      </c>
-      <c r="H24" s="531"/>
-      <c r="I24" s="531"/>
-      <c r="J24" s="16">
-        <v>9</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
+      <c r="A24" s="536"/>
+      <c r="B24" s="537"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="523"/>
+      <c r="F24" s="523"/>
+      <c r="G24" s="523"/>
+      <c r="H24" s="523"/>
+      <c r="I24" s="523"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A25" s="544" t="s">
-        <v>433</v>
-      </c>
-      <c r="B25" s="545"/>
-      <c r="C25" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="531" t="s">
-        <v>435</v>
-      </c>
-      <c r="E25" s="531"/>
-      <c r="F25" s="531"/>
-      <c r="G25" s="531" t="s">
-        <v>436</v>
-      </c>
-      <c r="H25" s="531"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="16">
-        <v>9</v>
-      </c>
-      <c r="K25" s="11">
-        <v>3</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
+      <c r="A25" s="536"/>
+      <c r="B25" s="537"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="523"/>
+      <c r="F25" s="523"/>
+      <c r="G25" s="523"/>
+      <c r="H25" s="523"/>
+      <c r="I25" s="523"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A26" s="544" t="s">
-        <v>438</v>
-      </c>
-      <c r="B26" s="545"/>
-      <c r="C26" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D26" s="531" t="s">
-        <v>440</v>
-      </c>
-      <c r="E26" s="531"/>
-      <c r="F26" s="531"/>
-      <c r="G26" s="531" t="s">
-        <v>441</v>
-      </c>
-      <c r="H26" s="531"/>
-      <c r="I26" s="531"/>
-      <c r="J26" s="16">
-        <v>4</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
+      <c r="A26" s="536"/>
+      <c r="B26" s="537"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="523"/>
+      <c r="E26" s="523"/>
+      <c r="F26" s="523"/>
+      <c r="G26" s="523"/>
+      <c r="H26" s="523"/>
+      <c r="I26" s="523"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A27" s="544"/>
-      <c r="B27" s="545"/>
+      <c r="A27" s="536"/>
+      <c r="B27" s="537"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="531"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="531"/>
-      <c r="G27" s="531"/>
-      <c r="H27" s="531"/>
-      <c r="I27" s="531"/>
+      <c r="D27" s="523"/>
+      <c r="E27" s="523"/>
+      <c r="F27" s="523"/>
+      <c r="G27" s="523"/>
+      <c r="H27" s="523"/>
+      <c r="I27" s="523"/>
       <c r="J27" s="16"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A28" s="544"/>
-      <c r="B28" s="545"/>
+      <c r="A28" s="536"/>
+      <c r="B28" s="537"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="531"/>
-      <c r="E28" s="531"/>
-      <c r="F28" s="531"/>
-      <c r="G28" s="531"/>
-      <c r="H28" s="531"/>
-      <c r="I28" s="531"/>
+      <c r="D28" s="523"/>
+      <c r="E28" s="523"/>
+      <c r="F28" s="523"/>
+      <c r="G28" s="523"/>
+      <c r="H28" s="523"/>
+      <c r="I28" s="523"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A29" s="544"/>
-      <c r="B29" s="545"/>
+      <c r="A29" s="536"/>
+      <c r="B29" s="537"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="531"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="531"/>
-      <c r="G29" s="531"/>
-      <c r="H29" s="531"/>
-      <c r="I29" s="531"/>
+      <c r="D29" s="523"/>
+      <c r="E29" s="523"/>
+      <c r="F29" s="523"/>
+      <c r="G29" s="523"/>
+      <c r="H29" s="523"/>
+      <c r="I29" s="523"/>
       <c r="J29" s="16"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A30" s="544"/>
-      <c r="B30" s="545"/>
+      <c r="A30" s="536"/>
+      <c r="B30" s="537"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="531"/>
-      <c r="E30" s="531"/>
-      <c r="F30" s="531"/>
-      <c r="G30" s="531"/>
-      <c r="H30" s="531"/>
-      <c r="I30" s="531"/>
+      <c r="D30" s="523"/>
+      <c r="E30" s="523"/>
+      <c r="F30" s="523"/>
+      <c r="G30" s="523"/>
+      <c r="H30" s="523"/>
+      <c r="I30" s="523"/>
       <c r="J30" s="16"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A31" s="544"/>
-      <c r="B31" s="545"/>
+      <c r="A31" s="536"/>
+      <c r="B31" s="537"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="531"/>
-      <c r="E31" s="531"/>
-      <c r="F31" s="531"/>
-      <c r="G31" s="531"/>
-      <c r="H31" s="531"/>
-      <c r="I31" s="531"/>
+      <c r="D31" s="523"/>
+      <c r="E31" s="523"/>
+      <c r="F31" s="523"/>
+      <c r="G31" s="523"/>
+      <c r="H31" s="523"/>
+      <c r="I31" s="523"/>
       <c r="J31" s="16"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A32" s="544"/>
-      <c r="B32" s="545"/>
+      <c r="A32" s="536"/>
+      <c r="B32" s="537"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="531"/>
-      <c r="E32" s="531"/>
-      <c r="F32" s="531"/>
-      <c r="G32" s="531"/>
-      <c r="H32" s="531"/>
-      <c r="I32" s="531"/>
+      <c r="D32" s="523"/>
+      <c r="E32" s="523"/>
+      <c r="F32" s="523"/>
+      <c r="G32" s="523"/>
+      <c r="H32" s="523"/>
+      <c r="I32" s="523"/>
       <c r="J32" s="16"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A33" s="544"/>
-      <c r="B33" s="545"/>
+      <c r="A33" s="536"/>
+      <c r="B33" s="537"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="531"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="531"/>
-      <c r="G33" s="531"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="531"/>
+      <c r="D33" s="523"/>
+      <c r="E33" s="523"/>
+      <c r="F33" s="523"/>
+      <c r="G33" s="523"/>
+      <c r="H33" s="523"/>
+      <c r="I33" s="523"/>
       <c r="J33" s="16"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A34" s="544"/>
-      <c r="B34" s="545"/>
+      <c r="A34" s="536"/>
+      <c r="B34" s="537"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="531"/>
-      <c r="E34" s="531"/>
-      <c r="F34" s="531"/>
-      <c r="G34" s="531"/>
-      <c r="H34" s="531"/>
-      <c r="I34" s="531"/>
+      <c r="D34" s="523"/>
+      <c r="E34" s="523"/>
+      <c r="F34" s="523"/>
+      <c r="G34" s="523"/>
+      <c r="H34" s="523"/>
+      <c r="I34" s="523"/>
       <c r="J34" s="16"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="24.75" s="15" customFormat="1">
-      <c r="A35" s="544"/>
-      <c r="B35" s="545"/>
+      <c r="A35" s="536"/>
+      <c r="B35" s="537"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="531"/>
-      <c r="E35" s="531"/>
-      <c r="F35" s="531"/>
-      <c r="G35" s="531"/>
-      <c r="H35" s="531"/>
-      <c r="I35" s="531"/>
+      <c r="D35" s="523"/>
+      <c r="E35" s="523"/>
+      <c r="F35" s="523"/>
+      <c r="G35" s="523"/>
+      <c r="H35" s="523"/>
+      <c r="I35" s="523"/>
       <c r="J35" s="16"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A36" s="544"/>
-      <c r="B36" s="545"/>
+      <c r="A36" s="536"/>
+      <c r="B36" s="537"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="531"/>
-      <c r="E36" s="531"/>
-      <c r="F36" s="531"/>
-      <c r="G36" s="531"/>
-      <c r="H36" s="531"/>
-      <c r="I36" s="531"/>
+      <c r="D36" s="523"/>
+      <c r="E36" s="523"/>
+      <c r="F36" s="523"/>
+      <c r="G36" s="523"/>
+      <c r="H36" s="523"/>
+      <c r="I36" s="523"/>
       <c r="J36" s="16"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A37" s="544"/>
-      <c r="B37" s="545"/>
+      <c r="A37" s="536"/>
+      <c r="B37" s="537"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="531"/>
-      <c r="E37" s="531"/>
-      <c r="F37" s="531"/>
-      <c r="G37" s="531"/>
-      <c r="H37" s="531"/>
-      <c r="I37" s="531"/>
+      <c r="D37" s="523"/>
+      <c r="E37" s="523"/>
+      <c r="F37" s="523"/>
+      <c r="G37" s="523"/>
+      <c r="H37" s="523"/>
+      <c r="I37" s="523"/>
       <c r="J37" s="16"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A38" s="544"/>
-      <c r="B38" s="545"/>
+      <c r="A38" s="536"/>
+      <c r="B38" s="537"/>
       <c r="C38" s="27"/>
-      <c r="D38" s="531"/>
-      <c r="E38" s="531"/>
-      <c r="F38" s="531"/>
-      <c r="G38" s="531"/>
-      <c r="H38" s="531"/>
-      <c r="I38" s="531"/>
+      <c r="D38" s="523"/>
+      <c r="E38" s="523"/>
+      <c r="F38" s="523"/>
+      <c r="G38" s="523"/>
+      <c r="H38" s="523"/>
+      <c r="I38" s="523"/>
       <c r="J38" s="16"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A39" s="544"/>
-      <c r="B39" s="545"/>
+      <c r="A39" s="536"/>
+      <c r="B39" s="537"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="531"/>
-      <c r="E39" s="531"/>
-      <c r="F39" s="531"/>
-      <c r="G39" s="531"/>
-      <c r="H39" s="531"/>
-      <c r="I39" s="531"/>
+      <c r="D39" s="523"/>
+      <c r="E39" s="523"/>
+      <c r="F39" s="523"/>
+      <c r="G39" s="523"/>
+      <c r="H39" s="523"/>
+      <c r="I39" s="523"/>
       <c r="J39" s="16"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A40" s="544"/>
-      <c r="B40" s="545"/>
+      <c r="A40" s="536"/>
+      <c r="B40" s="537"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="531"/>
-      <c r="F40" s="531"/>
-      <c r="G40" s="531"/>
-      <c r="H40" s="531"/>
-      <c r="I40" s="531"/>
+      <c r="D40" s="523"/>
+      <c r="E40" s="523"/>
+      <c r="F40" s="523"/>
+      <c r="G40" s="523"/>
+      <c r="H40" s="523"/>
+      <c r="I40" s="523"/>
       <c r="J40" s="16"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A41" s="544"/>
-      <c r="B41" s="545"/>
+      <c r="A41" s="536"/>
+      <c r="B41" s="537"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="531"/>
-      <c r="E41" s="531"/>
-      <c r="F41" s="531"/>
-      <c r="G41" s="531"/>
-      <c r="H41" s="531"/>
-      <c r="I41" s="531"/>
+      <c r="D41" s="523"/>
+      <c r="E41" s="523"/>
+      <c r="F41" s="523"/>
+      <c r="G41" s="523"/>
+      <c r="H41" s="523"/>
+      <c r="I41" s="523"/>
       <c r="J41" s="16"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A42" s="544"/>
-      <c r="B42" s="545"/>
+      <c r="A42" s="536"/>
+      <c r="B42" s="537"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="531"/>
-      <c r="F42" s="531"/>
-      <c r="G42" s="531"/>
-      <c r="H42" s="531"/>
-      <c r="I42" s="531"/>
+      <c r="D42" s="523"/>
+      <c r="E42" s="523"/>
+      <c r="F42" s="523"/>
+      <c r="G42" s="523"/>
+      <c r="H42" s="523"/>
+      <c r="I42" s="523"/>
       <c r="J42" s="16"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A43" s="544"/>
-      <c r="B43" s="545"/>
+      <c r="A43" s="536"/>
+      <c r="B43" s="537"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="531"/>
-      <c r="E43" s="531"/>
-      <c r="F43" s="531"/>
-      <c r="G43" s="531"/>
-      <c r="H43" s="531"/>
-      <c r="I43" s="531"/>
+      <c r="D43" s="523"/>
+      <c r="E43" s="523"/>
+      <c r="F43" s="523"/>
+      <c r="G43" s="523"/>
+      <c r="H43" s="523"/>
+      <c r="I43" s="523"/>
       <c r="J43" s="16"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="24" s="15" customFormat="1">
-      <c r="A44" s="544"/>
-      <c r="B44" s="545"/>
-      <c r="C44" s="236"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="531"/>
-      <c r="F44" s="531"/>
-      <c r="G44" s="531"/>
-      <c r="H44" s="531"/>
-      <c r="I44" s="531"/>
+      <c r="A44" s="536"/>
+      <c r="B44" s="537"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="523"/>
+      <c r="E44" s="523"/>
+      <c r="F44" s="523"/>
+      <c r="G44" s="523"/>
+      <c r="H44" s="523"/>
+      <c r="I44" s="523"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="237"/>
-      <c r="L44" s="237"/>
+      <c r="K44" s="234"/>
+      <c r="L44" s="234"/>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="21.75" s="15" customFormat="1">
-      <c r="A45" s="555"/>
-      <c r="B45" s="556"/>
+      <c r="A45" s="547"/>
+      <c r="B45" s="548"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="547"/>
-      <c r="E45" s="547"/>
-      <c r="F45" s="547"/>
-      <c r="G45" s="547"/>
-      <c r="H45" s="547"/>
-      <c r="I45" s="547"/>
+      <c r="D45" s="539"/>
+      <c r="E45" s="539"/>
+      <c r="F45" s="539"/>
+      <c r="G45" s="539"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="539"/>
       <c r="J45" s="17"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="9.75">
-      <c r="A46" s="559" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" s="560"/>
-      <c r="C46" s="560"/>
-      <c r="D46" s="560"/>
-      <c r="E46" s="560"/>
-      <c r="F46" s="560"/>
-      <c r="G46" s="560"/>
-      <c r="H46" s="560"/>
-      <c r="I46" s="560"/>
-      <c r="J46" s="560"/>
-      <c r="K46" s="561"/>
-      <c r="L46" s="561"/>
-      <c r="M46" s="562"/>
+      <c r="A46" s="551" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="552"/>
+      <c r="C46" s="552"/>
+      <c r="D46" s="552"/>
+      <c r="E46" s="552"/>
+      <c r="F46" s="552"/>
+      <c r="G46" s="552"/>
+      <c r="H46" s="552"/>
+      <c r="I46" s="552"/>
+      <c r="J46" s="552"/>
+      <c r="K46" s="553"/>
+      <c r="L46" s="553"/>
+      <c r="M46" s="554"/>
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A47" s="317" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="318"/>
-      <c r="C47" s="319"/>
-      <c r="D47" s="507"/>
-      <c r="E47" s="508"/>
-      <c r="F47" s="508"/>
-      <c r="G47" s="508"/>
-      <c r="H47" s="509"/>
-      <c r="I47" s="292" t="s">
+      <c r="A47" s="312" t="s">
         <v>198</v>
       </c>
-      <c r="J47" s="293"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="294"/>
-      <c r="M47" s="300"/>
-      <c r="N47" s="295"/>
+      <c r="B47" s="313"/>
+      <c r="C47" s="314"/>
+      <c r="D47" s="499"/>
+      <c r="E47" s="500"/>
+      <c r="F47" s="500"/>
+      <c r="G47" s="500"/>
+      <c r="H47" s="501"/>
+      <c r="I47" s="286" t="s">
+        <v>199</v>
+      </c>
+      <c r="J47" s="287"/>
+      <c r="K47" s="288"/>
+      <c r="L47" s="288"/>
+      <c r="M47" s="294"/>
+      <c r="N47" s="289"/>
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="9">
-      <c r="A48" s="506" t="s">
-        <v>444</v>
-      </c>
-      <c r="B48" s="506"/>
-      <c r="C48" s="506"/>
-      <c r="D48" s="506"/>
-      <c r="E48" s="506"/>
-      <c r="F48" s="506"/>
-      <c r="G48" s="506"/>
-      <c r="H48" s="506"/>
-      <c r="I48" s="506"/>
-      <c r="J48" s="506"/>
-      <c r="K48" s="506"/>
-      <c r="L48" s="506"/>
-      <c r="M48" s="506"/>
-      <c r="N48" s="299"/>
+      <c r="A48" s="498" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" s="498"/>
+      <c r="C48" s="498"/>
+      <c r="D48" s="498"/>
+      <c r="E48" s="498"/>
+      <c r="F48" s="498"/>
+      <c r="G48" s="498"/>
+      <c r="H48" s="498"/>
+      <c r="I48" s="498"/>
+      <c r="J48" s="498"/>
+      <c r="K48" s="498"/>
+      <c r="L48" s="498"/>
+      <c r="M48" s="498"/>
+      <c r="N48" s="293"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -17554,14 +17274,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="55" zoomScaleNormal="115" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1" topLeftCell="A28">
-      <selection activeCell="C46" sqref="C46:H46"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="55" zoomScaleNormal="115" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17583,290 +17303,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="3">
-      <c r="A1" s="597"/>
-      <c r="B1" s="598"/>
-      <c r="C1" s="598"/>
-      <c r="D1" s="598"/>
-      <c r="E1" s="598"/>
-      <c r="F1" s="598"/>
-      <c r="G1" s="598"/>
-      <c r="H1" s="598"/>
-      <c r="I1" s="598"/>
-      <c r="J1" s="598"/>
-      <c r="K1" s="599"/>
+      <c r="A1" s="587"/>
+      <c r="B1" s="588"/>
+      <c r="C1" s="588"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="589"/>
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="22.5">
-      <c r="A2" s="622" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" s="623"/>
-      <c r="C2" s="623"/>
-      <c r="D2" s="623"/>
-      <c r="E2" s="623"/>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="623"/>
-      <c r="J2" s="623"/>
-      <c r="K2" s="624"/>
+      <c r="A2" s="612" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="613"/>
+      <c r="K2" s="614"/>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
-      <c r="A3" s="605" t="s">
-        <v>446</v>
-      </c>
-      <c r="B3" s="607" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="513" t="s">
-        <v>448</v>
-      </c>
-      <c r="F3" s="514"/>
-      <c r="G3" s="581" t="s">
-        <v>449</v>
-      </c>
-      <c r="H3" s="517" t="s">
-        <v>450</v>
-      </c>
-      <c r="I3" s="614"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="615"/>
+      <c r="A3" s="595" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="597" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="597"/>
+      <c r="D3" s="598"/>
+      <c r="E3" s="505" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="506"/>
+      <c r="G3" s="571" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3" s="509" t="s">
+        <v>409</v>
+      </c>
+      <c r="I3" s="604"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="605"/>
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="11.25">
-      <c r="A4" s="606"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
-      <c r="E4" s="515"/>
-      <c r="F4" s="516"/>
-      <c r="G4" s="532"/>
-      <c r="H4" s="616"/>
-      <c r="I4" s="617"/>
-      <c r="J4" s="617"/>
-      <c r="K4" s="618"/>
+      <c r="A4" s="596"/>
+      <c r="B4" s="599"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="524"/>
+      <c r="H4" s="606"/>
+      <c r="I4" s="607"/>
+      <c r="J4" s="607"/>
+      <c r="K4" s="608"/>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="13.5">
       <c r="A5" s="31"/>
-      <c r="B5" s="576"/>
-      <c r="C5" s="576"/>
-      <c r="D5" s="577"/>
+      <c r="B5" s="619"/>
+      <c r="C5" s="619"/>
+      <c r="D5" s="620"/>
       <c r="E5" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="533"/>
-      <c r="H5" s="619"/>
-      <c r="I5" s="620"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
+        <v>169</v>
+      </c>
+      <c r="G5" s="525"/>
+      <c r="H5" s="609"/>
+      <c r="I5" s="610"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A6" s="578" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="579"/>
-      <c r="C6" s="579"/>
-      <c r="D6" s="580"/>
+      <c r="A6" s="568" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="569"/>
+      <c r="C6" s="569"/>
+      <c r="D6" s="570"/>
       <c r="E6" s="41" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="G6" s="42">
-        <v>10000</v>
-      </c>
-      <c r="H6" s="582" t="s">
-        <v>454</v>
-      </c>
-      <c r="I6" s="583"/>
-      <c r="J6" s="583"/>
-      <c r="K6" s="584"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="572" t="s">
+        <v>413</v>
+      </c>
+      <c r="I6" s="573"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="574"/>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A7" s="578"/>
-      <c r="B7" s="579"/>
-      <c r="C7" s="579"/>
-      <c r="D7" s="580"/>
+      <c r="A7" s="568"/>
+      <c r="B7" s="569"/>
+      <c r="C7" s="569"/>
+      <c r="D7" s="570"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="583"/>
-      <c r="J7" s="583"/>
-      <c r="K7" s="584"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="573"/>
+      <c r="J7" s="573"/>
+      <c r="K7" s="574"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A8" s="578"/>
-      <c r="B8" s="579"/>
-      <c r="C8" s="579"/>
-      <c r="D8" s="580"/>
+      <c r="A8" s="568"/>
+      <c r="B8" s="569"/>
+      <c r="C8" s="569"/>
+      <c r="D8" s="570"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="582"/>
-      <c r="I8" s="583"/>
-      <c r="J8" s="583"/>
-      <c r="K8" s="584"/>
+      <c r="H8" s="572"/>
+      <c r="I8" s="573"/>
+      <c r="J8" s="573"/>
+      <c r="K8" s="574"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A9" s="578"/>
-      <c r="B9" s="579"/>
-      <c r="C9" s="579"/>
-      <c r="D9" s="580"/>
+      <c r="A9" s="568"/>
+      <c r="B9" s="569"/>
+      <c r="C9" s="569"/>
+      <c r="D9" s="570"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="582"/>
-      <c r="I9" s="583"/>
-      <c r="J9" s="583"/>
-      <c r="K9" s="584"/>
+      <c r="H9" s="572"/>
+      <c r="I9" s="573"/>
+      <c r="J9" s="573"/>
+      <c r="K9" s="574"/>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A10" s="578"/>
-      <c r="B10" s="579"/>
-      <c r="C10" s="579"/>
-      <c r="D10" s="580"/>
+      <c r="A10" s="568"/>
+      <c r="B10" s="569"/>
+      <c r="C10" s="569"/>
+      <c r="D10" s="570"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="582"/>
-      <c r="I10" s="583"/>
-      <c r="J10" s="583"/>
-      <c r="K10" s="584"/>
+      <c r="H10" s="572"/>
+      <c r="I10" s="573"/>
+      <c r="J10" s="573"/>
+      <c r="K10" s="574"/>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A11" s="578"/>
-      <c r="B11" s="579"/>
-      <c r="C11" s="579"/>
-      <c r="D11" s="580"/>
+      <c r="A11" s="568"/>
+      <c r="B11" s="569"/>
+      <c r="C11" s="569"/>
+      <c r="D11" s="570"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="582"/>
-      <c r="I11" s="583"/>
-      <c r="J11" s="583"/>
-      <c r="K11" s="584"/>
+      <c r="H11" s="572"/>
+      <c r="I11" s="573"/>
+      <c r="J11" s="573"/>
+      <c r="K11" s="574"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A12" s="611"/>
-      <c r="B12" s="612"/>
-      <c r="C12" s="612"/>
-      <c r="D12" s="613"/>
+      <c r="A12" s="601"/>
+      <c r="B12" s="602"/>
+      <c r="C12" s="602"/>
+      <c r="D12" s="603"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="629"/>
-      <c r="I12" s="630"/>
-      <c r="J12" s="630"/>
-      <c r="K12" s="631"/>
+      <c r="H12" s="621"/>
+      <c r="I12" s="622"/>
+      <c r="J12" s="622"/>
+      <c r="K12" s="623"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="11.25">
-      <c r="A13" s="548" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="549"/>
-      <c r="C13" s="549"/>
-      <c r="D13" s="549"/>
-      <c r="E13" s="549"/>
-      <c r="F13" s="549"/>
-      <c r="G13" s="549"/>
-      <c r="H13" s="549"/>
-      <c r="I13" s="549"/>
-      <c r="J13" s="549"/>
-      <c r="K13" s="550"/>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="18" s="158" customFormat="1">
-      <c r="A14" s="632" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" s="633"/>
-      <c r="C14" s="633"/>
-      <c r="D14" s="633"/>
-      <c r="E14" s="633"/>
-      <c r="F14" s="633"/>
-      <c r="G14" s="633"/>
-      <c r="H14" s="633"/>
-      <c r="I14" s="633"/>
-      <c r="J14" s="633"/>
-      <c r="K14" s="634"/>
+      <c r="A13" s="540" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="541"/>
+      <c r="C13" s="541"/>
+      <c r="D13" s="541"/>
+      <c r="E13" s="541"/>
+      <c r="F13" s="541"/>
+      <c r="G13" s="541"/>
+      <c r="H13" s="541"/>
+      <c r="I13" s="541"/>
+      <c r="J13" s="541"/>
+      <c r="K13" s="542"/>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="18" s="156" customFormat="1">
+      <c r="A14" s="624" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="625"/>
+      <c r="C14" s="625"/>
+      <c r="D14" s="625"/>
+      <c r="E14" s="625"/>
+      <c r="F14" s="625"/>
+      <c r="G14" s="625"/>
+      <c r="H14" s="625"/>
+      <c r="I14" s="625"/>
+      <c r="J14" s="625"/>
+      <c r="K14" s="626"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="18">
-      <c r="A15" s="606" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" s="537" t="s">
-        <v>457</v>
-      </c>
-      <c r="C15" s="600"/>
-      <c r="D15" s="601"/>
-      <c r="E15" s="537" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" s="538"/>
-      <c r="G15" s="532" t="s">
-        <v>449</v>
-      </c>
-      <c r="H15" s="542" t="s">
-        <v>459</v>
-      </c>
-      <c r="I15" s="536" t="s">
-        <v>460</v>
-      </c>
-      <c r="J15" s="600"/>
-      <c r="K15" s="625"/>
+      <c r="A15" s="596" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="529" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" s="590"/>
+      <c r="D15" s="591"/>
+      <c r="E15" s="529" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="530"/>
+      <c r="G15" s="524" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="534" t="s">
+        <v>418</v>
+      </c>
+      <c r="I15" s="528" t="s">
+        <v>419</v>
+      </c>
+      <c r="J15" s="590"/>
+      <c r="K15" s="615"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="25.5">
-      <c r="A16" s="606"/>
-      <c r="B16" s="602"/>
-      <c r="C16" s="602"/>
-      <c r="D16" s="601"/>
-      <c r="E16" s="515"/>
-      <c r="F16" s="516"/>
-      <c r="G16" s="532"/>
-      <c r="H16" s="542"/>
-      <c r="I16" s="626"/>
-      <c r="J16" s="602"/>
-      <c r="K16" s="625"/>
+      <c r="A16" s="596"/>
+      <c r="B16" s="592"/>
+      <c r="C16" s="592"/>
+      <c r="D16" s="591"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="508"/>
+      <c r="G16" s="524"/>
+      <c r="H16" s="534"/>
+      <c r="I16" s="616"/>
+      <c r="J16" s="592"/>
+      <c r="K16" s="615"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="13.5">
       <c r="A17" s="31"/>
-      <c r="B17" s="603"/>
-      <c r="C17" s="603"/>
-      <c r="D17" s="604"/>
+      <c r="B17" s="593"/>
+      <c r="C17" s="593"/>
+      <c r="D17" s="594"/>
       <c r="E17" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="533"/>
-      <c r="H17" s="543"/>
-      <c r="I17" s="627"/>
-      <c r="J17" s="603"/>
-      <c r="K17" s="628"/>
+        <v>169</v>
+      </c>
+      <c r="G17" s="525"/>
+      <c r="H17" s="535"/>
+      <c r="I17" s="617"/>
+      <c r="J17" s="593"/>
+      <c r="K17" s="618"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A18" s="585"/>
-      <c r="B18" s="586"/>
-      <c r="C18" s="586"/>
-      <c r="D18" s="587"/>
+      <c r="A18" s="575"/>
+      <c r="B18" s="576"/>
+      <c r="C18" s="576"/>
+      <c r="D18" s="577"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="35"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="591"/>
-      <c r="J18" s="592"/>
-      <c r="K18" s="593"/>
+      <c r="I18" s="581"/>
+      <c r="J18" s="582"/>
+      <c r="K18" s="583"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A19" s="588"/>
-      <c r="B19" s="589"/>
-      <c r="C19" s="589"/>
-      <c r="D19" s="590"/>
+      <c r="A19" s="578"/>
+      <c r="B19" s="579"/>
+      <c r="C19" s="579"/>
+      <c r="D19" s="580"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="35"/>
@@ -17875,436 +17595,436 @@
       <c r="J19" s="37"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="1:14" customHeight="1" ht="24.75" s="241" customFormat="1">
-      <c r="A20" s="588"/>
-      <c r="B20" s="589"/>
-      <c r="C20" s="589"/>
-      <c r="D20" s="590"/>
+    <row r="20" spans="1:14" customHeight="1" ht="24.75" s="238" customFormat="1">
+      <c r="A20" s="578"/>
+      <c r="B20" s="579"/>
+      <c r="C20" s="579"/>
+      <c r="D20" s="580"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="35"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="240"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="237"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A21" s="588"/>
-      <c r="B21" s="589"/>
-      <c r="C21" s="589"/>
-      <c r="D21" s="590"/>
+      <c r="A21" s="578"/>
+      <c r="B21" s="579"/>
+      <c r="C21" s="579"/>
+      <c r="D21" s="580"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="35"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="238"/>
-      <c r="J21" s="239"/>
-      <c r="K21" s="240"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="237"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A22" s="588"/>
-      <c r="B22" s="589"/>
-      <c r="C22" s="589"/>
-      <c r="D22" s="590"/>
+      <c r="A22" s="578"/>
+      <c r="B22" s="579"/>
+      <c r="C22" s="579"/>
+      <c r="D22" s="580"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="35"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="240"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="237"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A23" s="588"/>
-      <c r="B23" s="589"/>
-      <c r="C23" s="589"/>
-      <c r="D23" s="590"/>
+      <c r="A23" s="578"/>
+      <c r="B23" s="579"/>
+      <c r="C23" s="579"/>
+      <c r="D23" s="580"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="35"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="240"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="237"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A24" s="588"/>
-      <c r="B24" s="589"/>
-      <c r="C24" s="589"/>
-      <c r="D24" s="590"/>
+      <c r="A24" s="578"/>
+      <c r="B24" s="579"/>
+      <c r="C24" s="579"/>
+      <c r="D24" s="580"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="35"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="238"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="240"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="236"/>
+      <c r="K24" s="237"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A25" s="588"/>
-      <c r="B25" s="589"/>
-      <c r="C25" s="589"/>
-      <c r="D25" s="590"/>
+      <c r="A25" s="578"/>
+      <c r="B25" s="579"/>
+      <c r="C25" s="579"/>
+      <c r="D25" s="580"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="35"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="240"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="236"/>
+      <c r="K25" s="237"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="24">
-      <c r="A26" s="585"/>
-      <c r="B26" s="586"/>
-      <c r="C26" s="586"/>
-      <c r="D26" s="587"/>
+      <c r="A26" s="575"/>
+      <c r="B26" s="576"/>
+      <c r="C26" s="576"/>
+      <c r="D26" s="577"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="35"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="591"/>
-      <c r="J26" s="592"/>
-      <c r="K26" s="593"/>
+      <c r="I26" s="581"/>
+      <c r="J26" s="582"/>
+      <c r="K26" s="583"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="24">
-      <c r="A27" s="585"/>
-      <c r="B27" s="586"/>
-      <c r="C27" s="586"/>
-      <c r="D27" s="587"/>
+      <c r="A27" s="575"/>
+      <c r="B27" s="576"/>
+      <c r="C27" s="576"/>
+      <c r="D27" s="577"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="35"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="591"/>
-      <c r="J27" s="592"/>
-      <c r="K27" s="593"/>
+      <c r="I27" s="581"/>
+      <c r="J27" s="582"/>
+      <c r="K27" s="583"/>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A28" s="585"/>
-      <c r="B28" s="586"/>
-      <c r="C28" s="586"/>
-      <c r="D28" s="587"/>
+      <c r="A28" s="575"/>
+      <c r="B28" s="576"/>
+      <c r="C28" s="576"/>
+      <c r="D28" s="577"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="35"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="591"/>
-      <c r="J28" s="592"/>
-      <c r="K28" s="593"/>
-    </row>
-    <row r="29" spans="1:14" customHeight="1" ht="24.75" s="228" customFormat="1">
-      <c r="A29" s="225"/>
-      <c r="B29" s="226"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="227"/>
+      <c r="I28" s="581"/>
+      <c r="J28" s="582"/>
+      <c r="K28" s="583"/>
+    </row>
+    <row r="29" spans="1:14" customHeight="1" ht="24.75" s="225" customFormat="1">
+      <c r="A29" s="222"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="35"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
-    </row>
-    <row r="30" spans="1:14" customHeight="1" ht="24.75" s="228" customFormat="1">
-      <c r="A30" s="225"/>
-      <c r="B30" s="226"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="227"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="221"/>
+    </row>
+    <row r="30" spans="1:14" customHeight="1" ht="24.75" s="225" customFormat="1">
+      <c r="A30" s="222"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="224"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="35"/>
       <c r="H30" s="34"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
-    </row>
-    <row r="31" spans="1:14" customHeight="1" ht="24.75" s="228" customFormat="1">
-      <c r="A31" s="225"/>
-      <c r="B31" s="226"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="227"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="221"/>
+    </row>
+    <row r="31" spans="1:14" customHeight="1" ht="24.75" s="225" customFormat="1">
+      <c r="A31" s="222"/>
+      <c r="B31" s="223"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="35"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="224"/>
-    </row>
-    <row r="32" spans="1:14" customHeight="1" ht="24.75" s="228" customFormat="1">
-      <c r="A32" s="225"/>
-      <c r="B32" s="226"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="227"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="221"/>
+    </row>
+    <row r="32" spans="1:14" customHeight="1" ht="24.75" s="225" customFormat="1">
+      <c r="A32" s="222"/>
+      <c r="B32" s="223"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="224"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="35"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="224"/>
-    </row>
-    <row r="33" spans="1:14" customHeight="1" ht="24.75" s="228" customFormat="1">
-      <c r="A33" s="225"/>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="227"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="221"/>
+    </row>
+    <row r="33" spans="1:14" customHeight="1" ht="24.75" s="225" customFormat="1">
+      <c r="A33" s="222"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="224"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="35"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-    </row>
-    <row r="34" spans="1:14" customHeight="1" ht="24.75" s="228" customFormat="1">
-      <c r="A34" s="225"/>
-      <c r="B34" s="226"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="227"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="221"/>
+    </row>
+    <row r="34" spans="1:14" customHeight="1" ht="24.75" s="225" customFormat="1">
+      <c r="A34" s="222"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="224"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="35"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="224"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="220"/>
+      <c r="K34" s="221"/>
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A35" s="585"/>
-      <c r="B35" s="586"/>
-      <c r="C35" s="586"/>
-      <c r="D35" s="587"/>
+      <c r="A35" s="575"/>
+      <c r="B35" s="576"/>
+      <c r="C35" s="576"/>
+      <c r="D35" s="577"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="35"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="591"/>
-      <c r="J35" s="592"/>
-      <c r="K35" s="593"/>
+      <c r="I35" s="581"/>
+      <c r="J35" s="582"/>
+      <c r="K35" s="583"/>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A36" s="585"/>
-      <c r="B36" s="586"/>
-      <c r="C36" s="586"/>
-      <c r="D36" s="587"/>
+      <c r="A36" s="575"/>
+      <c r="B36" s="576"/>
+      <c r="C36" s="576"/>
+      <c r="D36" s="577"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="35"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="591"/>
-      <c r="J36" s="592"/>
-      <c r="K36" s="593"/>
+      <c r="I36" s="581"/>
+      <c r="J36" s="582"/>
+      <c r="K36" s="583"/>
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A37" s="585"/>
-      <c r="B37" s="586"/>
-      <c r="C37" s="586"/>
-      <c r="D37" s="587"/>
+      <c r="A37" s="575"/>
+      <c r="B37" s="576"/>
+      <c r="C37" s="576"/>
+      <c r="D37" s="577"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="35"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="591"/>
-      <c r="J37" s="592"/>
-      <c r="K37" s="593"/>
+      <c r="I37" s="581"/>
+      <c r="J37" s="582"/>
+      <c r="K37" s="583"/>
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A38" s="635"/>
-      <c r="B38" s="636"/>
-      <c r="C38" s="636"/>
-      <c r="D38" s="637"/>
+      <c r="A38" s="627"/>
+      <c r="B38" s="628"/>
+      <c r="C38" s="628"/>
+      <c r="D38" s="629"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="638"/>
-      <c r="J38" s="639"/>
-      <c r="K38" s="640"/>
+      <c r="I38" s="630"/>
+      <c r="J38" s="631"/>
+      <c r="K38" s="632"/>
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="13.5">
-      <c r="A39" s="320" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="321"/>
-      <c r="C39" s="321"/>
-      <c r="D39" s="321"/>
-      <c r="E39" s="321"/>
-      <c r="F39" s="321"/>
-      <c r="G39" s="321"/>
-      <c r="H39" s="321"/>
-      <c r="I39" s="321"/>
-      <c r="J39" s="321"/>
-      <c r="K39" s="322"/>
+      <c r="A39" s="315" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="316"/>
+      <c r="C39" s="316"/>
+      <c r="D39" s="316"/>
+      <c r="E39" s="316"/>
+      <c r="F39" s="316"/>
+      <c r="G39" s="316"/>
+      <c r="H39" s="316"/>
+      <c r="I39" s="316"/>
+      <c r="J39" s="316"/>
+      <c r="K39" s="317"/>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="22.5">
-      <c r="A40" s="594" t="s">
-        <v>461</v>
-      </c>
-      <c r="B40" s="595"/>
-      <c r="C40" s="595"/>
-      <c r="D40" s="595"/>
-      <c r="E40" s="595"/>
-      <c r="F40" s="595"/>
-      <c r="G40" s="595"/>
-      <c r="H40" s="595"/>
-      <c r="I40" s="595"/>
-      <c r="J40" s="595"/>
-      <c r="K40" s="596"/>
+      <c r="A40" s="584" t="s">
+        <v>420</v>
+      </c>
+      <c r="B40" s="585"/>
+      <c r="C40" s="585"/>
+      <c r="D40" s="585"/>
+      <c r="E40" s="585"/>
+      <c r="F40" s="585"/>
+      <c r="G40" s="585"/>
+      <c r="H40" s="585"/>
+      <c r="I40" s="585"/>
+      <c r="J40" s="585"/>
+      <c r="K40" s="586"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="33.75">
-      <c r="A41" s="156" t="s">
-        <v>462</v>
-      </c>
-      <c r="B41" s="165" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="157" t="s">
-        <v>464</v>
-      </c>
-      <c r="D41" s="573" t="s">
-        <v>465</v>
-      </c>
-      <c r="E41" s="573"/>
-      <c r="F41" s="573"/>
-      <c r="G41" s="573"/>
-      <c r="H41" s="574"/>
-      <c r="I41" s="157" t="s">
-        <v>466</v>
-      </c>
-      <c r="J41" s="573" t="s">
-        <v>467</v>
-      </c>
-      <c r="K41" s="575"/>
+      <c r="A41" s="154" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="163" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="155" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="565" t="s">
+        <v>424</v>
+      </c>
+      <c r="E41" s="565"/>
+      <c r="F41" s="565"/>
+      <c r="G41" s="565"/>
+      <c r="H41" s="566"/>
+      <c r="I41" s="155" t="s">
+        <v>425</v>
+      </c>
+      <c r="J41" s="565" t="s">
+        <v>426</v>
+      </c>
+      <c r="K41" s="567"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A42" s="565"/>
-      <c r="B42" s="566"/>
-      <c r="C42" s="570"/>
-      <c r="D42" s="571"/>
-      <c r="E42" s="571"/>
-      <c r="F42" s="571"/>
-      <c r="G42" s="571"/>
-      <c r="H42" s="572"/>
-      <c r="I42" s="567"/>
-      <c r="J42" s="568"/>
-      <c r="K42" s="569"/>
+      <c r="A42" s="557"/>
+      <c r="B42" s="558"/>
+      <c r="C42" s="562"/>
+      <c r="D42" s="563"/>
+      <c r="E42" s="563"/>
+      <c r="F42" s="563"/>
+      <c r="G42" s="563"/>
+      <c r="H42" s="564"/>
+      <c r="I42" s="559"/>
+      <c r="J42" s="560"/>
+      <c r="K42" s="561"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A43" s="565"/>
-      <c r="B43" s="566"/>
-      <c r="C43" s="570"/>
-      <c r="D43" s="571"/>
-      <c r="E43" s="571"/>
-      <c r="F43" s="571"/>
-      <c r="G43" s="571"/>
-      <c r="H43" s="572"/>
-      <c r="I43" s="567"/>
-      <c r="J43" s="568"/>
-      <c r="K43" s="569"/>
+      <c r="A43" s="557"/>
+      <c r="B43" s="558"/>
+      <c r="C43" s="562"/>
+      <c r="D43" s="563"/>
+      <c r="E43" s="563"/>
+      <c r="F43" s="563"/>
+      <c r="G43" s="563"/>
+      <c r="H43" s="564"/>
+      <c r="I43" s="559"/>
+      <c r="J43" s="560"/>
+      <c r="K43" s="561"/>
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A44" s="565"/>
-      <c r="B44" s="566"/>
-      <c r="C44" s="570"/>
-      <c r="D44" s="571"/>
-      <c r="E44" s="571"/>
-      <c r="F44" s="571"/>
-      <c r="G44" s="571"/>
-      <c r="H44" s="572"/>
-      <c r="I44" s="567"/>
-      <c r="J44" s="568"/>
-      <c r="K44" s="569"/>
+      <c r="A44" s="557"/>
+      <c r="B44" s="558"/>
+      <c r="C44" s="562"/>
+      <c r="D44" s="563"/>
+      <c r="E44" s="563"/>
+      <c r="F44" s="563"/>
+      <c r="G44" s="563"/>
+      <c r="H44" s="564"/>
+      <c r="I44" s="559"/>
+      <c r="J44" s="560"/>
+      <c r="K44" s="561"/>
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A45" s="565"/>
-      <c r="B45" s="566"/>
-      <c r="C45" s="570"/>
-      <c r="D45" s="571"/>
-      <c r="E45" s="571"/>
-      <c r="F45" s="571"/>
-      <c r="G45" s="571"/>
-      <c r="H45" s="572"/>
-      <c r="I45" s="567"/>
-      <c r="J45" s="568"/>
-      <c r="K45" s="569"/>
+      <c r="A45" s="557"/>
+      <c r="B45" s="558"/>
+      <c r="C45" s="562"/>
+      <c r="D45" s="563"/>
+      <c r="E45" s="563"/>
+      <c r="F45" s="563"/>
+      <c r="G45" s="563"/>
+      <c r="H45" s="564"/>
+      <c r="I45" s="559"/>
+      <c r="J45" s="560"/>
+      <c r="K45" s="561"/>
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A46" s="565"/>
-      <c r="B46" s="566"/>
-      <c r="C46" s="570"/>
-      <c r="D46" s="571"/>
-      <c r="E46" s="571"/>
-      <c r="F46" s="571"/>
-      <c r="G46" s="571"/>
-      <c r="H46" s="572"/>
-      <c r="I46" s="567"/>
-      <c r="J46" s="568"/>
-      <c r="K46" s="569"/>
+      <c r="A46" s="557"/>
+      <c r="B46" s="558"/>
+      <c r="C46" s="562"/>
+      <c r="D46" s="563"/>
+      <c r="E46" s="563"/>
+      <c r="F46" s="563"/>
+      <c r="G46" s="563"/>
+      <c r="H46" s="564"/>
+      <c r="I46" s="559"/>
+      <c r="J46" s="560"/>
+      <c r="K46" s="561"/>
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="24.75">
-      <c r="A47" s="565"/>
-      <c r="B47" s="566"/>
-      <c r="C47" s="570"/>
-      <c r="D47" s="571"/>
-      <c r="E47" s="571"/>
-      <c r="F47" s="571"/>
-      <c r="G47" s="571"/>
-      <c r="H47" s="572"/>
-      <c r="I47" s="567"/>
-      <c r="J47" s="568"/>
-      <c r="K47" s="569"/>
+      <c r="A47" s="557"/>
+      <c r="B47" s="558"/>
+      <c r="C47" s="562"/>
+      <c r="D47" s="563"/>
+      <c r="E47" s="563"/>
+      <c r="F47" s="563"/>
+      <c r="G47" s="563"/>
+      <c r="H47" s="564"/>
+      <c r="I47" s="559"/>
+      <c r="J47" s="560"/>
+      <c r="K47" s="561"/>
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="25.5">
-      <c r="A48" s="565"/>
-      <c r="B48" s="566"/>
-      <c r="C48" s="570"/>
-      <c r="D48" s="571"/>
-      <c r="E48" s="571"/>
-      <c r="F48" s="571"/>
-      <c r="G48" s="571"/>
-      <c r="H48" s="572"/>
-      <c r="I48" s="567"/>
-      <c r="J48" s="568"/>
-      <c r="K48" s="569"/>
+      <c r="A48" s="557"/>
+      <c r="B48" s="558"/>
+      <c r="C48" s="562"/>
+      <c r="D48" s="563"/>
+      <c r="E48" s="563"/>
+      <c r="F48" s="563"/>
+      <c r="G48" s="563"/>
+      <c r="H48" s="564"/>
+      <c r="I48" s="559"/>
+      <c r="J48" s="560"/>
+      <c r="K48" s="561"/>
     </row>
     <row r="49" spans="1:14" customHeight="1" ht="11.25">
-      <c r="A49" s="320" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="321"/>
-      <c r="C49" s="321"/>
-      <c r="D49" s="321"/>
-      <c r="E49" s="321"/>
-      <c r="F49" s="321"/>
-      <c r="G49" s="321"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="321"/>
-      <c r="J49" s="321"/>
-      <c r="K49" s="550"/>
+      <c r="A49" s="315" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="316"/>
+      <c r="C49" s="316"/>
+      <c r="D49" s="316"/>
+      <c r="E49" s="316"/>
+      <c r="F49" s="316"/>
+      <c r="G49" s="316"/>
+      <c r="H49" s="316"/>
+      <c r="I49" s="316"/>
+      <c r="J49" s="316"/>
+      <c r="K49" s="542"/>
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="28.5">
-      <c r="A50" s="317" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="319"/>
-      <c r="C50" s="507"/>
-      <c r="D50" s="508"/>
-      <c r="E50" s="508"/>
-      <c r="F50" s="509"/>
-      <c r="G50" s="563" t="s">
+      <c r="A50" s="312" t="s">
         <v>198</v>
       </c>
-      <c r="H50" s="564"/>
-      <c r="I50" s="507"/>
-      <c r="J50" s="508"/>
-      <c r="K50" s="509"/>
-      <c r="L50" s="296"/>
-      <c r="M50" s="296"/>
+      <c r="B50" s="314"/>
+      <c r="C50" s="499"/>
+      <c r="D50" s="500"/>
+      <c r="E50" s="500"/>
+      <c r="F50" s="501"/>
+      <c r="G50" s="555" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="556"/>
+      <c r="I50" s="499"/>
+      <c r="J50" s="500"/>
+      <c r="K50" s="501"/>
+      <c r="L50" s="290"/>
+      <c r="M50" s="290"/>
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="9.75">
-      <c r="K51" s="301" t="s">
-        <v>468</v>
+      <c r="K51" s="295" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="3"/>
@@ -18341,6 +18061,7 @@
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="I15:K17"/>
     <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A24:D24"/>
@@ -18357,7 +18078,6 @@
     <mergeCell ref="C42:H42"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="A40:K40"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H6:K6"/>
@@ -18411,14 +18131,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1" topLeftCell="A16">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="C2" sqref="C2:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18430,7 +18150,7 @@
     <col min="5" max="5" width="3" customWidth="true" style="4"/>
     <col min="6" max="6" width="27" customWidth="true" style="4"/>
     <col min="7" max="7" width="3.7109375" customWidth="true" style="4"/>
-    <col min="8" max="8" width="7" customWidth="true" style="289"/>
+    <col min="8" max="8" width="7" customWidth="true" style="283"/>
     <col min="9" max="9" width="3" customWidth="true" style="4"/>
     <col min="10" max="10" width="2.42578125" customWidth="true" style="4"/>
     <col min="11" max="11" width="7.42578125" customWidth="true" style="4"/>
@@ -18440,35 +18160,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="3">
-      <c r="A1" s="758"/>
-      <c r="B1" s="759"/>
-      <c r="C1" s="759"/>
-      <c r="D1" s="759"/>
-      <c r="E1" s="759"/>
-      <c r="F1" s="759"/>
-      <c r="G1" s="759"/>
-      <c r="H1" s="759"/>
-      <c r="I1" s="759"/>
-      <c r="J1" s="759"/>
-      <c r="K1" s="759"/>
-      <c r="L1" s="759"/>
-      <c r="M1" s="760"/>
+      <c r="A1" s="750"/>
+      <c r="B1" s="751"/>
+      <c r="C1" s="751"/>
+      <c r="D1" s="751"/>
+      <c r="E1" s="751"/>
+      <c r="F1" s="751"/>
+      <c r="G1" s="751"/>
+      <c r="H1" s="751"/>
+      <c r="I1" s="751"/>
+      <c r="J1" s="751"/>
+      <c r="K1" s="751"/>
+      <c r="L1" s="751"/>
+      <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="13.5">
-      <c r="A2" s="735" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="736"/>
-      <c r="C2" s="763" t="s">
-        <v>470</v>
-      </c>
-      <c r="D2" s="763"/>
-      <c r="E2" s="763"/>
-      <c r="F2" s="764"/>
+      <c r="A2" s="727" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="728"/>
+      <c r="C2" s="755" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="755"/>
+      <c r="E2" s="755"/>
+      <c r="F2" s="756"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
-      <c r="I2" s="761"/>
-      <c r="J2" s="761"/>
+      <c r="I2" s="753"/>
+      <c r="J2" s="753"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
       <c r="M2" s="46"/>
@@ -18476,16 +18196,16 @@
     <row r="3" spans="1:14" customHeight="1" ht="12.75">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="751" t="s">
-        <v>471</v>
-      </c>
-      <c r="D3" s="751"/>
-      <c r="E3" s="751"/>
-      <c r="F3" s="752"/>
+      <c r="C3" s="743" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="743"/>
+      <c r="E3" s="743"/>
+      <c r="F3" s="744"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
-      <c r="I3" s="762"/>
-      <c r="J3" s="762"/>
+      <c r="I3" s="754"/>
+      <c r="J3" s="754"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
       <c r="M3" s="51"/>
@@ -18493,157 +18213,157 @@
     <row r="4" spans="1:14" customHeight="1" ht="12">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="751" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="751"/>
-      <c r="E4" s="751"/>
-      <c r="F4" s="752"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="288"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
+      <c r="C4" s="743" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="743"/>
+      <c r="E4" s="743"/>
+      <c r="F4" s="744"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="3">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="751"/>
-      <c r="D5" s="751"/>
-      <c r="E5" s="751"/>
-      <c r="F5" s="752"/>
-      <c r="G5" s="666"/>
-      <c r="H5" s="666"/>
-      <c r="I5" s="666"/>
-      <c r="J5" s="666"/>
-      <c r="K5" s="666"/>
-      <c r="L5" s="666"/>
+      <c r="C5" s="743"/>
+      <c r="D5" s="743"/>
+      <c r="E5" s="743"/>
+      <c r="F5" s="744"/>
+      <c r="G5" s="658"/>
+      <c r="H5" s="658"/>
+      <c r="I5" s="658"/>
+      <c r="J5" s="658"/>
+      <c r="K5" s="658"/>
+      <c r="L5" s="658"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="14.25">
       <c r="A6" s="47"/>
       <c r="B6" s="48"/>
-      <c r="C6" s="751" t="s">
-        <v>473</v>
-      </c>
-      <c r="D6" s="751"/>
-      <c r="E6" s="751"/>
-      <c r="F6" s="752"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="757"/>
-      <c r="J6" s="757"/>
-      <c r="K6" s="757"/>
-      <c r="L6" s="757"/>
+      <c r="C6" s="743" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="743"/>
+      <c r="E6" s="743"/>
+      <c r="F6" s="744"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="749"/>
+      <c r="J6" s="749"/>
+      <c r="K6" s="749"/>
+      <c r="L6" s="749"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:14" customHeight="1" ht="3" s="166" customFormat="1">
+    <row r="7" spans="1:14" customHeight="1" ht="3" s="164" customFormat="1">
       <c r="A7" s="47"/>
       <c r="B7" s="48"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="15.75">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
-      <c r="C8" s="751" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="751"/>
-      <c r="E8" s="751"/>
-      <c r="F8" s="752"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
+      <c r="C8" s="743" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" s="743"/>
+      <c r="E8" s="743"/>
+      <c r="F8" s="744"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" spans="1:14" customHeight="1" ht="3.75" hidden="true" s="166" customFormat="1">
+    <row r="9" spans="1:14" customHeight="1" ht="3.75" hidden="true" s="164" customFormat="1">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
       <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="751"/>
-      <c r="D10" s="751"/>
-      <c r="E10" s="751"/>
-      <c r="F10" s="752"/>
-      <c r="G10" s="666" t="s">
-        <v>475</v>
-      </c>
-      <c r="H10" s="666"/>
-      <c r="I10" s="666"/>
-      <c r="J10" s="666"/>
-      <c r="K10" s="666"/>
-      <c r="L10" s="666"/>
+      <c r="C10" s="743"/>
+      <c r="D10" s="743"/>
+      <c r="E10" s="743"/>
+      <c r="F10" s="744"/>
+      <c r="G10" s="658" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" s="658"/>
+      <c r="I10" s="658"/>
+      <c r="J10" s="658"/>
+      <c r="K10" s="658"/>
+      <c r="L10" s="658"/>
       <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="14.25">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="751"/>
-      <c r="D11" s="751"/>
-      <c r="E11" s="751"/>
-      <c r="F11" s="752"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="755"/>
-      <c r="J11" s="755"/>
-      <c r="K11" s="755"/>
-      <c r="L11" s="755"/>
+      <c r="C11" s="743"/>
+      <c r="D11" s="743"/>
+      <c r="E11" s="743"/>
+      <c r="F11" s="744"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="747"/>
+      <c r="J11" s="747"/>
+      <c r="K11" s="747"/>
+      <c r="L11" s="747"/>
       <c r="M11" s="101"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="5.25">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="753"/>
-      <c r="D12" s="753"/>
-      <c r="E12" s="753"/>
-      <c r="F12" s="754"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="756"/>
-      <c r="J12" s="756"/>
-      <c r="K12" s="756"/>
-      <c r="L12" s="756"/>
+      <c r="C12" s="745"/>
+      <c r="D12" s="745"/>
+      <c r="E12" s="745"/>
+      <c r="F12" s="746"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="748"/>
+      <c r="J12" s="748"/>
+      <c r="K12" s="748"/>
+      <c r="L12" s="748"/>
       <c r="M12" s="142"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
-      <c r="A13" s="775" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="776"/>
-      <c r="C13" s="771" t="s">
-        <v>477</v>
-      </c>
-      <c r="D13" s="771"/>
-      <c r="E13" s="600"/>
-      <c r="F13" s="601"/>
+      <c r="A13" s="767" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="768"/>
+      <c r="C13" s="763" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="763"/>
+      <c r="E13" s="590"/>
+      <c r="F13" s="591"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -18655,48 +18375,48 @@
     <row r="14" spans="1:14" customHeight="1" ht="14.25">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="771"/>
-      <c r="D14" s="771"/>
-      <c r="E14" s="600"/>
-      <c r="F14" s="601"/>
-      <c r="G14" s="665" t="s">
-        <v>475</v>
-      </c>
-      <c r="H14" s="666"/>
-      <c r="I14" s="666"/>
-      <c r="J14" s="666"/>
-      <c r="K14" s="666"/>
-      <c r="L14" s="666"/>
+      <c r="C14" s="763"/>
+      <c r="D14" s="763"/>
+      <c r="E14" s="590"/>
+      <c r="F14" s="591"/>
+      <c r="G14" s="657" t="s">
+        <v>434</v>
+      </c>
+      <c r="H14" s="658"/>
+      <c r="I14" s="658"/>
+      <c r="J14" s="658"/>
+      <c r="K14" s="658"/>
+      <c r="L14" s="658"/>
       <c r="M14" s="141"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="14.25">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="771"/>
-      <c r="D15" s="771"/>
-      <c r="E15" s="600"/>
-      <c r="F15" s="601"/>
+      <c r="C15" s="763"/>
+      <c r="D15" s="763"/>
+      <c r="E15" s="590"/>
+      <c r="F15" s="591"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="312"/>
-      <c r="I15" s="777"/>
-      <c r="J15" s="777"/>
-      <c r="K15" s="777"/>
-      <c r="L15" s="777"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="769"/>
+      <c r="J15" s="769"/>
+      <c r="K15" s="769"/>
+      <c r="L15" s="769"/>
       <c r="M15" s="141"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="5.25">
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
-      <c r="C16" s="600"/>
-      <c r="D16" s="600"/>
-      <c r="E16" s="600"/>
-      <c r="F16" s="601"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="590"/>
+      <c r="F16" s="591"/>
       <c r="G16" s="138"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="768"/>
-      <c r="J16" s="768"/>
-      <c r="K16" s="768"/>
-      <c r="L16" s="768"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="760"/>
+      <c r="J16" s="760"/>
+      <c r="K16" s="760"/>
+      <c r="L16" s="760"/>
       <c r="M16" s="139"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="6.75">
@@ -18717,12 +18437,12 @@
     <row r="18" spans="1:14" customHeight="1" ht="12.75">
       <c r="A18" s="59"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="668" t="s">
-        <v>478</v>
-      </c>
-      <c r="D18" s="668"/>
-      <c r="E18" s="669"/>
-      <c r="F18" s="670"/>
+      <c r="C18" s="660" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="660"/>
+      <c r="E18" s="661"/>
+      <c r="F18" s="662"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
@@ -18734,82 +18454,82 @@
     <row r="19" spans="1:14" customHeight="1" ht="14.25">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="668"/>
-      <c r="D19" s="668"/>
-      <c r="E19" s="669"/>
-      <c r="F19" s="670"/>
-      <c r="G19" s="665" t="s">
-        <v>475</v>
-      </c>
-      <c r="H19" s="666"/>
-      <c r="I19" s="666"/>
-      <c r="J19" s="666"/>
-      <c r="K19" s="666"/>
-      <c r="L19" s="666"/>
+      <c r="C19" s="660"/>
+      <c r="D19" s="660"/>
+      <c r="E19" s="661"/>
+      <c r="F19" s="662"/>
+      <c r="G19" s="657" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" s="658"/>
+      <c r="I19" s="658"/>
+      <c r="J19" s="658"/>
+      <c r="K19" s="658"/>
+      <c r="L19" s="658"/>
       <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="14.25">
       <c r="A20" s="59"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="668"/>
-      <c r="D20" s="668"/>
-      <c r="E20" s="669"/>
-      <c r="F20" s="670"/>
+      <c r="C20" s="660"/>
+      <c r="D20" s="660"/>
+      <c r="E20" s="661"/>
+      <c r="F20" s="662"/>
       <c r="G20" s="64"/>
-      <c r="H20" s="641" t="s">
-        <v>479</v>
-      </c>
-      <c r="I20" s="641"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="314"/>
+      <c r="H20" s="633" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="633"/>
+      <c r="J20" s="307"/>
+      <c r="K20" s="308"/>
       <c r="L20" s="143"/>
       <c r="M20" s="65"/>
     </row>
-    <row r="21" spans="1:14" customHeight="1" ht="14.25" s="208" customFormat="1">
+    <row r="21" spans="1:14" customHeight="1" ht="14.25" s="205" customFormat="1">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="668"/>
-      <c r="D21" s="668"/>
-      <c r="E21" s="669"/>
-      <c r="F21" s="670"/>
-      <c r="G21" s="642" t="s">
-        <v>480</v>
-      </c>
-      <c r="H21" s="643"/>
-      <c r="I21" s="643"/>
-      <c r="J21" s="313"/>
-      <c r="K21" s="315"/>
+      <c r="C21" s="660"/>
+      <c r="D21" s="660"/>
+      <c r="E21" s="661"/>
+      <c r="F21" s="662"/>
+      <c r="G21" s="634" t="s">
+        <v>439</v>
+      </c>
+      <c r="H21" s="635"/>
+      <c r="I21" s="635"/>
+      <c r="J21" s="307"/>
+      <c r="K21" s="309"/>
       <c r="L21" s="143"/>
       <c r="M21" s="65"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="5.25">
       <c r="A22" s="66"/>
       <c r="B22" s="67"/>
-      <c r="C22" s="671"/>
-      <c r="D22" s="671"/>
-      <c r="E22" s="671"/>
-      <c r="F22" s="672"/>
+      <c r="C22" s="663"/>
+      <c r="D22" s="663"/>
+      <c r="E22" s="663"/>
+      <c r="F22" s="664"/>
       <c r="G22" s="138" t="s">
-        <v>481</v>
-      </c>
-      <c r="H22" s="302"/>
-      <c r="I22" s="673"/>
-      <c r="J22" s="673"/>
-      <c r="K22" s="673"/>
+        <v>440</v>
+      </c>
+      <c r="H22" s="296"/>
+      <c r="I22" s="665"/>
+      <c r="J22" s="665"/>
+      <c r="K22" s="665"/>
       <c r="L22" s="144"/>
       <c r="M22" s="139"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="18">
-      <c r="A23" s="661" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="662"/>
-      <c r="C23" s="675" t="s">
-        <v>483</v>
-      </c>
-      <c r="D23" s="675"/>
-      <c r="E23" s="675"/>
-      <c r="F23" s="676"/>
+      <c r="A23" s="653" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" s="654"/>
+      <c r="C23" s="667" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="667"/>
+      <c r="E23" s="667"/>
+      <c r="F23" s="668"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -18821,61 +18541,61 @@
     <row r="24" spans="1:14" customHeight="1" ht="15">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
-      <c r="C24" s="677"/>
-      <c r="D24" s="677"/>
-      <c r="E24" s="677"/>
-      <c r="F24" s="678"/>
-      <c r="G24" s="665" t="s">
-        <v>475</v>
-      </c>
-      <c r="H24" s="666"/>
-      <c r="I24" s="666"/>
-      <c r="J24" s="666"/>
-      <c r="K24" s="666"/>
-      <c r="L24" s="666"/>
+      <c r="C24" s="669"/>
+      <c r="D24" s="669"/>
+      <c r="E24" s="669"/>
+      <c r="F24" s="670"/>
+      <c r="G24" s="657" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="658"/>
+      <c r="I24" s="658"/>
+      <c r="J24" s="658"/>
+      <c r="K24" s="658"/>
+      <c r="L24" s="658"/>
       <c r="M24" s="137"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
-      <c r="C25" s="677"/>
-      <c r="D25" s="677"/>
-      <c r="E25" s="677"/>
-      <c r="F25" s="678"/>
+      <c r="C25" s="669"/>
+      <c r="D25" s="669"/>
+      <c r="E25" s="669"/>
+      <c r="F25" s="670"/>
       <c r="G25" s="136"/>
-      <c r="H25" s="302"/>
-      <c r="I25" s="674"/>
-      <c r="J25" s="674"/>
-      <c r="K25" s="674"/>
-      <c r="L25" s="674"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="666"/>
+      <c r="J25" s="666"/>
+      <c r="K25" s="666"/>
+      <c r="L25" s="666"/>
       <c r="M25" s="137"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="6">
       <c r="A26" s="68"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="679"/>
-      <c r="D26" s="679"/>
-      <c r="E26" s="679"/>
-      <c r="F26" s="680"/>
+      <c r="C26" s="671"/>
+      <c r="D26" s="671"/>
+      <c r="E26" s="671"/>
+      <c r="F26" s="672"/>
       <c r="G26" s="138"/>
-      <c r="H26" s="302"/>
-      <c r="I26" s="768"/>
-      <c r="J26" s="768"/>
-      <c r="K26" s="768"/>
-      <c r="L26" s="768"/>
+      <c r="H26" s="296"/>
+      <c r="I26" s="760"/>
+      <c r="J26" s="760"/>
+      <c r="K26" s="760"/>
+      <c r="L26" s="760"/>
       <c r="M26" s="139"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.25">
-      <c r="A27" s="661" t="s">
-        <v>484</v>
-      </c>
-      <c r="B27" s="662"/>
-      <c r="C27" s="675" t="s">
-        <v>485</v>
-      </c>
-      <c r="D27" s="675"/>
-      <c r="E27" s="675"/>
-      <c r="F27" s="676"/>
+      <c r="A27" s="653" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="654"/>
+      <c r="C27" s="667" t="s">
+        <v>444</v>
+      </c>
+      <c r="D27" s="667"/>
+      <c r="E27" s="667"/>
+      <c r="F27" s="668"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
@@ -18887,61 +18607,61 @@
     <row r="28" spans="1:14" customHeight="1" ht="12">
       <c r="A28" s="57"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="677"/>
-      <c r="D28" s="677"/>
-      <c r="E28" s="677"/>
-      <c r="F28" s="678"/>
-      <c r="G28" s="665" t="s">
-        <v>475</v>
-      </c>
-      <c r="H28" s="666"/>
-      <c r="I28" s="666"/>
-      <c r="J28" s="666"/>
-      <c r="K28" s="666"/>
-      <c r="L28" s="666"/>
-      <c r="M28" s="207"/>
+      <c r="C28" s="669"/>
+      <c r="D28" s="669"/>
+      <c r="E28" s="669"/>
+      <c r="F28" s="670"/>
+      <c r="G28" s="657" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" s="658"/>
+      <c r="I28" s="658"/>
+      <c r="J28" s="658"/>
+      <c r="K28" s="658"/>
+      <c r="L28" s="658"/>
+      <c r="M28" s="204"/>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="11.25">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
-      <c r="C29" s="677"/>
-      <c r="D29" s="677"/>
-      <c r="E29" s="677"/>
-      <c r="F29" s="678"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="674"/>
-      <c r="J29" s="674"/>
-      <c r="K29" s="674"/>
-      <c r="L29" s="674"/>
+      <c r="C29" s="669"/>
+      <c r="D29" s="669"/>
+      <c r="E29" s="669"/>
+      <c r="F29" s="670"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="666"/>
+      <c r="J29" s="666"/>
+      <c r="K29" s="666"/>
+      <c r="L29" s="666"/>
       <c r="M29" s="137"/>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="6">
       <c r="A30" s="68"/>
       <c r="B30" s="69"/>
-      <c r="C30" s="679"/>
-      <c r="D30" s="679"/>
-      <c r="E30" s="679"/>
-      <c r="F30" s="680"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
+      <c r="C30" s="671"/>
+      <c r="D30" s="671"/>
+      <c r="E30" s="671"/>
+      <c r="F30" s="672"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
+      <c r="L30" s="206"/>
       <c r="M30" s="139"/>
     </row>
-    <row r="31" spans="1:14" customHeight="1" ht="18" s="160" customFormat="1">
-      <c r="A31" s="661" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="662"/>
-      <c r="C31" s="675" t="s">
-        <v>487</v>
-      </c>
-      <c r="D31" s="675"/>
-      <c r="E31" s="675"/>
-      <c r="F31" s="676"/>
+    <row r="31" spans="1:14" customHeight="1" ht="18" s="158" customFormat="1">
+      <c r="A31" s="653" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" s="654"/>
+      <c r="C31" s="667" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" s="667"/>
+      <c r="E31" s="667"/>
+      <c r="F31" s="668"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -18950,98 +18670,98 @@
       <c r="L31" s="55"/>
       <c r="M31" s="56"/>
     </row>
-    <row r="32" spans="1:14" customHeight="1" ht="12" s="160" customFormat="1">
+    <row r="32" spans="1:14" customHeight="1" ht="12" s="158" customFormat="1">
       <c r="A32" s="57"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="677"/>
-      <c r="D32" s="677"/>
-      <c r="E32" s="677"/>
-      <c r="F32" s="678"/>
-      <c r="G32" s="713" t="s">
-        <v>488</v>
-      </c>
-      <c r="H32" s="714"/>
-      <c r="I32" s="714"/>
-      <c r="J32" s="714"/>
-      <c r="K32" s="712"/>
-      <c r="L32" s="712"/>
+      <c r="C32" s="669"/>
+      <c r="D32" s="669"/>
+      <c r="E32" s="669"/>
+      <c r="F32" s="670"/>
+      <c r="G32" s="705" t="s">
+        <v>447</v>
+      </c>
+      <c r="H32" s="706"/>
+      <c r="I32" s="706"/>
+      <c r="J32" s="706"/>
+      <c r="K32" s="704"/>
+      <c r="L32" s="704"/>
       <c r="M32" s="137"/>
     </row>
-    <row r="33" spans="1:14" customHeight="1" ht="6.75" s="208" customFormat="1">
+    <row r="33" spans="1:14" customHeight="1" ht="6.75" s="205" customFormat="1">
       <c r="A33" s="57"/>
       <c r="B33" s="58"/>
-      <c r="C33" s="214"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="213"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="210"/>
       <c r="G33" s="140"/>
       <c r="H33" s="79"/>
       <c r="I33" s="131"/>
       <c r="J33" s="131"/>
-      <c r="K33" s="216"/>
-      <c r="L33" s="216"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
       <c r="M33" s="137"/>
     </row>
-    <row r="34" spans="1:14" customHeight="1" ht="14.25" s="160" customFormat="1">
+    <row r="34" spans="1:14" customHeight="1" ht="14.25" s="158" customFormat="1">
       <c r="A34" s="57"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="677" t="s">
-        <v>489</v>
-      </c>
-      <c r="D34" s="677"/>
-      <c r="E34" s="677"/>
-      <c r="F34" s="678"/>
+      <c r="C34" s="669" t="s">
+        <v>448</v>
+      </c>
+      <c r="D34" s="669"/>
+      <c r="E34" s="669"/>
+      <c r="F34" s="670"/>
       <c r="G34" s="136"/>
-      <c r="H34" s="303"/>
-      <c r="I34" s="711"/>
-      <c r="J34" s="711"/>
-      <c r="K34" s="711"/>
-      <c r="L34" s="711"/>
+      <c r="H34" s="297"/>
+      <c r="I34" s="703"/>
+      <c r="J34" s="703"/>
+      <c r="K34" s="703"/>
+      <c r="L34" s="703"/>
       <c r="M34" s="137"/>
     </row>
-    <row r="35" spans="1:14" customHeight="1" ht="14.25" s="208" customFormat="1">
+    <row r="35" spans="1:14" customHeight="1" ht="14.25" s="205" customFormat="1">
       <c r="A35" s="57"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="677"/>
-      <c r="D35" s="677"/>
-      <c r="E35" s="677"/>
-      <c r="F35" s="678"/>
-      <c r="G35" s="713" t="s">
-        <v>488</v>
-      </c>
-      <c r="H35" s="714"/>
-      <c r="I35" s="714"/>
-      <c r="J35" s="714"/>
-      <c r="K35" s="712"/>
-      <c r="L35" s="712"/>
+      <c r="C35" s="669"/>
+      <c r="D35" s="669"/>
+      <c r="E35" s="669"/>
+      <c r="F35" s="670"/>
+      <c r="G35" s="705" t="s">
+        <v>447</v>
+      </c>
+      <c r="H35" s="706"/>
+      <c r="I35" s="706"/>
+      <c r="J35" s="706"/>
+      <c r="K35" s="704"/>
+      <c r="L35" s="704"/>
       <c r="M35" s="137"/>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="4.5">
       <c r="A36" s="68"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="679"/>
-      <c r="D36" s="679"/>
-      <c r="E36" s="679"/>
-      <c r="F36" s="680"/>
+      <c r="C36" s="671"/>
+      <c r="D36" s="671"/>
+      <c r="E36" s="671"/>
+      <c r="F36" s="672"/>
       <c r="G36" s="140"/>
       <c r="H36" s="79"/>
       <c r="I36" s="131"/>
       <c r="J36" s="131"/>
-      <c r="K36" s="206"/>
+      <c r="K36" s="203"/>
       <c r="L36" s="135"/>
       <c r="M36" s="139"/>
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18">
-      <c r="A37" s="661" t="s">
-        <v>490</v>
-      </c>
-      <c r="B37" s="662"/>
-      <c r="C37" s="769" t="s">
-        <v>491</v>
-      </c>
-      <c r="D37" s="769"/>
-      <c r="E37" s="769"/>
-      <c r="F37" s="770"/>
+      <c r="A37" s="653" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37" s="654"/>
+      <c r="C37" s="761" t="s">
+        <v>450</v>
+      </c>
+      <c r="D37" s="761"/>
+      <c r="E37" s="761"/>
+      <c r="F37" s="762"/>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
@@ -19053,61 +18773,61 @@
     <row r="38" spans="1:14" customHeight="1" ht="12">
       <c r="A38" s="57"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="771"/>
-      <c r="D38" s="771"/>
-      <c r="E38" s="771"/>
-      <c r="F38" s="772"/>
-      <c r="G38" s="665" t="s">
-        <v>492</v>
-      </c>
-      <c r="H38" s="666"/>
-      <c r="I38" s="666"/>
-      <c r="J38" s="666"/>
-      <c r="K38" s="666"/>
-      <c r="L38" s="666"/>
-      <c r="M38" s="667"/>
+      <c r="C38" s="763"/>
+      <c r="D38" s="763"/>
+      <c r="E38" s="763"/>
+      <c r="F38" s="764"/>
+      <c r="G38" s="657" t="s">
+        <v>451</v>
+      </c>
+      <c r="H38" s="658"/>
+      <c r="I38" s="658"/>
+      <c r="J38" s="658"/>
+      <c r="K38" s="658"/>
+      <c r="L38" s="658"/>
+      <c r="M38" s="659"/>
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="14.25">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
-      <c r="C39" s="771"/>
-      <c r="D39" s="771"/>
-      <c r="E39" s="771"/>
-      <c r="F39" s="772"/>
+      <c r="C39" s="763"/>
+      <c r="D39" s="763"/>
+      <c r="E39" s="763"/>
+      <c r="F39" s="764"/>
       <c r="G39" s="136"/>
-      <c r="H39" s="302"/>
-      <c r="I39" s="674"/>
-      <c r="J39" s="674"/>
-      <c r="K39" s="674"/>
-      <c r="L39" s="674"/>
+      <c r="H39" s="296"/>
+      <c r="I39" s="666"/>
+      <c r="J39" s="666"/>
+      <c r="K39" s="666"/>
+      <c r="L39" s="666"/>
       <c r="M39" s="137"/>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="6">
       <c r="A40" s="68"/>
       <c r="B40" s="69"/>
-      <c r="C40" s="773"/>
-      <c r="D40" s="773"/>
-      <c r="E40" s="773"/>
-      <c r="F40" s="774"/>
+      <c r="C40" s="765"/>
+      <c r="D40" s="765"/>
+      <c r="E40" s="765"/>
+      <c r="F40" s="766"/>
       <c r="G40" s="138"/>
-      <c r="H40" s="302"/>
-      <c r="I40" s="768"/>
-      <c r="J40" s="768"/>
-      <c r="K40" s="768"/>
-      <c r="L40" s="768"/>
+      <c r="H40" s="296"/>
+      <c r="I40" s="760"/>
+      <c r="J40" s="760"/>
+      <c r="K40" s="760"/>
+      <c r="L40" s="760"/>
       <c r="M40" s="139"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="28.5">
-      <c r="A41" s="766" t="s">
-        <v>493</v>
-      </c>
-      <c r="B41" s="767"/>
-      <c r="C41" s="677" t="s">
-        <v>494</v>
-      </c>
-      <c r="D41" s="677"/>
-      <c r="E41" s="677"/>
-      <c r="F41" s="678"/>
+      <c r="A41" s="758" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="759"/>
+      <c r="C41" s="669" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="669"/>
+      <c r="E41" s="669"/>
+      <c r="F41" s="670"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
       <c r="I41" s="74"/>
@@ -19117,19 +18837,13 @@
       <c r="M41" s="76"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="0.75">
-      <c r="A42" s="72" t="s">
-        <v>495</v>
-      </c>
+      <c r="A42" s="72"/>
       <c r="B42" s="73"/>
-      <c r="C42" s="677"/>
-      <c r="D42" s="677"/>
-      <c r="E42" s="677"/>
-      <c r="F42" s="678" t="s">
-        <v>496</v>
-      </c>
-      <c r="G42" s="77" t="s">
-        <v>497</v>
-      </c>
+      <c r="C42" s="669"/>
+      <c r="D42" s="669"/>
+      <c r="E42" s="669"/>
+      <c r="F42" s="670"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="77"/>
       <c r="I42" s="77"/>
       <c r="J42" s="77"/>
@@ -19140,81 +18854,73 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="13.5">
       <c r="A43" s="72" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="B43" s="73"/>
-      <c r="C43" s="677" t="s">
-        <v>499</v>
-      </c>
-      <c r="D43" s="677"/>
-      <c r="E43" s="677"/>
-      <c r="F43" s="678" t="s">
-        <v>500</v>
-      </c>
-      <c r="G43" s="206" t="s">
-        <v>501</v>
-      </c>
-      <c r="H43" s="288"/>
-      <c r="I43" s="206"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="206"/>
-      <c r="L43" s="206"/>
-      <c r="M43" s="207"/>
+      <c r="C43" s="669" t="s">
+        <v>455</v>
+      </c>
+      <c r="D43" s="669"/>
+      <c r="E43" s="669"/>
+      <c r="F43" s="670"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="282"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="203"/>
+      <c r="K43" s="203"/>
+      <c r="L43" s="203"/>
+      <c r="M43" s="204"/>
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="15">
-      <c r="A44" s="72" t="s">
-        <v>502</v>
-      </c>
+      <c r="A44" s="72"/>
       <c r="B44" s="73"/>
-      <c r="C44" s="677"/>
-      <c r="D44" s="677"/>
-      <c r="E44" s="677"/>
-      <c r="F44" s="678" t="s">
-        <v>503</v>
-      </c>
-      <c r="G44" s="219" t="s">
-        <v>504</v>
-      </c>
-      <c r="H44" s="305"/>
+      <c r="C44" s="669"/>
+      <c r="D44" s="669"/>
+      <c r="E44" s="669"/>
+      <c r="F44" s="670"/>
+      <c r="G44" s="216" t="s">
+        <v>456</v>
+      </c>
+      <c r="H44" s="299"/>
       <c r="I44" s="131"/>
       <c r="J44" s="131"/>
-      <c r="K44" s="206"/>
+      <c r="K44" s="203"/>
       <c r="L44" s="135"/>
       <c r="M44" s="132"/>
       <c r="N44" s="79"/>
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="13.5">
       <c r="A45" s="72" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="B45" s="73"/>
-      <c r="C45" s="678" t="s">
-        <v>506</v>
-      </c>
-      <c r="D45" s="678"/>
-      <c r="E45" s="678"/>
-      <c r="F45" s="678"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="288"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="206"/>
-      <c r="K45" s="206"/>
-      <c r="L45" s="206"/>
-      <c r="M45" s="207"/>
+      <c r="C45" s="670" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="670"/>
+      <c r="E45" s="670"/>
+      <c r="F45" s="670"/>
+      <c r="G45" s="203"/>
+      <c r="H45" s="282"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="203"/>
+      <c r="K45" s="203"/>
+      <c r="L45" s="203"/>
+      <c r="M45" s="204"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="15">
       <c r="A46" s="72"/>
       <c r="B46" s="73"/>
-      <c r="C46" s="678"/>
-      <c r="D46" s="678"/>
-      <c r="E46" s="678"/>
-      <c r="F46" s="678"/>
-      <c r="G46" s="220" t="s">
-        <v>507</v>
-      </c>
-      <c r="H46" s="306"/>
+      <c r="C46" s="670"/>
+      <c r="D46" s="670"/>
+      <c r="E46" s="670"/>
+      <c r="F46" s="670"/>
+      <c r="G46" s="217" t="s">
+        <v>459</v>
+      </c>
+      <c r="H46" s="300"/>
       <c r="I46" s="131"/>
       <c r="J46" s="131"/>
       <c r="K46" s="131"/>
@@ -19224,35 +18930,35 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="13.5">
       <c r="A47" s="72" t="s">
-        <v>508</v>
+        <v>460</v>
       </c>
       <c r="B47" s="73"/>
-      <c r="C47" s="677" t="s">
-        <v>509</v>
-      </c>
-      <c r="D47" s="677"/>
+      <c r="C47" s="669" t="s">
+        <v>461</v>
+      </c>
+      <c r="D47" s="669"/>
       <c r="E47" s="128"/>
       <c r="F47" s="129"/>
-      <c r="G47" s="206"/>
-      <c r="H47" s="288"/>
-      <c r="I47" s="206"/>
-      <c r="J47" s="206"/>
-      <c r="K47" s="206"/>
-      <c r="L47" s="206"/>
-      <c r="M47" s="207"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="282"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="203"/>
+      <c r="K47" s="203"/>
+      <c r="L47" s="203"/>
+      <c r="M47" s="204"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="12">
-      <c r="A48" s="728"/>
-      <c r="B48" s="729"/>
-      <c r="C48" s="729"/>
-      <c r="D48" s="729"/>
-      <c r="E48" s="729"/>
-      <c r="F48" s="730"/>
-      <c r="G48" s="221" t="s">
-        <v>507</v>
-      </c>
-      <c r="H48" s="307"/>
+      <c r="A48" s="720"/>
+      <c r="B48" s="721"/>
+      <c r="C48" s="721"/>
+      <c r="D48" s="721"/>
+      <c r="E48" s="721"/>
+      <c r="F48" s="722"/>
+      <c r="G48" s="218" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="301"/>
       <c r="I48" s="133"/>
       <c r="J48" s="133"/>
       <c r="K48" s="133"/>
@@ -19261,12 +18967,12 @@
       <c r="N48" s="79"/>
     </row>
     <row r="49" spans="1:14" customHeight="1" ht="6.75">
-      <c r="A49" s="731"/>
-      <c r="B49" s="732"/>
-      <c r="C49" s="732"/>
-      <c r="D49" s="732"/>
-      <c r="E49" s="732"/>
-      <c r="F49" s="733"/>
+      <c r="A49" s="723"/>
+      <c r="B49" s="724"/>
+      <c r="C49" s="724"/>
+      <c r="D49" s="724"/>
+      <c r="E49" s="724"/>
+      <c r="F49" s="725"/>
       <c r="G49" s="130"/>
       <c r="H49" s="126"/>
       <c r="I49" s="126"/>
@@ -19277,274 +18983,274 @@
       <c r="N49" s="79"/>
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.25">
-      <c r="A50" s="663" t="s">
-        <v>510</v>
-      </c>
-      <c r="B50" s="664"/>
-      <c r="C50" s="217" t="s">
-        <v>511</v>
-      </c>
-      <c r="D50" s="217"/>
-      <c r="E50" s="217"/>
-      <c r="F50" s="217"/>
-      <c r="G50" s="217"/>
-      <c r="H50" s="217"/>
-      <c r="I50" s="218"/>
-      <c r="J50" s="715"/>
-      <c r="K50" s="716"/>
-      <c r="L50" s="716"/>
-      <c r="M50" s="717"/>
+      <c r="A50" s="655" t="s">
+        <v>462</v>
+      </c>
+      <c r="B50" s="656"/>
+      <c r="C50" s="214" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" s="214"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="214"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="214"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="707"/>
+      <c r="K50" s="708"/>
+      <c r="L50" s="708"/>
+      <c r="M50" s="709"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="18">
-      <c r="A51" s="725" t="s">
-        <v>512</v>
-      </c>
-      <c r="B51" s="726"/>
-      <c r="C51" s="726"/>
-      <c r="D51" s="726"/>
-      <c r="E51" s="727"/>
-      <c r="F51" s="205" t="s">
-        <v>513</v>
-      </c>
-      <c r="G51" s="734" t="s">
-        <v>514</v>
-      </c>
-      <c r="H51" s="573"/>
-      <c r="I51" s="575"/>
-      <c r="J51" s="718"/>
-      <c r="K51" s="719"/>
-      <c r="L51" s="719"/>
-      <c r="M51" s="720"/>
+      <c r="A51" s="717" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" s="718"/>
+      <c r="C51" s="718"/>
+      <c r="D51" s="718"/>
+      <c r="E51" s="719"/>
+      <c r="F51" s="202" t="s">
+        <v>465</v>
+      </c>
+      <c r="G51" s="726" t="s">
+        <v>466</v>
+      </c>
+      <c r="H51" s="565"/>
+      <c r="I51" s="567"/>
+      <c r="J51" s="710"/>
+      <c r="K51" s="711"/>
+      <c r="L51" s="711"/>
+      <c r="M51" s="712"/>
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="24">
-      <c r="A52" s="744"/>
-      <c r="B52" s="745"/>
-      <c r="C52" s="747"/>
-      <c r="D52" s="747"/>
-      <c r="E52" s="748"/>
+      <c r="A52" s="736"/>
+      <c r="B52" s="737"/>
+      <c r="C52" s="739"/>
+      <c r="D52" s="739"/>
+      <c r="E52" s="740"/>
       <c r="F52" s="80"/>
-      <c r="G52" s="737"/>
-      <c r="H52" s="738"/>
-      <c r="I52" s="739"/>
-      <c r="J52" s="718"/>
-      <c r="K52" s="719"/>
-      <c r="L52" s="719"/>
-      <c r="M52" s="720"/>
+      <c r="G52" s="729"/>
+      <c r="H52" s="730"/>
+      <c r="I52" s="731"/>
+      <c r="J52" s="710"/>
+      <c r="K52" s="711"/>
+      <c r="L52" s="711"/>
+      <c r="M52" s="712"/>
     </row>
     <row r="53" spans="1:14" customHeight="1" ht="24">
-      <c r="A53" s="744"/>
-      <c r="B53" s="745"/>
-      <c r="C53" s="745"/>
-      <c r="D53" s="745"/>
-      <c r="E53" s="746"/>
+      <c r="A53" s="736"/>
+      <c r="B53" s="737"/>
+      <c r="C53" s="737"/>
+      <c r="D53" s="737"/>
+      <c r="E53" s="738"/>
       <c r="F53" s="80"/>
-      <c r="G53" s="737"/>
-      <c r="H53" s="738"/>
-      <c r="I53" s="739"/>
-      <c r="J53" s="718"/>
-      <c r="K53" s="719"/>
-      <c r="L53" s="719"/>
-      <c r="M53" s="720"/>
+      <c r="G53" s="729"/>
+      <c r="H53" s="730"/>
+      <c r="I53" s="731"/>
+      <c r="J53" s="710"/>
+      <c r="K53" s="711"/>
+      <c r="L53" s="711"/>
+      <c r="M53" s="712"/>
     </row>
     <row r="54" spans="1:14" customHeight="1" ht="24">
-      <c r="A54" s="740"/>
-      <c r="B54" s="741"/>
-      <c r="C54" s="742"/>
-      <c r="D54" s="742"/>
-      <c r="E54" s="743"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="722"/>
-      <c r="H54" s="723"/>
-      <c r="I54" s="724"/>
-      <c r="J54" s="718"/>
-      <c r="K54" s="719"/>
-      <c r="L54" s="719"/>
-      <c r="M54" s="720"/>
+      <c r="A54" s="732"/>
+      <c r="B54" s="733"/>
+      <c r="C54" s="734"/>
+      <c r="D54" s="734"/>
+      <c r="E54" s="735"/>
+      <c r="F54" s="230"/>
+      <c r="G54" s="714"/>
+      <c r="H54" s="715"/>
+      <c r="I54" s="716"/>
+      <c r="J54" s="710"/>
+      <c r="K54" s="711"/>
+      <c r="L54" s="711"/>
+      <c r="M54" s="712"/>
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="39.75">
-      <c r="A55" s="735" t="s">
-        <v>515</v>
-      </c>
-      <c r="B55" s="736"/>
-      <c r="C55" s="749" t="s">
-        <v>516</v>
-      </c>
-      <c r="D55" s="749"/>
-      <c r="E55" s="749"/>
-      <c r="F55" s="749"/>
-      <c r="G55" s="749"/>
-      <c r="H55" s="749"/>
-      <c r="I55" s="308"/>
-      <c r="J55" s="719"/>
-      <c r="K55" s="719"/>
-      <c r="L55" s="719"/>
-      <c r="M55" s="720"/>
+      <c r="A55" s="727" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="728"/>
+      <c r="C55" s="741" t="s">
+        <v>468</v>
+      </c>
+      <c r="D55" s="741"/>
+      <c r="E55" s="741"/>
+      <c r="F55" s="741"/>
+      <c r="G55" s="741"/>
+      <c r="H55" s="741"/>
+      <c r="I55" s="302"/>
+      <c r="J55" s="711"/>
+      <c r="K55" s="711"/>
+      <c r="L55" s="711"/>
+      <c r="M55" s="712"/>
     </row>
     <row r="56" spans="1:14" customHeight="1" ht="13.5">
       <c r="A56" s="81"/>
       <c r="B56" s="82"/>
-      <c r="C56" s="750"/>
-      <c r="D56" s="750"/>
-      <c r="E56" s="750"/>
-      <c r="F56" s="750"/>
-      <c r="G56" s="750"/>
-      <c r="H56" s="750"/>
-      <c r="I56" s="309"/>
-      <c r="J56" s="232"/>
-      <c r="K56" s="721" t="s">
-        <v>517</v>
-      </c>
-      <c r="L56" s="721"/>
-      <c r="M56" s="204"/>
-    </row>
-    <row r="57" spans="1:14" customHeight="1" ht="13.5" s="199" customFormat="1">
+      <c r="C56" s="742"/>
+      <c r="D56" s="742"/>
+      <c r="E56" s="742"/>
+      <c r="F56" s="742"/>
+      <c r="G56" s="742"/>
+      <c r="H56" s="742"/>
+      <c r="I56" s="303"/>
+      <c r="J56" s="229"/>
+      <c r="K56" s="713" t="s">
+        <v>469</v>
+      </c>
+      <c r="L56" s="713"/>
+      <c r="M56" s="201"/>
+    </row>
+    <row r="57" spans="1:14" customHeight="1" ht="13.5" s="196" customFormat="1">
       <c r="A57" s="81"/>
       <c r="B57" s="82"/>
-      <c r="C57" s="750"/>
-      <c r="D57" s="750"/>
-      <c r="E57" s="750"/>
-      <c r="F57" s="750"/>
-      <c r="G57" s="750"/>
-      <c r="H57" s="750"/>
-      <c r="I57" s="309"/>
-      <c r="J57" s="721"/>
-      <c r="K57" s="721"/>
-      <c r="L57" s="721"/>
-      <c r="M57" s="765"/>
+      <c r="C57" s="742"/>
+      <c r="D57" s="742"/>
+      <c r="E57" s="742"/>
+      <c r="F57" s="742"/>
+      <c r="G57" s="742"/>
+      <c r="H57" s="742"/>
+      <c r="I57" s="303"/>
+      <c r="J57" s="713"/>
+      <c r="K57" s="713"/>
+      <c r="L57" s="713"/>
+      <c r="M57" s="757"/>
     </row>
     <row r="58" spans="1:14" customHeight="1" ht="7.5">
-      <c r="A58" s="202"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="310"/>
-      <c r="D58" s="310"/>
-      <c r="E58" s="310"/>
-      <c r="F58" s="310"/>
-      <c r="G58" s="310"/>
-      <c r="H58" s="310"/>
-      <c r="I58" s="311"/>
-      <c r="J58" s="206"/>
-      <c r="K58" s="701"/>
-      <c r="L58" s="702"/>
-      <c r="M58" s="207"/>
-    </row>
-    <row r="59" spans="1:14" customHeight="1" ht="8.25" s="199" customFormat="1">
-      <c r="A59" s="200"/>
-      <c r="B59" s="206"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="201"/>
-      <c r="F59" s="201"/>
-      <c r="G59" s="201"/>
-      <c r="H59" s="201"/>
-      <c r="I59" s="201"/>
-      <c r="J59" s="206"/>
-      <c r="K59" s="703"/>
-      <c r="L59" s="704"/>
-      <c r="M59" s="207"/>
+      <c r="A58" s="199"/>
+      <c r="B58" s="200"/>
+      <c r="C58" s="304"/>
+      <c r="D58" s="304"/>
+      <c r="E58" s="304"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
+      <c r="H58" s="304"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="203"/>
+      <c r="K58" s="693"/>
+      <c r="L58" s="694"/>
+      <c r="M58" s="204"/>
+    </row>
+    <row r="59" spans="1:14" customHeight="1" ht="8.25" s="196" customFormat="1">
+      <c r="A59" s="197"/>
+      <c r="B59" s="203"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="198"/>
+      <c r="H59" s="198"/>
+      <c r="I59" s="198"/>
+      <c r="J59" s="203"/>
+      <c r="K59" s="695"/>
+      <c r="L59" s="696"/>
+      <c r="M59" s="204"/>
     </row>
     <row r="60" spans="1:14" customHeight="1" ht="25.5">
       <c r="A60" s="83"/>
-      <c r="B60" s="653" t="s">
-        <v>518</v>
-      </c>
-      <c r="C60" s="654"/>
-      <c r="D60" s="655"/>
+      <c r="B60" s="645" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="646"/>
+      <c r="D60" s="647"/>
       <c r="E60" s="84"/>
-      <c r="F60" s="644"/>
-      <c r="G60" s="645"/>
-      <c r="H60" s="645"/>
-      <c r="I60" s="646"/>
-      <c r="J60" s="206"/>
-      <c r="K60" s="703"/>
-      <c r="L60" s="704"/>
+      <c r="F60" s="636"/>
+      <c r="G60" s="637"/>
+      <c r="H60" s="637"/>
+      <c r="I60" s="638"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="695"/>
+      <c r="L60" s="696"/>
       <c r="M60" s="85"/>
     </row>
     <row r="61" spans="1:14" customHeight="1" ht="20.25">
       <c r="A61" s="83"/>
-      <c r="B61" s="707" t="s">
-        <v>519</v>
-      </c>
-      <c r="C61" s="708"/>
+      <c r="B61" s="699" t="s">
+        <v>471</v>
+      </c>
+      <c r="C61" s="700"/>
       <c r="D61" s="145"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="647"/>
-      <c r="G61" s="648"/>
-      <c r="H61" s="648"/>
-      <c r="I61" s="649"/>
-      <c r="J61" s="206"/>
-      <c r="K61" s="703"/>
-      <c r="L61" s="704"/>
+      <c r="F61" s="639"/>
+      <c r="G61" s="640"/>
+      <c r="H61" s="640"/>
+      <c r="I61" s="641"/>
+      <c r="J61" s="203"/>
+      <c r="K61" s="695"/>
+      <c r="L61" s="696"/>
       <c r="M61" s="85"/>
     </row>
     <row r="62" spans="1:14" customHeight="1" ht="9">
       <c r="A62" s="83"/>
-      <c r="B62" s="696" t="s">
-        <v>520</v>
-      </c>
-      <c r="C62" s="697"/>
-      <c r="D62" s="656"/>
+      <c r="B62" s="688" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="689"/>
+      <c r="D62" s="648"/>
       <c r="E62" s="84"/>
-      <c r="F62" s="650"/>
-      <c r="G62" s="651"/>
-      <c r="H62" s="651"/>
-      <c r="I62" s="652"/>
-      <c r="J62" s="206"/>
-      <c r="K62" s="703"/>
-      <c r="L62" s="704"/>
+      <c r="F62" s="642"/>
+      <c r="G62" s="643"/>
+      <c r="H62" s="643"/>
+      <c r="I62" s="644"/>
+      <c r="J62" s="203"/>
+      <c r="K62" s="695"/>
+      <c r="L62" s="696"/>
       <c r="M62" s="85"/>
     </row>
     <row r="63" spans="1:14" customHeight="1" ht="12">
       <c r="A63" s="83"/>
-      <c r="B63" s="709"/>
-      <c r="C63" s="710"/>
-      <c r="D63" s="657"/>
+      <c r="B63" s="701"/>
+      <c r="C63" s="702"/>
+      <c r="D63" s="649"/>
       <c r="E63" s="84"/>
-      <c r="F63" s="658" t="s">
-        <v>521</v>
-      </c>
-      <c r="G63" s="659"/>
-      <c r="H63" s="659"/>
-      <c r="I63" s="660"/>
-      <c r="J63" s="206"/>
-      <c r="K63" s="703"/>
-      <c r="L63" s="704"/>
+      <c r="F63" s="650" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" s="651"/>
+      <c r="H63" s="651"/>
+      <c r="I63" s="652"/>
+      <c r="J63" s="203"/>
+      <c r="K63" s="695"/>
+      <c r="L63" s="696"/>
       <c r="M63" s="85"/>
     </row>
     <row r="64" spans="1:14" customHeight="1" ht="10.5">
       <c r="A64" s="83"/>
-      <c r="B64" s="696" t="s">
-        <v>522</v>
-      </c>
-      <c r="C64" s="697"/>
-      <c r="D64" s="656"/>
+      <c r="B64" s="688" t="s">
+        <v>474</v>
+      </c>
+      <c r="C64" s="689"/>
+      <c r="D64" s="648"/>
       <c r="E64" s="84"/>
       <c r="F64" s="86"/>
-      <c r="G64" s="209"/>
-      <c r="H64" s="290"/>
-      <c r="I64" s="210"/>
+      <c r="G64" s="206"/>
+      <c r="H64" s="284"/>
+      <c r="I64" s="207"/>
       <c r="J64" s="87"/>
-      <c r="K64" s="705"/>
-      <c r="L64" s="706"/>
+      <c r="K64" s="697"/>
+      <c r="L64" s="698"/>
       <c r="M64" s="85"/>
     </row>
     <row r="65" spans="1:14" customHeight="1" ht="12.75">
       <c r="A65" s="83"/>
-      <c r="B65" s="698"/>
-      <c r="C65" s="699"/>
-      <c r="D65" s="700"/>
+      <c r="B65" s="690"/>
+      <c r="C65" s="691"/>
+      <c r="D65" s="692"/>
       <c r="E65" s="84"/>
-      <c r="F65" s="693" t="s">
-        <v>523</v>
-      </c>
-      <c r="G65" s="694"/>
-      <c r="H65" s="694"/>
-      <c r="I65" s="695"/>
+      <c r="F65" s="685" t="s">
+        <v>475</v>
+      </c>
+      <c r="G65" s="686"/>
+      <c r="H65" s="686"/>
+      <c r="I65" s="687"/>
       <c r="J65" s="87"/>
-      <c r="K65" s="691" t="s">
-        <v>524</v>
-      </c>
-      <c r="L65" s="692"/>
+      <c r="K65" s="683" t="s">
+        <v>476</v>
+      </c>
+      <c r="L65" s="684"/>
       <c r="M65" s="85"/>
     </row>
     <row r="66" spans="1:14" customHeight="1" ht="8.25">
@@ -19563,32 +19269,32 @@
       <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="28.5">
-      <c r="A67" s="688" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="689"/>
-      <c r="C67" s="689"/>
-      <c r="D67" s="689"/>
-      <c r="E67" s="689"/>
-      <c r="F67" s="689"/>
-      <c r="G67" s="689"/>
-      <c r="H67" s="689"/>
-      <c r="I67" s="689"/>
-      <c r="J67" s="689"/>
-      <c r="K67" s="689"/>
-      <c r="L67" s="689"/>
-      <c r="M67" s="690"/>
+      <c r="A67" s="680" t="s">
+        <v>477</v>
+      </c>
+      <c r="B67" s="681"/>
+      <c r="C67" s="681"/>
+      <c r="D67" s="681"/>
+      <c r="E67" s="681"/>
+      <c r="F67" s="681"/>
+      <c r="G67" s="681"/>
+      <c r="H67" s="681"/>
+      <c r="I67" s="681"/>
+      <c r="J67" s="681"/>
+      <c r="K67" s="681"/>
+      <c r="L67" s="681"/>
+      <c r="M67" s="682"/>
     </row>
     <row r="68" spans="1:14" customHeight="1" ht="53.25">
       <c r="A68" s="83"/>
       <c r="B68" s="87"/>
       <c r="C68" s="94"/>
       <c r="D68" s="94"/>
-      <c r="E68" s="685"/>
-      <c r="F68" s="686"/>
-      <c r="G68" s="686"/>
-      <c r="H68" s="686"/>
-      <c r="I68" s="687"/>
+      <c r="E68" s="677"/>
+      <c r="F68" s="678"/>
+      <c r="G68" s="678"/>
+      <c r="H68" s="678"/>
+      <c r="I68" s="679"/>
       <c r="J68" s="146"/>
       <c r="K68" s="146"/>
       <c r="L68" s="95"/>
@@ -19597,15 +19303,15 @@
     <row r="69" spans="1:14" customHeight="1" ht="18">
       <c r="A69" s="83"/>
       <c r="B69" s="87"/>
-      <c r="C69" s="291"/>
-      <c r="D69" s="291"/>
-      <c r="E69" s="682" t="s">
-        <v>526</v>
-      </c>
-      <c r="F69" s="683"/>
-      <c r="G69" s="683"/>
-      <c r="H69" s="683"/>
-      <c r="I69" s="684"/>
+      <c r="C69" s="285"/>
+      <c r="D69" s="285"/>
+      <c r="E69" s="674" t="s">
+        <v>478</v>
+      </c>
+      <c r="F69" s="675"/>
+      <c r="G69" s="675"/>
+      <c r="H69" s="675"/>
+      <c r="I69" s="676"/>
       <c r="J69" s="148"/>
       <c r="K69" s="147"/>
       <c r="L69" s="96"/>
@@ -19627,21 +19333,21 @@
       <c r="M70" s="99"/>
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="10.5">
-      <c r="A71" s="681" t="s">
-        <v>527</v>
-      </c>
-      <c r="B71" s="681"/>
-      <c r="C71" s="681"/>
-      <c r="D71" s="681"/>
-      <c r="E71" s="681"/>
-      <c r="F71" s="681"/>
-      <c r="G71" s="681"/>
-      <c r="H71" s="681"/>
-      <c r="I71" s="681"/>
-      <c r="J71" s="681"/>
-      <c r="K71" s="681"/>
-      <c r="L71" s="681"/>
-      <c r="M71" s="681"/>
+      <c r="A71" s="673" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" s="673"/>
+      <c r="C71" s="673"/>
+      <c r="D71" s="673"/>
+      <c r="E71" s="673"/>
+      <c r="F71" s="673"/>
+      <c r="G71" s="673"/>
+      <c r="H71" s="673"/>
+      <c r="I71" s="673"/>
+      <c r="J71" s="673"/>
+      <c r="K71" s="673"/>
+      <c r="L71" s="673"/>
+      <c r="M71" s="673"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -19749,7 +19455,29 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4097" r:id="rId5" name="Check Box 1">
+            <control shapeId="4121" r:id="rId5" name="Label 25">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1295400</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1133475</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId6" name="34_a_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19771,7 +19499,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4098" r:id="rId6" name="Check Box 2">
+            <control shapeId="4098" r:id="rId7" name="34_a_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19793,7 +19521,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4099" r:id="rId7" name="Check Box 3">
+            <control shapeId="4099" r:id="rId8" name="34_b_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19815,7 +19543,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4100" r:id="rId8" name="Check Box 4">
+            <control shapeId="4100" r:id="rId9" name="34_b_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19837,7 +19565,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4101" r:id="rId9" name="Check Box 5">
+            <control shapeId="4101" r:id="rId10" name="35_a_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19859,7 +19587,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4102" r:id="rId10" name="Check Box 6">
+            <control shapeId="4102" r:id="rId11" name="35_a_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19881,7 +19609,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4103" r:id="rId11" name="Check Box 7">
+            <control shapeId="4103" r:id="rId12" name="35_b_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19903,7 +19631,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4104" r:id="rId12" name="Check Box 8">
+            <control shapeId="4104" r:id="rId13" name="35_b_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19925,7 +19653,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4105" r:id="rId13" name="Check Box 9">
+            <control shapeId="4105" r:id="rId14" name="36_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19947,7 +19675,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4106" r:id="rId14" name="Check Box 10">
+            <control shapeId="4106" r:id="rId15" name="36_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19969,7 +19697,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4107" r:id="rId15" name="Check Box 11">
+            <control shapeId="4107" r:id="rId16" name="37_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19991,7 +19719,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4108" r:id="rId16" name="Check Box 12">
+            <control shapeId="4108" r:id="rId17" name="37_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20013,7 +19741,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4109" r:id="rId17" name="Check Box 13">
+            <control shapeId="4109" r:id="rId18" name="39_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20035,7 +19763,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4110" r:id="rId18" name="Check Box 14">
+            <control shapeId="4110" r:id="rId19" name="39_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20057,7 +19785,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4111" r:id="rId19" name="Check Box 15">
+            <control shapeId="4111" r:id="rId20" name="40_a_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20079,7 +19807,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4112" r:id="rId20" name="Check Box 16">
+            <control shapeId="4112" r:id="rId21" name="40_b_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20101,7 +19829,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4113" r:id="rId21" name="Check Box 17">
+            <control shapeId="4113" r:id="rId22" name="40_c_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20123,7 +19851,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4114" r:id="rId22" name="Check Box 18">
+            <control shapeId="4114" r:id="rId23" name="40_a_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20145,7 +19873,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4115" r:id="rId23" name="Check Box 19">
+            <control shapeId="4115" r:id="rId24" name="40_b_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20167,7 +19895,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4116" r:id="rId24" name="Check Box 20">
+            <control shapeId="4116" r:id="rId25" name="40_c_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20189,29 +19917,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4121" r:id="rId25" name="Label 25">
-              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1295400</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>1133475</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4122" r:id="rId26" name="Check Box 26">
+            <control shapeId="4122" r:id="rId26" name="38_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20233,7 +19939,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4123" r:id="rId27" name="Check Box 27">
+            <control shapeId="4123" r:id="rId27" name="38_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20255,7 +19961,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4124" r:id="rId28" name="Check Box 28">
+            <control shapeId="4124" r:id="rId28" name="38_b_yes_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20277,7 +19983,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4125" r:id="rId29" name="Check Box 29">
+            <control shapeId="4125" r:id="rId29" name="38_b_no_checkbox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -20306,7 +20012,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -20323,45 +20029,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>536</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
